--- a/latest_analysis.xlsx
+++ b/latest_analysis.xlsx
@@ -436,33 +436,31 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>code</t>
+          <t>name</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>score</t>
+          <t>final_score</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>msg</t>
+          <t>price</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>없음</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>조건에 맞는 종목 없음</t>
-        </is>
+      <c r="C2" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/latest_analysis.xlsx
+++ b/latest_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,31 +436,1038 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>price</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>rsi</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>disparity</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>tech_score</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>news_score</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>final_score</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>price</t>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>us_impact</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>없음</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
+          <t>035720</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>카카오</t>
+        </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>58400</v>
+      </c>
+      <c r="D2" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="E2" t="n">
+        <v>98.5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>30</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>40</v>
+      </c>
+      <c r="I2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>329180</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>HD현대중공업</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>611000</v>
+      </c>
+      <c r="D3" t="n">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="E3" t="n">
+        <v>105.7</v>
+      </c>
+      <c r="F3" t="n">
+        <v>20</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>30</v>
+      </c>
+      <c r="I3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>105560</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>KB금융</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>134200</v>
+      </c>
+      <c r="D4" t="n">
+        <v>69.7</v>
+      </c>
+      <c r="E4" t="n">
+        <v>105</v>
+      </c>
+      <c r="F4" t="n">
+        <v>20</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>30</v>
+      </c>
+      <c r="I4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>068270</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>셀트리온</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>208000</v>
+      </c>
+      <c r="D5" t="n">
+        <v>55.4</v>
+      </c>
+      <c r="E5" t="n">
+        <v>102.3</v>
+      </c>
+      <c r="F5" t="n">
+        <v>20</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>30</v>
+      </c>
+      <c r="I5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>042660</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>한화오션</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>138200</v>
+      </c>
+      <c r="D6" t="n">
+        <v>68.3</v>
+      </c>
+      <c r="E6" t="n">
+        <v>104.9</v>
+      </c>
+      <c r="F6" t="n">
+        <v>20</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>30</v>
+      </c>
+      <c r="I6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>012330</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>현대모비스</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>456000</v>
+      </c>
+      <c r="D7" t="n">
+        <v>68.90000000000001</v>
+      </c>
+      <c r="E7" t="n">
+        <v>112</v>
+      </c>
+      <c r="F7" t="n">
+        <v>20</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>30</v>
+      </c>
+      <c r="I7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>055550</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>신한지주</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>82300</v>
+      </c>
+      <c r="D8" t="n">
+        <v>69.7</v>
+      </c>
+      <c r="E8" t="n">
+        <v>104.4</v>
+      </c>
+      <c r="F8" t="n">
+        <v>20</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>30</v>
+      </c>
+      <c r="I8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>267260</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>HD현대일렉트릭</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>893000</v>
+      </c>
+      <c r="D9" t="n">
+        <v>62.1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>104.7</v>
+      </c>
+      <c r="F9" t="n">
+        <v>20</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>30</v>
+      </c>
+      <c r="I9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>010130</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>고려아연</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1547000</v>
+      </c>
+      <c r="D10" t="n">
+        <v>63.2</v>
+      </c>
+      <c r="E10" t="n">
+        <v>113.4</v>
+      </c>
+      <c r="F10" t="n">
+        <v>20</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>30</v>
+      </c>
+      <c r="I10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>051910</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>LG화학</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>349500</v>
+      </c>
+      <c r="D11" t="n">
+        <v>62.6</v>
+      </c>
+      <c r="E11" t="n">
+        <v>105.1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>20</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>30</v>
+      </c>
+      <c r="I11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>064350</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>현대로템</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>207000</v>
+      </c>
+      <c r="D12" t="n">
+        <v>58.4</v>
+      </c>
+      <c r="E12" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="F12" t="n">
+        <v>20</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>30</v>
+      </c>
+      <c r="I12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>000810</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>삼성화재</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>489500</v>
+      </c>
+      <c r="D13" t="n">
+        <v>46.4</v>
+      </c>
+      <c r="E13" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="F13" t="n">
+        <v>20</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>30</v>
+      </c>
+      <c r="I13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>316140</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>우리금융지주</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>28950</v>
+      </c>
+      <c r="D14" t="n">
+        <v>60.5</v>
+      </c>
+      <c r="E14" t="n">
+        <v>103.2</v>
+      </c>
+      <c r="F14" t="n">
+        <v>20</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>30</v>
+      </c>
+      <c r="I14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>009150</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>삼성전기</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>285000</v>
+      </c>
+      <c r="D15" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="E15" t="n">
+        <v>104.4</v>
+      </c>
+      <c r="F15" t="n">
+        <v>20</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>30</v>
+      </c>
+      <c r="I15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>034730</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>SK</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>289500</v>
+      </c>
+      <c r="D16" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="E16" t="n">
+        <v>104.5</v>
+      </c>
+      <c r="F16" t="n">
+        <v>20</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>30</v>
+      </c>
+      <c r="I16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>011200</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>HMM</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>20500</v>
+      </c>
+      <c r="D17" t="n">
+        <v>53.2</v>
+      </c>
+      <c r="E17" t="n">
+        <v>101</v>
+      </c>
+      <c r="F17" t="n">
+        <v>20</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>30</v>
+      </c>
+      <c r="I17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>138040</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>메리츠금융지주</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>108100</v>
+      </c>
+      <c r="D18" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="E18" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="F18" t="n">
+        <v>20</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>30</v>
+      </c>
+      <c r="I18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>096770</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>SK이노베이션</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>111400</v>
+      </c>
+      <c r="D19" t="n">
+        <v>64.59999999999999</v>
+      </c>
+      <c r="E19" t="n">
+        <v>106.6</v>
+      </c>
+      <c r="F19" t="n">
+        <v>20</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>30</v>
+      </c>
+      <c r="I19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>033780</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>KT&amp;G</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>144200</v>
+      </c>
+      <c r="D20" t="n">
+        <v>61.4</v>
+      </c>
+      <c r="E20" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="F20" t="n">
+        <v>20</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>30</v>
+      </c>
+      <c r="I20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>024110</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>기업은행</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>20900</v>
+      </c>
+      <c r="D21" t="n">
+        <v>53.2</v>
+      </c>
+      <c r="E21" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="F21" t="n">
+        <v>20</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>30</v>
+      </c>
+      <c r="I21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>042700</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>한미반도체</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>170200</v>
+      </c>
+      <c r="D22" t="n">
+        <v>65.40000000000001</v>
+      </c>
+      <c r="E22" t="n">
+        <v>104.6</v>
+      </c>
+      <c r="F22" t="n">
+        <v>20</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>30</v>
+      </c>
+      <c r="I22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>352820</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>하이브</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>368500</v>
+      </c>
+      <c r="D23" t="n">
+        <v>62.6</v>
+      </c>
+      <c r="E23" t="n">
+        <v>109</v>
+      </c>
+      <c r="F23" t="n">
+        <v>20</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>30</v>
+      </c>
+      <c r="I23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>360750</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>TIGER 미국S&amp;P500</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>25190</v>
+      </c>
+      <c r="D24" t="n">
+        <v>61.3</v>
+      </c>
+      <c r="E24" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="F24" t="n">
+        <v>20</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>30</v>
+      </c>
+      <c r="I24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>371460</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>TIGER 차이나전기차SOLACTIVE</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>12890</v>
+      </c>
+      <c r="D25" t="n">
+        <v>54.7</v>
+      </c>
+      <c r="E25" t="n">
+        <v>100</v>
+      </c>
+      <c r="F25" t="n">
+        <v>20</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>30</v>
+      </c>
+      <c r="I25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>133690</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>TIGER 미국나스닥100</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>165825</v>
+      </c>
+      <c r="D26" t="n">
+        <v>59</v>
+      </c>
+      <c r="E26" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="F26" t="n">
+        <v>20</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>30</v>
+      </c>
+      <c r="I26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>005930</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>삼성전자</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>155100</v>
+      </c>
+      <c r="D27" t="n">
+        <v>81.7</v>
+      </c>
+      <c r="E27" t="n">
+        <v>114.4</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+      <c r="I27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>000660</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>SK하이닉스</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>759000</v>
+      </c>
+      <c r="D28" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="E28" t="n">
+        <v>107.3</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+      <c r="I28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>005380</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>현대차</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>536000</v>
+      </c>
+      <c r="D29" t="n">
+        <v>89.09999999999999</v>
+      </c>
+      <c r="E29" t="n">
+        <v>143.2</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+      <c r="I29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>373220</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>LG에너지솔루션</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>414000</v>
+      </c>
+      <c r="D30" t="n">
+        <v>73.90000000000001</v>
+      </c>
+      <c r="E30" t="n">
+        <v>107.9</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+      <c r="I30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>005935</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>삼성전자우</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>111700</v>
+      </c>
+      <c r="D31" t="n">
+        <v>79.7</v>
+      </c>
+      <c r="E31" t="n">
+        <v>110.9</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+      <c r="I31" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/latest_analysis.xlsx
+++ b/latest_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,13 +492,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>58400</v>
+        <v>58250</v>
       </c>
       <c r="D2" t="n">
-        <v>39.2</v>
+        <v>38.6</v>
       </c>
       <c r="E2" t="n">
-        <v>98.5</v>
+        <v>98.3</v>
       </c>
       <c r="F2" t="n">
         <v>30</v>
@@ -525,13 +525,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>611000</v>
+        <v>608000</v>
       </c>
       <c r="D3" t="n">
-        <v>69.90000000000001</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>105.7</v>
+        <v>105.2</v>
       </c>
       <c r="F3" t="n">
         <v>20</v>
@@ -558,13 +558,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>134200</v>
+        <v>134000</v>
       </c>
       <c r="D4" t="n">
-        <v>69.7</v>
+        <v>69.2</v>
       </c>
       <c r="E4" t="n">
-        <v>105</v>
+        <v>104.9</v>
       </c>
       <c r="F4" t="n">
         <v>20</v>
@@ -624,13 +624,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>138200</v>
+        <v>137700</v>
       </c>
       <c r="D6" t="n">
-        <v>68.3</v>
+        <v>67.7</v>
       </c>
       <c r="E6" t="n">
-        <v>104.9</v>
+        <v>104.5</v>
       </c>
       <c r="F6" t="n">
         <v>20</v>
@@ -657,13 +657,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>456000</v>
+        <v>454500</v>
       </c>
       <c r="D7" t="n">
-        <v>68.90000000000001</v>
+        <v>68.5</v>
       </c>
       <c r="E7" t="n">
-        <v>112</v>
+        <v>111.6</v>
       </c>
       <c r="F7" t="n">
         <v>20</v>
@@ -690,13 +690,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>82300</v>
+        <v>82000</v>
       </c>
       <c r="D8" t="n">
-        <v>69.7</v>
+        <v>69</v>
       </c>
       <c r="E8" t="n">
-        <v>104.4</v>
+        <v>104</v>
       </c>
       <c r="F8" t="n">
         <v>20</v>
@@ -714,22 +714,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>267260</t>
+          <t>010130</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>HD현대일렉트릭</t>
+          <t>고려아연</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>893000</v>
+        <v>1544000</v>
       </c>
       <c r="D9" t="n">
-        <v>62.1</v>
+        <v>63</v>
       </c>
       <c r="E9" t="n">
-        <v>104.7</v>
+        <v>113.2</v>
       </c>
       <c r="F9" t="n">
         <v>20</v>
@@ -747,22 +747,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>010130</t>
+          <t>267260</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>고려아연</t>
+          <t>HD현대일렉트릭</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1547000</v>
+        <v>891000</v>
       </c>
       <c r="D10" t="n">
-        <v>63.2</v>
+        <v>61.7</v>
       </c>
       <c r="E10" t="n">
-        <v>113.4</v>
+        <v>104.5</v>
       </c>
       <c r="F10" t="n">
         <v>20</v>
@@ -789,13 +789,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>349500</v>
+        <v>350000</v>
       </c>
       <c r="D11" t="n">
-        <v>62.6</v>
+        <v>62.8</v>
       </c>
       <c r="E11" t="n">
-        <v>105.1</v>
+        <v>105.3</v>
       </c>
       <c r="F11" t="n">
         <v>20</v>
@@ -822,13 +822,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>207000</v>
+        <v>206500</v>
       </c>
       <c r="D12" t="n">
-        <v>58.4</v>
+        <v>58.1</v>
       </c>
       <c r="E12" t="n">
-        <v>100.4</v>
+        <v>100.2</v>
       </c>
       <c r="F12" t="n">
         <v>20</v>
@@ -855,13 +855,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>489500</v>
+        <v>489000</v>
       </c>
       <c r="D13" t="n">
-        <v>46.4</v>
+        <v>46.2</v>
       </c>
       <c r="E13" t="n">
-        <v>100.4</v>
+        <v>100.3</v>
       </c>
       <c r="F13" t="n">
         <v>20</v>
@@ -879,22 +879,22 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>316140</t>
+          <t>009150</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>우리금융지주</t>
+          <t>삼성전기</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>28950</v>
+        <v>283500</v>
       </c>
       <c r="D14" t="n">
-        <v>60.5</v>
+        <v>60.6</v>
       </c>
       <c r="E14" t="n">
-        <v>103.2</v>
+        <v>103.9</v>
       </c>
       <c r="F14" t="n">
         <v>20</v>
@@ -912,22 +912,22 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>009150</t>
+          <t>316140</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>삼성전기</t>
+          <t>우리금융지주</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>285000</v>
+        <v>29000</v>
       </c>
       <c r="D15" t="n">
-        <v>61.5</v>
+        <v>60.9</v>
       </c>
       <c r="E15" t="n">
-        <v>104.4</v>
+        <v>103.4</v>
       </c>
       <c r="F15" t="n">
         <v>20</v>
@@ -954,13 +954,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>289500</v>
+        <v>290000</v>
       </c>
       <c r="D16" t="n">
-        <v>68.5</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>104.5</v>
+        <v>104.7</v>
       </c>
       <c r="F16" t="n">
         <v>20</v>
@@ -1020,13 +1020,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>108100</v>
+        <v>107800</v>
       </c>
       <c r="D18" t="n">
-        <v>43.7</v>
+        <v>43.1</v>
       </c>
       <c r="E18" t="n">
-        <v>100.9</v>
+        <v>100.7</v>
       </c>
       <c r="F18" t="n">
         <v>20</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>111400</v>
+        <v>111700</v>
       </c>
       <c r="D19" t="n">
-        <v>64.59999999999999</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>106.6</v>
+        <v>106.9</v>
       </c>
       <c r="F19" t="n">
         <v>20</v>
@@ -1077,22 +1077,22 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>033780</t>
+          <t>066570</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>KT&amp;G</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>144200</v>
+        <v>105900</v>
       </c>
       <c r="D20" t="n">
-        <v>61.4</v>
+        <v>69.5</v>
       </c>
       <c r="E20" t="n">
-        <v>100.5</v>
+        <v>111.3</v>
       </c>
       <c r="F20" t="n">
         <v>20</v>
@@ -1110,22 +1110,22 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>024110</t>
+          <t>006800</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>기업은행</t>
+          <t>미래에셋증권</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>20900</v>
+        <v>29850</v>
       </c>
       <c r="D21" t="n">
-        <v>53.2</v>
+        <v>69.7</v>
       </c>
       <c r="E21" t="n">
-        <v>100.7</v>
+        <v>108.7</v>
       </c>
       <c r="F21" t="n">
         <v>20</v>
@@ -1143,22 +1143,22 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>042700</t>
+          <t>033780</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>한미반도체</t>
+          <t>KT&amp;G</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>170200</v>
+        <v>143900</v>
       </c>
       <c r="D22" t="n">
-        <v>65.40000000000001</v>
+        <v>60.6</v>
       </c>
       <c r="E22" t="n">
-        <v>104.6</v>
+        <v>100.3</v>
       </c>
       <c r="F22" t="n">
         <v>20</v>
@@ -1176,22 +1176,22 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>352820</t>
+          <t>024110</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>하이브</t>
+          <t>기업은행</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>368500</v>
+        <v>20850</v>
       </c>
       <c r="D23" t="n">
-        <v>62.6</v>
+        <v>52.2</v>
       </c>
       <c r="E23" t="n">
-        <v>109</v>
+        <v>100.4</v>
       </c>
       <c r="F23" t="n">
         <v>20</v>
@@ -1209,22 +1209,22 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>360750</t>
+          <t>042700</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>TIGER 미국S&amp;P500</t>
+          <t>한미반도체</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>25190</v>
+        <v>170100</v>
       </c>
       <c r="D24" t="n">
-        <v>61.3</v>
+        <v>65.3</v>
       </c>
       <c r="E24" t="n">
-        <v>100.5</v>
+        <v>104.5</v>
       </c>
       <c r="F24" t="n">
         <v>20</v>
@@ -1242,22 +1242,22 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>371460</t>
+          <t>352820</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>TIGER 차이나전기차SOLACTIVE</t>
+          <t>하이브</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>12890</v>
+        <v>368000</v>
       </c>
       <c r="D25" t="n">
-        <v>54.7</v>
+        <v>62.4</v>
       </c>
       <c r="E25" t="n">
-        <v>100</v>
+        <v>108.8</v>
       </c>
       <c r="F25" t="n">
         <v>20</v>
@@ -1275,31 +1275,31 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>133690</t>
+          <t>005930</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>TIGER 미국나스닥100</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>165825</v>
+        <v>154100</v>
       </c>
       <c r="D26" t="n">
-        <v>59</v>
+        <v>81.2</v>
       </c>
       <c r="E26" t="n">
-        <v>100.5</v>
+        <v>113.7</v>
       </c>
       <c r="F26" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="I26" t="n">
         <v>10</v>
@@ -1308,31 +1308,31 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>005930</t>
+          <t>360750</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>TIGER 미국S&amp;P500</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>155100</v>
+        <v>25190</v>
       </c>
       <c r="D27" t="n">
-        <v>81.7</v>
+        <v>61.3</v>
       </c>
       <c r="E27" t="n">
-        <v>114.4</v>
+        <v>100.5</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="I27" t="n">
         <v>10</v>
@@ -1341,31 +1341,31 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>000660</t>
+          <t>133690</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>SK하이닉스</t>
+          <t>TIGER 미국나스닥100</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>759000</v>
+        <v>165770</v>
       </c>
       <c r="D28" t="n">
-        <v>73.3</v>
+        <v>58.9</v>
       </c>
       <c r="E28" t="n">
-        <v>107.3</v>
+        <v>100.4</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="I28" t="n">
         <v>10</v>
@@ -1374,22 +1374,22 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>005380</t>
+          <t>305540</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>현대차</t>
+          <t>TIGER 2차전지테마</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>536000</v>
+        <v>19995</v>
       </c>
       <c r="D29" t="n">
-        <v>89.09999999999999</v>
+        <v>73.5</v>
       </c>
       <c r="E29" t="n">
-        <v>143.2</v>
+        <v>112.5</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -1407,22 +1407,22 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>373220</t>
+          <t>091160</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>LG에너지솔루션</t>
+          <t>KODEX 반도체</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>414000</v>
+        <v>72085</v>
       </c>
       <c r="D30" t="n">
-        <v>73.90000000000001</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="E30" t="n">
-        <v>107.9</v>
+        <v>106.8</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -1440,33 +1440,198 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>005935</t>
+          <t>371460</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>삼성전자우</t>
+          <t>TIGER 차이나전기차SOLACTIVE</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>111700</v>
+        <v>12930</v>
       </c>
       <c r="D31" t="n">
-        <v>79.7</v>
+        <v>56.2</v>
       </c>
       <c r="E31" t="n">
-        <v>110.9</v>
+        <v>100.3</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="I31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>069500</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>KODEX 200</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>72820</v>
+      </c>
+      <c r="D32" t="n">
+        <v>94</v>
+      </c>
+      <c r="E32" t="n">
+        <v>109.9</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+      <c r="I32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>292150</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>TIGER TOP10</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>26015</v>
+      </c>
+      <c r="D33" t="n">
+        <v>91</v>
+      </c>
+      <c r="E33" t="n">
+        <v>111.1</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+      <c r="I33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>132030</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>KODEX 골드선물(H)</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>27695</v>
+      </c>
+      <c r="D34" t="n">
+        <v>79</v>
+      </c>
+      <c r="E34" t="n">
+        <v>105.4</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+      <c r="I34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>143850</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>TIGER 헬스케어</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>70940</v>
+      </c>
+      <c r="D35" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="E35" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+      <c r="I35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>091170</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>KODEX 은행</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>13190</v>
+      </c>
+      <c r="D36" t="n">
+        <v>67.7</v>
+      </c>
+      <c r="E36" t="n">
+        <v>103.4</v>
+      </c>
+      <c r="F36" t="n">
+        <v>20</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>30</v>
+      </c>
+      <c r="I36" t="n">
         <v>10</v>
       </c>
     </row>

--- a/latest_analysis.xlsx
+++ b/latest_analysis.xlsx
@@ -492,805 +492,805 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>58250</v>
+        <v>58400</v>
       </c>
       <c r="D2" t="n">
-        <v>38.6</v>
+        <v>39.2</v>
       </c>
       <c r="E2" t="n">
-        <v>98.3</v>
+        <v>98.5</v>
       </c>
       <c r="F2" t="n">
-        <v>30</v>
+        <v>37.6</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>40</v>
+        <v>37.6</v>
       </c>
       <c r="I2" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>329180</t>
+          <t>138040</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>HD현대중공업</t>
+          <t>메리츠금융지주</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>608000</v>
+        <v>107400</v>
       </c>
       <c r="D3" t="n">
-        <v>69.09999999999999</v>
+        <v>42.2</v>
       </c>
       <c r="E3" t="n">
-        <v>105.2</v>
+        <v>100.3</v>
       </c>
       <c r="F3" t="n">
-        <v>20</v>
+        <v>31.6</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>30</v>
+        <v>31.6</v>
       </c>
       <c r="I3" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>105560</t>
+          <t>000810</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>KB금융</t>
+          <t>삼성화재</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>134000</v>
+        <v>489500</v>
       </c>
       <c r="D4" t="n">
-        <v>69.2</v>
+        <v>46.4</v>
       </c>
       <c r="E4" t="n">
-        <v>104.9</v>
+        <v>100.4</v>
       </c>
       <c r="F4" t="n">
-        <v>20</v>
+        <v>28.1</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>30</v>
+        <v>28.1</v>
       </c>
       <c r="I4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>068270</t>
+          <t>035420</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>셀트리온</t>
+          <t>NAVER</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>208000</v>
+        <v>245500</v>
       </c>
       <c r="D5" t="n">
-        <v>55.4</v>
+        <v>49.1</v>
       </c>
       <c r="E5" t="n">
-        <v>102.3</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="F5" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>042660</t>
+          <t>207940</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>한화오션</t>
+          <t>삼성바이오로직스</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>137700</v>
+        <v>1778000</v>
       </c>
       <c r="D6" t="n">
-        <v>67.7</v>
+        <v>59.1</v>
       </c>
       <c r="E6" t="n">
-        <v>104.5</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>20</v>
+        <v>22.5</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>30</v>
+        <v>22.5</v>
       </c>
       <c r="I6" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>012330</t>
+          <t>011200</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>현대모비스</t>
+          <t>HMM</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>454500</v>
+        <v>20550</v>
       </c>
       <c r="D7" t="n">
-        <v>68.5</v>
+        <v>53.7</v>
       </c>
       <c r="E7" t="n">
-        <v>111.6</v>
+        <v>101.3</v>
       </c>
       <c r="F7" t="n">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>30</v>
+        <v>20.5</v>
       </c>
       <c r="I7" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>055550</t>
+          <t>024110</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>신한지주</t>
+          <t>기업은행</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>82000</v>
+        <v>21000</v>
       </c>
       <c r="D8" t="n">
-        <v>69</v>
+        <v>55.1</v>
       </c>
       <c r="E8" t="n">
-        <v>104</v>
+        <v>101.1</v>
       </c>
       <c r="F8" t="n">
-        <v>20</v>
+        <v>19.7</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>30</v>
+        <v>19.7</v>
       </c>
       <c r="I8" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>010130</t>
+          <t>064350</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>고려아연</t>
+          <t>현대로템</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1544000</v>
+        <v>206500</v>
       </c>
       <c r="D9" t="n">
-        <v>63</v>
+        <v>58.1</v>
       </c>
       <c r="E9" t="n">
-        <v>113.2</v>
+        <v>100.2</v>
       </c>
       <c r="F9" t="n">
-        <v>20</v>
+        <v>19.2</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>30</v>
+        <v>19.2</v>
       </c>
       <c r="I9" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>267260</t>
+          <t>009540</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>HD현대일렉트릭</t>
+          <t>HD한국조선해양</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>891000</v>
+        <v>424500</v>
       </c>
       <c r="D10" t="n">
-        <v>61.7</v>
+        <v>60.8</v>
       </c>
       <c r="E10" t="n">
-        <v>104.5</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="F10" t="n">
-        <v>20</v>
+        <v>18.2</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>30</v>
+        <v>18.2</v>
       </c>
       <c r="I10" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>051910</t>
+          <t>068270</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>LG화학</t>
+          <t>셀트리온</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>350000</v>
+        <v>208000</v>
       </c>
       <c r="D11" t="n">
-        <v>62.8</v>
+        <v>55.4</v>
       </c>
       <c r="E11" t="n">
-        <v>105.3</v>
+        <v>102.3</v>
       </c>
       <c r="F11" t="n">
-        <v>20</v>
+        <v>16.9</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>30</v>
+        <v>16.9</v>
       </c>
       <c r="I11" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>064350</t>
+          <t>033780</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>현대로템</t>
+          <t>KT&amp;G</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>206500</v>
+        <v>144000</v>
       </c>
       <c r="D12" t="n">
-        <v>58.1</v>
+        <v>61</v>
       </c>
       <c r="E12" t="n">
-        <v>100.2</v>
+        <v>100.4</v>
       </c>
       <c r="F12" t="n">
-        <v>20</v>
+        <v>16.4</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>30</v>
+        <v>16.4</v>
       </c>
       <c r="I12" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>000810</t>
+          <t>009150</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>삼성화재</t>
+          <t>삼성전기</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>489000</v>
+        <v>283000</v>
       </c>
       <c r="D13" t="n">
-        <v>46.2</v>
+        <v>60.3</v>
       </c>
       <c r="E13" t="n">
-        <v>100.3</v>
+        <v>103.7</v>
       </c>
       <c r="F13" t="n">
-        <v>20</v>
+        <v>10.4</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>30</v>
+        <v>10.4</v>
       </c>
       <c r="I13" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>009150</t>
+          <t>316140</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>삼성전기</t>
+          <t>우리금융지주</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>283500</v>
+        <v>29100</v>
       </c>
       <c r="D14" t="n">
-        <v>60.6</v>
+        <v>61.8</v>
       </c>
       <c r="E14" t="n">
-        <v>103.9</v>
+        <v>103.7</v>
       </c>
       <c r="F14" t="n">
-        <v>20</v>
+        <v>9.1</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>30</v>
+        <v>9.1</v>
       </c>
       <c r="I14" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>316140</t>
+          <t>267260</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>우리금융지주</t>
+          <t>HD현대일렉트릭</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>29000</v>
+        <v>888000</v>
       </c>
       <c r="D15" t="n">
-        <v>60.9</v>
+        <v>61.1</v>
       </c>
       <c r="E15" t="n">
-        <v>103.4</v>
+        <v>104.2</v>
       </c>
       <c r="F15" t="n">
-        <v>20</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>30</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I15" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>034730</t>
+          <t>352820</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>하이브</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>290000</v>
+        <v>368500</v>
       </c>
       <c r="D16" t="n">
-        <v>68.90000000000001</v>
+        <v>62.6</v>
       </c>
       <c r="E16" t="n">
-        <v>104.7</v>
+        <v>109</v>
       </c>
       <c r="F16" t="n">
-        <v>20</v>
+        <v>5.9</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>30</v>
+        <v>5.9</v>
       </c>
       <c r="I16" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>011200</t>
+          <t>051910</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>HMM</t>
+          <t>LG화학</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>20500</v>
+        <v>350500</v>
       </c>
       <c r="D17" t="n">
-        <v>53.2</v>
+        <v>63</v>
       </c>
       <c r="E17" t="n">
-        <v>101</v>
+        <v>105.4</v>
       </c>
       <c r="F17" t="n">
-        <v>20</v>
+        <v>5.6</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>30</v>
+        <v>5.6</v>
       </c>
       <c r="I17" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>138040</t>
+          <t>010130</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>메리츠금융지주</t>
+          <t>고려아연</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>107800</v>
+        <v>1555000</v>
       </c>
       <c r="D18" t="n">
-        <v>43.1</v>
+        <v>63.7</v>
       </c>
       <c r="E18" t="n">
-        <v>100.7</v>
+        <v>114</v>
       </c>
       <c r="F18" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="I18" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>096770</t>
+          <t>042700</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>SK이노베이션</t>
+          <t>한미반도체</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>111700</v>
+        <v>170400</v>
       </c>
       <c r="D19" t="n">
-        <v>64.90000000000001</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="E19" t="n">
-        <v>106.9</v>
+        <v>104.7</v>
       </c>
       <c r="F19" t="n">
-        <v>20</v>
+        <v>4.2</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>30</v>
+        <v>4.2</v>
       </c>
       <c r="I19" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>066570</t>
+          <t>096770</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>SK이노베이션</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>105900</v>
+        <v>112200</v>
       </c>
       <c r="D20" t="n">
-        <v>69.5</v>
+        <v>65.3</v>
       </c>
       <c r="E20" t="n">
-        <v>111.3</v>
+        <v>107.4</v>
       </c>
       <c r="F20" t="n">
-        <v>20</v>
+        <v>3.7</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>30</v>
+        <v>3.7</v>
       </c>
       <c r="I20" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>006800</t>
+          <t>042660</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>미래에셋증권</t>
+          <t>한화오션</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>29850</v>
+        <v>137700</v>
       </c>
       <c r="D21" t="n">
-        <v>69.7</v>
+        <v>67.7</v>
       </c>
       <c r="E21" t="n">
-        <v>108.7</v>
+        <v>104.5</v>
       </c>
       <c r="F21" t="n">
-        <v>20</v>
+        <v>2.7</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>30</v>
+        <v>2.7</v>
       </c>
       <c r="I21" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>033780</t>
+          <t>012330</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>KT&amp;G</t>
+          <t>현대모비스</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>143900</v>
+        <v>453500</v>
       </c>
       <c r="D22" t="n">
-        <v>60.6</v>
+        <v>68.2</v>
       </c>
       <c r="E22" t="n">
-        <v>100.3</v>
+        <v>111.4</v>
       </c>
       <c r="F22" t="n">
-        <v>20</v>
+        <v>1.5</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>30</v>
+        <v>1.5</v>
       </c>
       <c r="I22" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>024110</t>
+          <t>006800</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>기업은행</t>
+          <t>미래에셋증권</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>20850</v>
+        <v>29850</v>
       </c>
       <c r="D23" t="n">
-        <v>52.2</v>
+        <v>69.7</v>
       </c>
       <c r="E23" t="n">
-        <v>100.4</v>
+        <v>108.7</v>
       </c>
       <c r="F23" t="n">
-        <v>20</v>
+        <v>0.2</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>30</v>
+        <v>0.2</v>
       </c>
       <c r="I23" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>042700</t>
+          <t>005930</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>한미반도체</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>170100</v>
+        <v>152300</v>
       </c>
       <c r="D24" t="n">
-        <v>65.3</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>104.5</v>
+        <v>112.4</v>
       </c>
       <c r="F24" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>352820</t>
+          <t>000660</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>하이브</t>
+          <t>SK하이닉스</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>368000</v>
+        <v>755000</v>
       </c>
       <c r="D25" t="n">
-        <v>62.4</v>
+        <v>72.7</v>
       </c>
       <c r="E25" t="n">
-        <v>108.8</v>
+        <v>106.8</v>
       </c>
       <c r="F25" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>005930</t>
+          <t>005380</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>현대차</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>154100</v>
+        <v>529000</v>
       </c>
       <c r="D26" t="n">
-        <v>81.2</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="E26" t="n">
-        <v>113.7</v>
+        <v>141.5</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -1299,10 +1299,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1317,25 +1317,25 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>25190</v>
+        <v>25135</v>
       </c>
       <c r="D27" t="n">
-        <v>61.3</v>
+        <v>60.3</v>
       </c>
       <c r="E27" t="n">
-        <v>100.5</v>
+        <v>100.3</v>
       </c>
       <c r="F27" t="n">
-        <v>20</v>
+        <v>17.2</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>30</v>
+        <v>17.2</v>
       </c>
       <c r="I27" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1350,25 +1350,25 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>165770</v>
+        <v>165290</v>
       </c>
       <c r="D28" t="n">
-        <v>58.9</v>
+        <v>57.6</v>
       </c>
       <c r="E28" t="n">
-        <v>100.4</v>
+        <v>100.2</v>
       </c>
       <c r="F28" t="n">
-        <v>20</v>
+        <v>19.6</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>30</v>
+        <v>19.6</v>
       </c>
       <c r="I28" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1383,13 +1383,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>19995</v>
+        <v>20100</v>
       </c>
       <c r="D29" t="n">
-        <v>73.5</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>112.5</v>
+        <v>113.1</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -1398,10 +1398,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1416,13 +1416,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>72085</v>
+        <v>72025</v>
       </c>
       <c r="D30" t="n">
-        <v>74.40000000000001</v>
+        <v>74.2</v>
       </c>
       <c r="E30" t="n">
-        <v>106.8</v>
+        <v>106.7</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -1431,10 +1431,10 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1449,25 +1449,25 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>12930</v>
+        <v>12895</v>
       </c>
       <c r="D31" t="n">
-        <v>56.2</v>
+        <v>54.9</v>
       </c>
       <c r="E31" t="n">
-        <v>100.3</v>
+        <v>100.1</v>
       </c>
       <c r="F31" t="n">
-        <v>20</v>
+        <v>21.9</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>30</v>
+        <v>21.9</v>
       </c>
       <c r="I31" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1482,13 +1482,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>72820</v>
+        <v>72530</v>
       </c>
       <c r="D32" t="n">
-        <v>94</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E32" t="n">
-        <v>109.9</v>
+        <v>109.5</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -1497,10 +1497,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1515,13 +1515,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>26015</v>
+        <v>25905</v>
       </c>
       <c r="D33" t="n">
-        <v>91</v>
+        <v>90.7</v>
       </c>
       <c r="E33" t="n">
-        <v>111.1</v>
+        <v>110.7</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -1530,10 +1530,10 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1548,13 +1548,13 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>27695</v>
+        <v>27825</v>
       </c>
       <c r="D34" t="n">
-        <v>79</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="E34" t="n">
-        <v>105.4</v>
+        <v>105.8</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -1563,10 +1563,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1581,25 +1581,25 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>70940</v>
+        <v>70855</v>
       </c>
       <c r="D35" t="n">
-        <v>49.9</v>
+        <v>49</v>
       </c>
       <c r="E35" t="n">
-        <v>99.7</v>
+        <v>99.5</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>27.7</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>10</v>
+        <v>27.7</v>
       </c>
       <c r="I35" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1614,25 +1614,25 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>13190</v>
+        <v>13245</v>
       </c>
       <c r="D36" t="n">
-        <v>67.7</v>
+        <v>68.8</v>
       </c>
       <c r="E36" t="n">
-        <v>103.4</v>
+        <v>103.8</v>
       </c>
       <c r="F36" t="n">
-        <v>20</v>
+        <v>3.4</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>30</v>
+        <v>3.4</v>
       </c>
       <c r="I36" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/latest_analysis.xlsx
+++ b/latest_analysis.xlsx
@@ -483,31 +483,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>035720</t>
+          <t>138040</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>카카오</t>
+          <t>메리츠금융지주</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>58400</v>
+        <v>107400</v>
       </c>
       <c r="D2" t="n">
-        <v>39.2</v>
+        <v>48.3</v>
       </c>
       <c r="E2" t="n">
-        <v>98.5</v>
+        <v>100.4</v>
       </c>
       <c r="F2" t="n">
-        <v>37.6</v>
+        <v>26.5</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>37.6</v>
+        <v>26.5</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -516,31 +516,31 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>138040</t>
+          <t>009150</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>메리츠금융지주</t>
+          <t>삼성전기</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>107400</v>
+        <v>272000</v>
       </c>
       <c r="D3" t="n">
-        <v>42.2</v>
+        <v>51.4</v>
       </c>
       <c r="E3" t="n">
-        <v>100.3</v>
+        <v>99.3</v>
       </c>
       <c r="F3" t="n">
-        <v>31.6</v>
+        <v>26.3</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>31.6</v>
+        <v>26.3</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -549,31 +549,31 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>000810</t>
+          <t>035720</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>삼성화재</t>
+          <t>카카오</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>489500</v>
+        <v>61000</v>
       </c>
       <c r="D4" t="n">
-        <v>46.4</v>
+        <v>45.3</v>
       </c>
       <c r="E4" t="n">
-        <v>100.4</v>
+        <v>102.7</v>
       </c>
       <c r="F4" t="n">
-        <v>28.1</v>
+        <v>24.3</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>28.1</v>
+        <v>24.3</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -582,31 +582,31 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>035420</t>
+          <t>000810</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NAVER</t>
+          <t>삼성화재</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>245500</v>
+        <v>492000</v>
       </c>
       <c r="D5" t="n">
-        <v>49.1</v>
+        <v>52.3</v>
       </c>
       <c r="E5" t="n">
-        <v>99.40000000000001</v>
+        <v>101</v>
       </c>
       <c r="F5" t="n">
-        <v>28</v>
+        <v>22.3</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>28</v>
+        <v>22.3</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -615,31 +615,31 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>207940</t>
+          <t>064350</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>삼성바이오로직스</t>
+          <t>현대로템</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1778000</v>
+        <v>207500</v>
       </c>
       <c r="D6" t="n">
-        <v>59.1</v>
+        <v>55.7</v>
       </c>
       <c r="E6" t="n">
-        <v>98.09999999999999</v>
+        <v>100.2</v>
       </c>
       <c r="F6" t="n">
-        <v>22.5</v>
+        <v>21.1</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>22.5</v>
+        <v>21.1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -657,22 +657,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>20550</v>
+        <v>20350</v>
       </c>
       <c r="D7" t="n">
-        <v>53.7</v>
+        <v>55.4</v>
       </c>
       <c r="E7" t="n">
-        <v>101.3</v>
+        <v>100.3</v>
       </c>
       <c r="F7" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -681,31 +681,31 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>024110</t>
+          <t>207940</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>기업은행</t>
+          <t>삼성바이오로직스</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>21000</v>
+        <v>1802000</v>
       </c>
       <c r="D8" t="n">
-        <v>55.1</v>
+        <v>58.6</v>
       </c>
       <c r="E8" t="n">
-        <v>101.1</v>
+        <v>99.2</v>
       </c>
       <c r="F8" t="n">
-        <v>19.7</v>
+        <v>20.7</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>19.7</v>
+        <v>20.7</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -714,31 +714,31 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>064350</t>
+          <t>024110</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>현대로템</t>
+          <t>기업은행</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>206500</v>
+        <v>21050</v>
       </c>
       <c r="D9" t="n">
-        <v>58.1</v>
+        <v>55.1</v>
       </c>
       <c r="E9" t="n">
-        <v>100.2</v>
+        <v>101.4</v>
       </c>
       <c r="F9" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -747,31 +747,31 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>009540</t>
+          <t>267260</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>HD한국조선해양</t>
+          <t>HD현대일렉트릭</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>424500</v>
+        <v>884000</v>
       </c>
       <c r="D10" t="n">
-        <v>60.8</v>
+        <v>53</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59999999999999</v>
+        <v>103.2</v>
       </c>
       <c r="F10" t="n">
-        <v>18.2</v>
+        <v>17.3</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>18.2</v>
+        <v>17.3</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -789,22 +789,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>208000</v>
+        <v>212000</v>
       </c>
       <c r="D11" t="n">
-        <v>55.4</v>
+        <v>52.6</v>
       </c>
       <c r="E11" t="n">
-        <v>102.3</v>
+        <v>103.6</v>
       </c>
       <c r="F11" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -822,22 +822,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>144000</v>
+        <v>144900</v>
       </c>
       <c r="D12" t="n">
-        <v>61</v>
+        <v>59.7</v>
       </c>
       <c r="E12" t="n">
-        <v>100.4</v>
+        <v>101</v>
       </c>
       <c r="F12" t="n">
-        <v>16.4</v>
+        <v>16.1</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>16.4</v>
+        <v>16.1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -846,31 +846,31 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>009150</t>
+          <t>042700</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>삼성전기</t>
+          <t>한미반도체</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>283000</v>
+        <v>171100</v>
       </c>
       <c r="D13" t="n">
-        <v>60.3</v>
+        <v>53.1</v>
       </c>
       <c r="E13" t="n">
         <v>103.7</v>
       </c>
       <c r="F13" t="n">
-        <v>10.4</v>
+        <v>16.1</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>10.4</v>
+        <v>16.1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -879,31 +879,31 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>316140</t>
+          <t>009540</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>우리금융지주</t>
+          <t>HD한국조선해양</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>29100</v>
+        <v>436000</v>
       </c>
       <c r="D14" t="n">
         <v>61.8</v>
       </c>
       <c r="E14" t="n">
-        <v>103.7</v>
+        <v>102.2</v>
       </c>
       <c r="F14" t="n">
-        <v>9.1</v>
+        <v>12.1</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>9.1</v>
+        <v>12.1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -912,31 +912,31 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>267260</t>
+          <t>035420</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>HD현대일렉트릭</t>
+          <t>NAVER</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>888000</v>
+        <v>266000</v>
       </c>
       <c r="D15" t="n">
-        <v>61.1</v>
+        <v>58.4</v>
       </c>
       <c r="E15" t="n">
-        <v>104.2</v>
+        <v>107</v>
       </c>
       <c r="F15" t="n">
-        <v>8.800000000000001</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>8.800000000000001</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -945,31 +945,31 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>352820</t>
+          <t>096770</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>하이브</t>
+          <t>SK이노베이션</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>368500</v>
+        <v>111400</v>
       </c>
       <c r="D16" t="n">
-        <v>62.6</v>
+        <v>61.4</v>
       </c>
       <c r="E16" t="n">
-        <v>109</v>
+        <v>106.3</v>
       </c>
       <c r="F16" t="n">
-        <v>5.9</v>
+        <v>6.9</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>5.9</v>
+        <v>6.9</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -987,13 +987,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>350500</v>
+        <v>358000</v>
       </c>
       <c r="D17" t="n">
         <v>63</v>
       </c>
       <c r="E17" t="n">
-        <v>105.4</v>
+        <v>107.5</v>
       </c>
       <c r="F17" t="n">
         <v>5.6</v>
@@ -1020,22 +1020,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1555000</v>
+        <v>1580000</v>
       </c>
       <c r="D18" t="n">
-        <v>63.7</v>
+        <v>63.9</v>
       </c>
       <c r="E18" t="n">
-        <v>114</v>
+        <v>114.9</v>
       </c>
       <c r="F18" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1044,31 +1044,31 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>042700</t>
+          <t>402340</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>한미반도체</t>
+          <t>SK스퀘어</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>170400</v>
+        <v>445500</v>
       </c>
       <c r="D19" t="n">
-        <v>65.59999999999999</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>104.7</v>
+        <v>108</v>
       </c>
       <c r="F19" t="n">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1077,31 +1077,31 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>096770</t>
+          <t>316140</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>SK이노베이션</t>
+          <t>우리금융지주</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>112200</v>
+        <v>29550</v>
       </c>
       <c r="D20" t="n">
-        <v>65.3</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="E20" t="n">
-        <v>107.4</v>
+        <v>105.1</v>
       </c>
       <c r="F20" t="n">
-        <v>3.7</v>
+        <v>2.1</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>3.7</v>
+        <v>2.1</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1119,22 +1119,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>137700</v>
+        <v>140300</v>
       </c>
       <c r="D21" t="n">
-        <v>67.7</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>104.5</v>
+        <v>105.8</v>
       </c>
       <c r="F21" t="n">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1143,31 +1143,31 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>012330</t>
+          <t>055550</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>현대모비스</t>
+          <t>신한지주</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>453500</v>
+        <v>83900</v>
       </c>
       <c r="D22" t="n">
-        <v>68.2</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="E22" t="n">
-        <v>111.4</v>
+        <v>105.9</v>
       </c>
       <c r="F22" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -1176,31 +1176,31 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>006800</t>
+          <t>066570</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>미래에셋증권</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>29850</v>
+        <v>105600</v>
       </c>
       <c r="D23" t="n">
-        <v>69.7</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="E23" t="n">
-        <v>108.7</v>
+        <v>110.2</v>
       </c>
       <c r="F23" t="n">
-        <v>0.2</v>
+        <v>1.9</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.2</v>
+        <v>1.9</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -1209,31 +1209,31 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>005930</t>
+          <t>034730</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>152300</v>
+        <v>296500</v>
       </c>
       <c r="D24" t="n">
-        <v>80.40000000000001</v>
+        <v>67.8</v>
       </c>
       <c r="E24" t="n">
-        <v>112.4</v>
+        <v>106.1</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -1242,31 +1242,31 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>000660</t>
+          <t>105560</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SK하이닉스</t>
+          <t>KB금융</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>755000</v>
+        <v>135600</v>
       </c>
       <c r="D25" t="n">
-        <v>72.7</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="E25" t="n">
-        <v>106.8</v>
+        <v>105.7</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -1275,31 +1275,31 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>005380</t>
+          <t>015760</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>현대차</t>
+          <t>한국전력</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>529000</v>
+        <v>61200</v>
       </c>
       <c r="D26" t="n">
-        <v>87.09999999999999</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="E26" t="n">
-        <v>141.5</v>
+        <v>114.2</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -1317,22 +1317,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>25135</v>
+        <v>25245</v>
       </c>
       <c r="D27" t="n">
-        <v>60.3</v>
+        <v>62.9</v>
       </c>
       <c r="E27" t="n">
-        <v>100.3</v>
+        <v>100.7</v>
       </c>
       <c r="F27" t="n">
-        <v>17.2</v>
+        <v>14.2</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>17.2</v>
+        <v>14.2</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -1350,22 +1350,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>165290</v>
+        <v>166325</v>
       </c>
       <c r="D28" t="n">
-        <v>57.6</v>
+        <v>62.8</v>
       </c>
       <c r="E28" t="n">
-        <v>100.2</v>
+        <v>100.8</v>
       </c>
       <c r="F28" t="n">
-        <v>19.6</v>
+        <v>14.1</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>19.6</v>
+        <v>14.1</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -1383,13 +1383,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>20100</v>
+        <v>20115</v>
       </c>
       <c r="D29" t="n">
-        <v>73.90000000000001</v>
+        <v>72.2</v>
       </c>
       <c r="E29" t="n">
-        <v>113.1</v>
+        <v>112.4</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -1416,22 +1416,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>72025</v>
+        <v>72200</v>
       </c>
       <c r="D30" t="n">
-        <v>74.2</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="E30" t="n">
-        <v>106.7</v>
+        <v>105.9</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -1449,22 +1449,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>12895</v>
+        <v>13095</v>
       </c>
       <c r="D31" t="n">
-        <v>54.9</v>
+        <v>57.1</v>
       </c>
       <c r="E31" t="n">
-        <v>100.1</v>
+        <v>101.5</v>
       </c>
       <c r="F31" t="n">
-        <v>21.9</v>
+        <v>17.4</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9</v>
+        <v>17.4</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -1482,13 +1482,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>72530</v>
+        <v>73025</v>
       </c>
       <c r="D32" t="n">
-        <v>93.90000000000001</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="E32" t="n">
-        <v>109.5</v>
+        <v>109</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -1515,13 +1515,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>25905</v>
+        <v>26100</v>
       </c>
       <c r="D33" t="n">
-        <v>90.7</v>
+        <v>89</v>
       </c>
       <c r="E33" t="n">
-        <v>110.7</v>
+        <v>110</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -1548,13 +1548,13 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>27825</v>
+        <v>28555</v>
       </c>
       <c r="D34" t="n">
-        <v>81.59999999999999</v>
+        <v>83.7</v>
       </c>
       <c r="E34" t="n">
-        <v>105.8</v>
+        <v>108.1</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -1581,22 +1581,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>70855</v>
+        <v>71325</v>
       </c>
       <c r="D35" t="n">
-        <v>49</v>
+        <v>54.6</v>
       </c>
       <c r="E35" t="n">
-        <v>99.5</v>
+        <v>100.2</v>
       </c>
       <c r="F35" t="n">
-        <v>27.7</v>
+        <v>21.9</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>27.7</v>
+        <v>21.9</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -1614,22 +1614,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>13245</v>
+        <v>13410</v>
       </c>
       <c r="D36" t="n">
-        <v>68.8</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="E36" t="n">
-        <v>103.8</v>
+        <v>104.8</v>
       </c>
       <c r="F36" t="n">
-        <v>3.4</v>
+        <v>1.3</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>3.4</v>
+        <v>1.3</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>

--- a/latest_analysis.xlsx
+++ b/latest_analysis.xlsx
@@ -483,31 +483,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>138040</t>
+          <t>042700</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>메리츠금융지주</t>
+          <t>한미반도체</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>107400</v>
+        <v>169500</v>
       </c>
       <c r="D2" t="n">
-        <v>48.3</v>
+        <v>34.6</v>
       </c>
       <c r="E2" t="n">
-        <v>100.4</v>
+        <v>101.4</v>
       </c>
       <c r="F2" t="n">
-        <v>26.5</v>
+        <v>35.6</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>26.5</v>
+        <v>35.6</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -516,31 +516,31 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>009150</t>
+          <t>033780</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>삼성전기</t>
+          <t>KT&amp;G</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>272000</v>
+        <v>142000</v>
       </c>
       <c r="D3" t="n">
-        <v>51.4</v>
+        <v>48.3</v>
       </c>
       <c r="E3" t="n">
-        <v>99.3</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>26.3</v>
+        <v>29.1</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>26.3</v>
+        <v>29.1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -549,31 +549,31 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>035720</t>
+          <t>000810</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>카카오</t>
+          <t>삼성화재</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>61000</v>
+        <v>490500</v>
       </c>
       <c r="D4" t="n">
-        <v>45.3</v>
+        <v>47.6</v>
       </c>
       <c r="E4" t="n">
-        <v>102.7</v>
+        <v>100.7</v>
       </c>
       <c r="F4" t="n">
-        <v>24.3</v>
+        <v>26.5</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>24.3</v>
+        <v>26.5</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -582,31 +582,31 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>000810</t>
+          <t>011200</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>삼성화재</t>
+          <t>HMM</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>492000</v>
+        <v>20100</v>
       </c>
       <c r="D5" t="n">
-        <v>52.3</v>
+        <v>51.9</v>
       </c>
       <c r="E5" t="n">
-        <v>101</v>
+        <v>99.2</v>
       </c>
       <c r="F5" t="n">
-        <v>22.3</v>
+        <v>26</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>22.3</v>
+        <v>26</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -615,31 +615,31 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>064350</t>
+          <t>138040</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>현대로템</t>
+          <t>메리츠금융지주</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>207500</v>
+        <v>107600</v>
       </c>
       <c r="D6" t="n">
-        <v>55.7</v>
+        <v>48.5</v>
       </c>
       <c r="E6" t="n">
-        <v>100.2</v>
+        <v>100.7</v>
       </c>
       <c r="F6" t="n">
-        <v>21.1</v>
+        <v>25.8</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>21.1</v>
+        <v>25.8</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -648,31 +648,31 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>011200</t>
+          <t>024110</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>HMM</t>
+          <t>기업은행</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>20350</v>
+        <v>20900</v>
       </c>
       <c r="D7" t="n">
-        <v>55.4</v>
+        <v>49</v>
       </c>
       <c r="E7" t="n">
-        <v>100.3</v>
+        <v>100.7</v>
       </c>
       <c r="F7" t="n">
-        <v>21</v>
+        <v>25.3</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>21</v>
+        <v>25.3</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -681,31 +681,31 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>207940</t>
+          <t>009540</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>삼성바이오로직스</t>
+          <t>HD한국조선해양</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1802000</v>
+        <v>424000</v>
       </c>
       <c r="D8" t="n">
-        <v>58.6</v>
+        <v>53.4</v>
       </c>
       <c r="E8" t="n">
-        <v>99.2</v>
+        <v>99.3</v>
       </c>
       <c r="F8" t="n">
-        <v>20.7</v>
+        <v>24.6</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>20.7</v>
+        <v>24.6</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -714,31 +714,31 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>024110</t>
+          <t>035720</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>기업은행</t>
+          <t>카카오</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>21050</v>
+        <v>61800</v>
       </c>
       <c r="D9" t="n">
-        <v>55.1</v>
+        <v>44.7</v>
       </c>
       <c r="E9" t="n">
-        <v>101.4</v>
+        <v>103.9</v>
       </c>
       <c r="F9" t="n">
-        <v>19.1</v>
+        <v>22.5</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>19.1</v>
+        <v>22.5</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -747,31 +747,31 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>267260</t>
+          <t>009150</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>HD현대일렉트릭</t>
+          <t>삼성전기</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>884000</v>
+        <v>275000</v>
       </c>
       <c r="D10" t="n">
-        <v>53</v>
+        <v>54.7</v>
       </c>
       <c r="E10" t="n">
-        <v>103.2</v>
+        <v>100</v>
       </c>
       <c r="F10" t="n">
-        <v>17.3</v>
+        <v>22.3</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>17.3</v>
+        <v>22.3</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -780,31 +780,31 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>068270</t>
+          <t>207940</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>셀트리온</t>
+          <t>삼성바이오로직스</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>212000</v>
+        <v>1807000</v>
       </c>
       <c r="D11" t="n">
-        <v>52.6</v>
+        <v>58.4</v>
       </c>
       <c r="E11" t="n">
-        <v>103.6</v>
+        <v>99.2</v>
       </c>
       <c r="F11" t="n">
-        <v>16.8</v>
+        <v>21</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>16.8</v>
+        <v>21</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -813,31 +813,31 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>033780</t>
+          <t>000660</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>KT&amp;G</t>
+          <t>SK하이닉스</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>144900</v>
+        <v>736000</v>
       </c>
       <c r="D12" t="n">
-        <v>59.7</v>
+        <v>53</v>
       </c>
       <c r="E12" t="n">
-        <v>101</v>
+        <v>101.7</v>
       </c>
       <c r="F12" t="n">
-        <v>16.1</v>
+        <v>20.1</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>16.1</v>
+        <v>20.1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -846,31 +846,31 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>042700</t>
+          <t>034730</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>한미반도체</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>171100</v>
+        <v>290000</v>
       </c>
       <c r="D13" t="n">
-        <v>53.1</v>
+        <v>52</v>
       </c>
       <c r="E13" t="n">
-        <v>103.7</v>
+        <v>103</v>
       </c>
       <c r="F13" t="n">
-        <v>16.1</v>
+        <v>18.5</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>16.1</v>
+        <v>18.5</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -879,31 +879,31 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>009540</t>
+          <t>064350</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>HD한국조선해양</t>
+          <t>현대로템</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>436000</v>
+        <v>213000</v>
       </c>
       <c r="D14" t="n">
-        <v>61.8</v>
+        <v>54.4</v>
       </c>
       <c r="E14" t="n">
-        <v>102.2</v>
+        <v>102.1</v>
       </c>
       <c r="F14" t="n">
-        <v>12.1</v>
+        <v>18.3</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>12.1</v>
+        <v>18.3</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -912,31 +912,31 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>035420</t>
+          <t>267260</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>NAVER</t>
+          <t>HD현대일렉트릭</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>266000</v>
+        <v>872000</v>
       </c>
       <c r="D15" t="n">
-        <v>58.4</v>
+        <v>57.8</v>
       </c>
       <c r="E15" t="n">
-        <v>107</v>
+        <v>101.2</v>
       </c>
       <c r="F15" t="n">
-        <v>9.300000000000001</v>
+        <v>17.3</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>9.300000000000001</v>
+        <v>17.3</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -945,31 +945,31 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>096770</t>
+          <t>068270</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SK이노베이션</t>
+          <t>셀트리온</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>111400</v>
+        <v>215000</v>
       </c>
       <c r="D16" t="n">
-        <v>61.4</v>
+        <v>52.1</v>
       </c>
       <c r="E16" t="n">
-        <v>106.3</v>
+        <v>104.2</v>
       </c>
       <c r="F16" t="n">
-        <v>6.9</v>
+        <v>15.9</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>6.9</v>
+        <v>15.9</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -978,31 +978,31 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>051910</t>
+          <t>055550</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>LG화학</t>
+          <t>신한지주</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>358000</v>
+        <v>82400</v>
       </c>
       <c r="D17" t="n">
-        <v>63</v>
+        <v>56.9</v>
       </c>
       <c r="E17" t="n">
-        <v>107.5</v>
+        <v>103.7</v>
       </c>
       <c r="F17" t="n">
-        <v>5.6</v>
+        <v>13.1</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>5.6</v>
+        <v>13.1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1011,31 +1011,31 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>010130</t>
+          <t>402340</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>고려아연</t>
+          <t>SK스퀘어</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1580000</v>
+        <v>441000</v>
       </c>
       <c r="D18" t="n">
-        <v>63.9</v>
+        <v>55.4</v>
       </c>
       <c r="E18" t="n">
-        <v>114.9</v>
+        <v>105.4</v>
       </c>
       <c r="F18" t="n">
-        <v>4.9</v>
+        <v>11.7</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>4.9</v>
+        <v>11.7</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1044,31 +1044,31 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>402340</t>
+          <t>329180</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>SK스퀘어</t>
+          <t>HD현대중공업</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>445500</v>
+        <v>605000</v>
       </c>
       <c r="D19" t="n">
-        <v>65.40000000000001</v>
+        <v>60.7</v>
       </c>
       <c r="E19" t="n">
-        <v>108</v>
+        <v>103.1</v>
       </c>
       <c r="F19" t="n">
-        <v>3.6</v>
+        <v>11.3</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>3.6</v>
+        <v>11.3</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1077,31 +1077,31 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>316140</t>
+          <t>035420</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>우리금융지주</t>
+          <t>NAVER</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>29550</v>
+        <v>272500</v>
       </c>
       <c r="D20" t="n">
-        <v>67.40000000000001</v>
+        <v>56.6</v>
       </c>
       <c r="E20" t="n">
-        <v>105.1</v>
+        <v>108.8</v>
       </c>
       <c r="F20" t="n">
-        <v>2.1</v>
+        <v>10.7</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>2.1</v>
+        <v>10.7</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1110,31 +1110,31 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>042660</t>
+          <t>051910</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>한화오션</t>
+          <t>LG화학</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>140300</v>
+        <v>349500</v>
       </c>
       <c r="D21" t="n">
-        <v>67.40000000000001</v>
+        <v>59.1</v>
       </c>
       <c r="E21" t="n">
-        <v>105.8</v>
+        <v>104.9</v>
       </c>
       <c r="F21" t="n">
-        <v>2</v>
+        <v>8.9</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>8.9</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1143,31 +1143,31 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>055550</t>
+          <t>096770</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>신한지주</t>
+          <t>SK이노베이션</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>83900</v>
+        <v>114100</v>
       </c>
       <c r="D22" t="n">
-        <v>67.59999999999999</v>
+        <v>60.8</v>
       </c>
       <c r="E22" t="n">
-        <v>105.9</v>
+        <v>108.5</v>
       </c>
       <c r="F22" t="n">
-        <v>1.9</v>
+        <v>7.4</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>1.9</v>
+        <v>7.4</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -1176,31 +1176,31 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>066570</t>
+          <t>034020</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>두산에너빌리티</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>105600</v>
+        <v>91800</v>
       </c>
       <c r="D23" t="n">
-        <v>67.59999999999999</v>
+        <v>61.1</v>
       </c>
       <c r="E23" t="n">
-        <v>110.2</v>
+        <v>106.2</v>
       </c>
       <c r="F23" t="n">
-        <v>1.9</v>
+        <v>7.1</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>1.9</v>
+        <v>7.1</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -1209,31 +1209,31 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>034730</t>
+          <t>066570</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>296500</v>
+        <v>102500</v>
       </c>
       <c r="D24" t="n">
-        <v>67.8</v>
+        <v>61.2</v>
       </c>
       <c r="E24" t="n">
-        <v>106.1</v>
+        <v>106.4</v>
       </c>
       <c r="F24" t="n">
-        <v>1.8</v>
+        <v>7</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>1.8</v>
+        <v>7</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -1242,31 +1242,31 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>105560</t>
+          <t>316140</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>KB금융</t>
+          <t>우리금융지주</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>135600</v>
+        <v>29550</v>
       </c>
       <c r="D25" t="n">
-        <v>67.90000000000001</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="E25" t="n">
-        <v>105.7</v>
+        <v>104.9</v>
       </c>
       <c r="F25" t="n">
-        <v>1.7</v>
+        <v>4.7</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>1.7</v>
+        <v>4.7</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -1275,31 +1275,31 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>015760</t>
+          <t>006800</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>한국전력</t>
+          <t>미래에셋증권</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>61200</v>
+        <v>33300</v>
       </c>
       <c r="D26" t="n">
-        <v>67.90000000000001</v>
+        <v>64.7</v>
       </c>
       <c r="E26" t="n">
-        <v>114.2</v>
+        <v>116.7</v>
       </c>
       <c r="F26" t="n">
-        <v>1.7</v>
+        <v>4.2</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>1.7</v>
+        <v>4.2</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -1317,22 +1317,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>25245</v>
+        <v>24750</v>
       </c>
       <c r="D27" t="n">
-        <v>62.9</v>
+        <v>48.3</v>
       </c>
       <c r="E27" t="n">
-        <v>100.7</v>
+        <v>98.8</v>
       </c>
       <c r="F27" t="n">
-        <v>14.2</v>
+        <v>29.8</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>14.2</v>
+        <v>29.8</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -1350,22 +1350,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>166325</v>
+        <v>163530</v>
       </c>
       <c r="D28" t="n">
-        <v>62.8</v>
+        <v>50.2</v>
       </c>
       <c r="E28" t="n">
-        <v>100.8</v>
+        <v>99.2</v>
       </c>
       <c r="F28" t="n">
-        <v>14.1</v>
+        <v>27.5</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>14.1</v>
+        <v>27.5</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -1383,13 +1383,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>20115</v>
+        <v>21000</v>
       </c>
       <c r="D29" t="n">
-        <v>72.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="E29" t="n">
-        <v>112.4</v>
+        <v>116.4</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -1416,22 +1416,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>72200</v>
+        <v>73445</v>
       </c>
       <c r="D30" t="n">
-        <v>67.09999999999999</v>
+        <v>63.8</v>
       </c>
       <c r="E30" t="n">
-        <v>105.9</v>
+        <v>106.5</v>
       </c>
       <c r="F30" t="n">
-        <v>2.4</v>
+        <v>4.9</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>2.4</v>
+        <v>4.9</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -1449,22 +1449,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>13095</v>
+        <v>12645</v>
       </c>
       <c r="D31" t="n">
-        <v>57.1</v>
+        <v>38.9</v>
       </c>
       <c r="E31" t="n">
-        <v>101.5</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="F31" t="n">
-        <v>17.4</v>
+        <v>39.1</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>17.4</v>
+        <v>39.1</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -1482,13 +1482,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>73025</v>
+        <v>72305</v>
       </c>
       <c r="D32" t="n">
-        <v>92.59999999999999</v>
+        <v>84.2</v>
       </c>
       <c r="E32" t="n">
-        <v>109</v>
+        <v>106.8</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -1515,13 +1515,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>26100</v>
+        <v>25625</v>
       </c>
       <c r="D33" t="n">
-        <v>89</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="E33" t="n">
-        <v>110</v>
+        <v>106.7</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -1548,13 +1548,13 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>28555</v>
+        <v>29275</v>
       </c>
       <c r="D34" t="n">
-        <v>83.7</v>
+        <v>85.3</v>
       </c>
       <c r="E34" t="n">
-        <v>108.1</v>
+        <v>110.1</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -1581,22 +1581,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>71325</v>
+        <v>71110</v>
       </c>
       <c r="D35" t="n">
-        <v>54.6</v>
+        <v>48.8</v>
       </c>
       <c r="E35" t="n">
-        <v>100.2</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="F35" t="n">
-        <v>21.9</v>
+        <v>27.2</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>21.9</v>
+        <v>27.2</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -1614,22 +1614,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>13410</v>
+        <v>13385</v>
       </c>
       <c r="D36" t="n">
-        <v>68.90000000000001</v>
+        <v>66</v>
       </c>
       <c r="E36" t="n">
-        <v>104.8</v>
+        <v>104.3</v>
       </c>
       <c r="F36" t="n">
-        <v>1.3</v>
+        <v>4.5</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>1.3</v>
+        <v>4.5</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>

--- a/latest_analysis.xlsx
+++ b/latest_analysis.xlsx
@@ -492,22 +492,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>169500</v>
+        <v>174800</v>
       </c>
       <c r="D2" t="n">
-        <v>34.6</v>
+        <v>38</v>
       </c>
       <c r="E2" t="n">
-        <v>101.4</v>
+        <v>103.2</v>
       </c>
       <c r="F2" t="n">
-        <v>35.6</v>
+        <v>29.1</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>35.6</v>
+        <v>29.1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -516,31 +516,31 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>033780</t>
+          <t>207940</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>KT&amp;G</t>
+          <t>삼성바이오로직스</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>142000</v>
+        <v>1790000</v>
       </c>
       <c r="D3" t="n">
-        <v>48.3</v>
+        <v>52.4</v>
       </c>
       <c r="E3" t="n">
-        <v>99.09999999999999</v>
+        <v>98</v>
       </c>
       <c r="F3" t="n">
-        <v>29.1</v>
+        <v>28.2</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>29.1</v>
+        <v>28.2</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -549,31 +549,31 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>000810</t>
+          <t>011200</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>삼성화재</t>
+          <t>HMM</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>490500</v>
+        <v>20150</v>
       </c>
       <c r="D4" t="n">
-        <v>47.6</v>
+        <v>52.3</v>
       </c>
       <c r="E4" t="n">
-        <v>100.7</v>
+        <v>99.5</v>
       </c>
       <c r="F4" t="n">
-        <v>26.5</v>
+        <v>25.1</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>26.5</v>
+        <v>25.1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -582,31 +582,31 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>011200</t>
+          <t>009540</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>HMM</t>
+          <t>HD한국조선해양</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>20100</v>
+        <v>426500</v>
       </c>
       <c r="D5" t="n">
-        <v>51.9</v>
+        <v>52.9</v>
       </c>
       <c r="E5" t="n">
-        <v>99.2</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>26</v>
+        <v>24.4</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>26</v>
+        <v>24.4</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -615,31 +615,31 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>138040</t>
+          <t>329180</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>메리츠금융지주</t>
+          <t>HD현대중공업</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>107600</v>
+        <v>588000</v>
       </c>
       <c r="D6" t="n">
-        <v>48.5</v>
+        <v>55.8</v>
       </c>
       <c r="E6" t="n">
-        <v>100.7</v>
+        <v>99.5</v>
       </c>
       <c r="F6" t="n">
-        <v>25.8</v>
+        <v>22.3</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>25.8</v>
+        <v>22.3</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -648,31 +648,31 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>024110</t>
+          <t>068270</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>기업은행</t>
+          <t>셀트리온</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>20900</v>
+        <v>211500</v>
       </c>
       <c r="D7" t="n">
-        <v>49</v>
+        <v>50.5</v>
       </c>
       <c r="E7" t="n">
-        <v>100.7</v>
+        <v>101.7</v>
       </c>
       <c r="F7" t="n">
-        <v>25.3</v>
+        <v>22.1</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>25.3</v>
+        <v>22.1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -681,31 +681,31 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>009540</t>
+          <t>033780</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>HD한국조선해양</t>
+          <t>KT&amp;G</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>424000</v>
+        <v>144800</v>
       </c>
       <c r="D8" t="n">
-        <v>53.4</v>
+        <v>54</v>
       </c>
       <c r="E8" t="n">
-        <v>99.3</v>
+        <v>101.1</v>
       </c>
       <c r="F8" t="n">
-        <v>24.6</v>
+        <v>20.7</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>24.6</v>
+        <v>20.7</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -714,31 +714,31 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>035720</t>
+          <t>009150</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>카카오</t>
+          <t>삼성전기</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>61800</v>
+        <v>277000</v>
       </c>
       <c r="D9" t="n">
-        <v>44.7</v>
+        <v>56.2</v>
       </c>
       <c r="E9" t="n">
-        <v>103.9</v>
+        <v>100.4</v>
       </c>
       <c r="F9" t="n">
-        <v>22.5</v>
+        <v>20.3</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>22.5</v>
+        <v>20.3</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -747,31 +747,31 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>009150</t>
+          <t>064350</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>삼성전기</t>
+          <t>현대로템</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>275000</v>
+        <v>211500</v>
       </c>
       <c r="D10" t="n">
-        <v>54.7</v>
+        <v>56.2</v>
       </c>
       <c r="E10" t="n">
-        <v>100</v>
+        <v>100.6</v>
       </c>
       <c r="F10" t="n">
-        <v>22.3</v>
+        <v>19.7</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>22.3</v>
+        <v>19.7</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -780,31 +780,31 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>207940</t>
+          <t>138040</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>삼성바이오로직스</t>
+          <t>메리츠금융지주</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1807000</v>
+        <v>110000</v>
       </c>
       <c r="D11" t="n">
-        <v>58.4</v>
+        <v>57</v>
       </c>
       <c r="E11" t="n">
-        <v>99.2</v>
+        <v>102.9</v>
       </c>
       <c r="F11" t="n">
-        <v>21</v>
+        <v>14.7</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>21</v>
+        <v>14.7</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -813,31 +813,31 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>000660</t>
+          <t>000810</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SK하이닉스</t>
+          <t>삼성화재</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>736000</v>
+        <v>502000</v>
       </c>
       <c r="D12" t="n">
-        <v>53</v>
+        <v>58.7</v>
       </c>
       <c r="E12" t="n">
-        <v>101.7</v>
+        <v>103</v>
       </c>
       <c r="F12" t="n">
-        <v>20.1</v>
+        <v>13</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>20.1</v>
+        <v>13</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -846,31 +846,31 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>034730</t>
+          <t>051910</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>LG화학</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>290000</v>
+        <v>344000</v>
       </c>
       <c r="D13" t="n">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="E13" t="n">
-        <v>103</v>
+        <v>103.1</v>
       </c>
       <c r="F13" t="n">
-        <v>18.5</v>
+        <v>11</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>18.5</v>
+        <v>11</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -879,31 +879,31 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>064350</t>
+          <t>086280</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>현대로템</t>
+          <t>현대글로비스</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>213000</v>
+        <v>241000</v>
       </c>
       <c r="D14" t="n">
-        <v>54.4</v>
+        <v>60.3</v>
       </c>
       <c r="E14" t="n">
-        <v>102.1</v>
+        <v>103.6</v>
       </c>
       <c r="F14" t="n">
-        <v>18.3</v>
+        <v>10.5</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>18.3</v>
+        <v>10.5</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -912,31 +912,31 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>267260</t>
+          <t>035720</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>HD현대일렉트릭</t>
+          <t>카카오</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>872000</v>
+        <v>62200</v>
       </c>
       <c r="D15" t="n">
-        <v>57.8</v>
+        <v>59.9</v>
       </c>
       <c r="E15" t="n">
-        <v>101.2</v>
+        <v>104.2</v>
       </c>
       <c r="F15" t="n">
-        <v>17.3</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>17.3</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -945,31 +945,31 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>068270</t>
+          <t>066570</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>셀트리온</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>215000</v>
+        <v>101300</v>
       </c>
       <c r="D16" t="n">
-        <v>52.1</v>
+        <v>62</v>
       </c>
       <c r="E16" t="n">
-        <v>104.2</v>
+        <v>104.6</v>
       </c>
       <c r="F16" t="n">
-        <v>15.9</v>
+        <v>7.1</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>15.9</v>
+        <v>7.1</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -978,31 +978,31 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>055550</t>
+          <t>034730</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>신한지주</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>82400</v>
+        <v>298000</v>
       </c>
       <c r="D17" t="n">
-        <v>56.9</v>
+        <v>62.1</v>
       </c>
       <c r="E17" t="n">
-        <v>103.7</v>
+        <v>104.8</v>
       </c>
       <c r="F17" t="n">
-        <v>13.1</v>
+        <v>6.7</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>13.1</v>
+        <v>6.7</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1011,31 +1011,31 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>402340</t>
+          <t>024110</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>SK스퀘어</t>
+          <t>기업은행</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>441000</v>
+        <v>21600</v>
       </c>
       <c r="D18" t="n">
-        <v>55.4</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>105.4</v>
+        <v>104</v>
       </c>
       <c r="F18" t="n">
-        <v>11.7</v>
+        <v>6.4</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>11.7</v>
+        <v>6.4</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1044,31 +1044,31 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>329180</t>
+          <t>267260</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>HD현대중공업</t>
+          <t>HD현대일렉트릭</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>605000</v>
+        <v>901000</v>
       </c>
       <c r="D19" t="n">
-        <v>60.7</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>103.1</v>
+        <v>103.8</v>
       </c>
       <c r="F19" t="n">
-        <v>11.3</v>
+        <v>6.2</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>11.3</v>
+        <v>6.2</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1077,31 +1077,31 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>035420</t>
+          <t>000270</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>NAVER</t>
+          <t>기아</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>272500</v>
+        <v>153500</v>
       </c>
       <c r="D20" t="n">
-        <v>56.6</v>
+        <v>63.2</v>
       </c>
       <c r="E20" t="n">
-        <v>108.8</v>
+        <v>107.9</v>
       </c>
       <c r="F20" t="n">
-        <v>10.7</v>
+        <v>5.5</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>10.7</v>
+        <v>5.5</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1110,31 +1110,31 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>051910</t>
+          <t>096770</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>LG화학</t>
+          <t>SK이노베이션</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>349500</v>
+        <v>111500</v>
       </c>
       <c r="D21" t="n">
-        <v>59.1</v>
+        <v>63.2</v>
       </c>
       <c r="E21" t="n">
-        <v>104.9</v>
+        <v>105.6</v>
       </c>
       <c r="F21" t="n">
-        <v>8.9</v>
+        <v>5.5</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>8.9</v>
+        <v>5.5</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1143,31 +1143,31 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>096770</t>
+          <t>000660</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>SK이노베이션</t>
+          <t>SK하이닉스</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>114100</v>
+        <v>800000</v>
       </c>
       <c r="D22" t="n">
-        <v>60.8</v>
+        <v>63.6</v>
       </c>
       <c r="E22" t="n">
-        <v>108.5</v>
+        <v>109.1</v>
       </c>
       <c r="F22" t="n">
-        <v>7.4</v>
+        <v>5.2</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>7.4</v>
+        <v>5.2</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -1176,31 +1176,31 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>034020</t>
+          <t>042660</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>두산에너빌리티</t>
+          <t>한화오션</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>91800</v>
+        <v>140500</v>
       </c>
       <c r="D23" t="n">
-        <v>61.1</v>
+        <v>65.5</v>
       </c>
       <c r="E23" t="n">
-        <v>106.2</v>
+        <v>104.2</v>
       </c>
       <c r="F23" t="n">
-        <v>7.1</v>
+        <v>5.1</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>7.1</v>
+        <v>5.1</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -1209,31 +1209,31 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>066570</t>
+          <t>035420</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>NAVER</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>102500</v>
+        <v>281500</v>
       </c>
       <c r="D24" t="n">
-        <v>61.2</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="E24" t="n">
-        <v>106.4</v>
+        <v>111.3</v>
       </c>
       <c r="F24" t="n">
-        <v>7</v>
+        <v>3.9</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>7</v>
+        <v>3.9</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -1242,31 +1242,31 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>316140</t>
+          <t>012330</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>우리금융지주</t>
+          <t>현대모비스</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>29550</v>
+        <v>460000</v>
       </c>
       <c r="D25" t="n">
-        <v>64.40000000000001</v>
+        <v>65.7</v>
       </c>
       <c r="E25" t="n">
-        <v>104.9</v>
+        <v>109</v>
       </c>
       <c r="F25" t="n">
-        <v>4.7</v>
+        <v>3.4</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>4.7</v>
+        <v>3.4</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -1275,31 +1275,31 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>006800</t>
+          <t>010120</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>미래에셋증권</t>
+          <t>LS ELECTRIC</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>33300</v>
+        <v>537000</v>
       </c>
       <c r="D26" t="n">
-        <v>64.7</v>
+        <v>66.5</v>
       </c>
       <c r="E26" t="n">
-        <v>116.7</v>
+        <v>106.6</v>
       </c>
       <c r="F26" t="n">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -1317,22 +1317,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>24750</v>
+        <v>25020</v>
       </c>
       <c r="D27" t="n">
-        <v>48.3</v>
+        <v>51.1</v>
       </c>
       <c r="E27" t="n">
-        <v>98.8</v>
+        <v>99.8</v>
       </c>
       <c r="F27" t="n">
-        <v>29.8</v>
+        <v>25.4</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>29.8</v>
+        <v>25.4</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -1350,22 +1350,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>163530</v>
+        <v>165495</v>
       </c>
       <c r="D28" t="n">
-        <v>50.2</v>
+        <v>53.2</v>
       </c>
       <c r="E28" t="n">
-        <v>99.2</v>
+        <v>100.3</v>
       </c>
       <c r="F28" t="n">
-        <v>27.5</v>
+        <v>22.8</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>27.5</v>
+        <v>22.8</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -1383,13 +1383,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>21000</v>
+        <v>21025</v>
       </c>
       <c r="D29" t="n">
-        <v>74.59999999999999</v>
+        <v>77.7</v>
       </c>
       <c r="E29" t="n">
-        <v>116.4</v>
+        <v>115.5</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -1416,22 +1416,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>73445</v>
+        <v>78105</v>
       </c>
       <c r="D30" t="n">
-        <v>63.8</v>
+        <v>78.3</v>
       </c>
       <c r="E30" t="n">
-        <v>106.5</v>
+        <v>111.7</v>
       </c>
       <c r="F30" t="n">
-        <v>4.9</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>4.9</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -1449,22 +1449,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>12645</v>
+        <v>12570</v>
       </c>
       <c r="D31" t="n">
-        <v>38.9</v>
+        <v>39.1</v>
       </c>
       <c r="E31" t="n">
-        <v>97.90000000000001</v>
+        <v>97.3</v>
       </c>
       <c r="F31" t="n">
-        <v>39.1</v>
+        <v>40.1</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>39.1</v>
+        <v>40.1</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -1482,13 +1482,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>72305</v>
+        <v>74775</v>
       </c>
       <c r="D32" t="n">
-        <v>84.2</v>
+        <v>87</v>
       </c>
       <c r="E32" t="n">
-        <v>106.8</v>
+        <v>109.2</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -1515,13 +1515,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>25625</v>
+        <v>26785</v>
       </c>
       <c r="D33" t="n">
-        <v>76.90000000000001</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="E33" t="n">
-        <v>106.7</v>
+        <v>110</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -1551,10 +1551,10 @@
         <v>29275</v>
       </c>
       <c r="D34" t="n">
-        <v>85.3</v>
+        <v>86.3</v>
       </c>
       <c r="E34" t="n">
-        <v>110.1</v>
+        <v>109.5</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -1581,22 +1581,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>71110</v>
+        <v>71730</v>
       </c>
       <c r="D35" t="n">
-        <v>48.8</v>
+        <v>51.5</v>
       </c>
       <c r="E35" t="n">
-        <v>99.90000000000001</v>
+        <v>100.7</v>
       </c>
       <c r="F35" t="n">
-        <v>27.2</v>
+        <v>23.3</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>27.2</v>
+        <v>23.3</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -1614,22 +1614,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>13385</v>
+        <v>13875</v>
       </c>
       <c r="D36" t="n">
-        <v>66</v>
+        <v>81.3</v>
       </c>
       <c r="E36" t="n">
-        <v>104.3</v>
+        <v>107.7</v>
       </c>
       <c r="F36" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>

--- a/latest_analysis.xlsx
+++ b/latest_analysis.xlsx
@@ -483,682 +483,682 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>042700</t>
+          <t>207940</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>한미반도체</t>
+          <t>삼성바이오로직스</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>174800</v>
+        <v>1791000</v>
       </c>
       <c r="D2" t="n">
-        <v>38</v>
+        <v>37.2</v>
       </c>
       <c r="E2" t="n">
-        <v>103.2</v>
+        <v>97.8</v>
       </c>
       <c r="F2" t="n">
-        <v>29.1</v>
+        <v>40.7</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>29.1</v>
+        <v>50.7</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>207940</t>
+          <t>009540</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>삼성바이오로직스</t>
+          <t>HD한국조선해양</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1790000</v>
+        <v>422500</v>
       </c>
       <c r="D3" t="n">
-        <v>52.4</v>
+        <v>49.3</v>
       </c>
       <c r="E3" t="n">
-        <v>98</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>28.2</v>
+        <v>29.4</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>28.2</v>
+        <v>39.4</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>011200</t>
+          <t>329180</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>HMM</t>
+          <t>HD현대중공업</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>20150</v>
+        <v>586000</v>
       </c>
       <c r="D4" t="n">
-        <v>52.3</v>
+        <v>50.8</v>
       </c>
       <c r="E4" t="n">
-        <v>99.5</v>
+        <v>98.7</v>
       </c>
       <c r="F4" t="n">
-        <v>25.1</v>
+        <v>28</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>25.1</v>
+        <v>38</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>009540</t>
+          <t>011200</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>HD한국조선해양</t>
+          <t>HMM</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>426500</v>
+        <v>20000</v>
       </c>
       <c r="D5" t="n">
-        <v>52.9</v>
+        <v>50.4</v>
       </c>
       <c r="E5" t="n">
-        <v>99.59999999999999</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="F5" t="n">
-        <v>24.4</v>
+        <v>28</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>24.4</v>
+        <v>38</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>329180</t>
+          <t>033780</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>HD현대중공업</t>
+          <t>KT&amp;G</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>588000</v>
+        <v>143500</v>
       </c>
       <c r="D6" t="n">
-        <v>55.8</v>
+        <v>52.4</v>
       </c>
       <c r="E6" t="n">
-        <v>99.5</v>
+        <v>100.2</v>
       </c>
       <c r="F6" t="n">
-        <v>22.3</v>
+        <v>23.7</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>22.3</v>
+        <v>33.7</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>068270</t>
+          <t>009150</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>셀트리온</t>
+          <t>삼성전기</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>211500</v>
+        <v>280000</v>
       </c>
       <c r="D7" t="n">
-        <v>50.5</v>
+        <v>55.3</v>
       </c>
       <c r="E7" t="n">
-        <v>101.7</v>
+        <v>101.1</v>
       </c>
       <c r="F7" t="n">
-        <v>22.1</v>
+        <v>19.6</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>22.1</v>
+        <v>29.6</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>033780</t>
+          <t>042700</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>KT&amp;G</t>
+          <t>한미반도체</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>144800</v>
+        <v>182000</v>
       </c>
       <c r="D8" t="n">
-        <v>54</v>
+        <v>46.6</v>
       </c>
       <c r="E8" t="n">
-        <v>101.1</v>
+        <v>105.9</v>
       </c>
       <c r="F8" t="n">
-        <v>20.7</v>
+        <v>18.7</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>20.7</v>
+        <v>28.7</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>009150</t>
+          <t>000810</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>삼성전기</t>
+          <t>삼성화재</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>277000</v>
+        <v>491000</v>
       </c>
       <c r="D9" t="n">
-        <v>56.2</v>
+        <v>60.7</v>
       </c>
       <c r="E9" t="n">
-        <v>100.4</v>
+        <v>100.8</v>
       </c>
       <c r="F9" t="n">
-        <v>20.3</v>
+        <v>15.9</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>20.3</v>
+        <v>25.9</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>064350</t>
+          <t>096770</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>현대로템</t>
+          <t>SK이노베이션</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>211500</v>
+        <v>108200</v>
       </c>
       <c r="D10" t="n">
-        <v>56.2</v>
+        <v>57.2</v>
       </c>
       <c r="E10" t="n">
-        <v>100.6</v>
+        <v>102.2</v>
       </c>
       <c r="F10" t="n">
-        <v>19.7</v>
+        <v>15.8</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>19.7</v>
+        <v>25.8</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>138040</t>
+          <t>086280</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>메리츠금융지주</t>
+          <t>현대글로비스</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>110000</v>
+        <v>240500</v>
       </c>
       <c r="D11" t="n">
-        <v>57</v>
+        <v>58.1</v>
       </c>
       <c r="E11" t="n">
-        <v>102.9</v>
+        <v>102.2</v>
       </c>
       <c r="F11" t="n">
-        <v>14.7</v>
+        <v>15.2</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>14.7</v>
+        <v>25.2</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>000810</t>
+          <t>068270</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>삼성화재</t>
+          <t>셀트리온</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>502000</v>
+        <v>218500</v>
       </c>
       <c r="D12" t="n">
-        <v>58.7</v>
+        <v>55.1</v>
       </c>
       <c r="E12" t="n">
-        <v>103</v>
+        <v>104.2</v>
       </c>
       <c r="F12" t="n">
-        <v>13</v>
+        <v>13.6</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>13</v>
+        <v>23.6</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>051910</t>
+          <t>138040</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>LG화학</t>
+          <t>메리츠금융지주</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>344000</v>
+        <v>110800</v>
       </c>
       <c r="D13" t="n">
-        <v>61</v>
+        <v>56.6</v>
       </c>
       <c r="E13" t="n">
-        <v>103.1</v>
+        <v>103.7</v>
       </c>
       <c r="F13" t="n">
-        <v>11</v>
+        <v>13.4</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>11</v>
+        <v>23.4</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>086280</t>
+          <t>066570</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>현대글로비스</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>241000</v>
+        <v>99900</v>
       </c>
       <c r="D14" t="n">
-        <v>60.3</v>
+        <v>59.9</v>
       </c>
       <c r="E14" t="n">
-        <v>103.6</v>
+        <v>102.8</v>
       </c>
       <c r="F14" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>10.5</v>
+        <v>22.5</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>035720</t>
+          <t>267260</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>카카오</t>
+          <t>HD현대일렉트릭</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>62200</v>
+        <v>902000</v>
       </c>
       <c r="D15" t="n">
-        <v>59.9</v>
+        <v>59.1</v>
       </c>
       <c r="E15" t="n">
-        <v>104.2</v>
+        <v>103.2</v>
       </c>
       <c r="F15" t="n">
-        <v>9.699999999999999</v>
+        <v>12.3</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>9.699999999999999</v>
+        <v>22.3</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>066570</t>
+          <t>064350</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>현대로템</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>101300</v>
+        <v>223000</v>
       </c>
       <c r="D16" t="n">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E16" t="n">
-        <v>104.6</v>
+        <v>105.3</v>
       </c>
       <c r="F16" t="n">
-        <v>7.1</v>
+        <v>9.6</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>7.1</v>
+        <v>19.6</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>034730</t>
+          <t>035720</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>카카오</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>298000</v>
+        <v>61800</v>
       </c>
       <c r="D17" t="n">
-        <v>62.1</v>
+        <v>64.7</v>
       </c>
       <c r="E17" t="n">
-        <v>104.8</v>
+        <v>103.5</v>
       </c>
       <c r="F17" t="n">
-        <v>6.7</v>
+        <v>7.3</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>6.7</v>
+        <v>17.3</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>024110</t>
+          <t>000270</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>기업은행</t>
+          <t>기아</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>21600</v>
+        <v>149700</v>
       </c>
       <c r="D18" t="n">
-        <v>64.40000000000001</v>
+        <v>63.6</v>
       </c>
       <c r="E18" t="n">
-        <v>104</v>
+        <v>104.2</v>
       </c>
       <c r="F18" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>6.4</v>
+        <v>16.8</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>267260</t>
+          <t>042660</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>HD현대일렉트릭</t>
+          <t>한화오션</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>901000</v>
+        <v>143400</v>
       </c>
       <c r="D19" t="n">
-        <v>65.40000000000001</v>
+        <v>62.1</v>
       </c>
       <c r="E19" t="n">
-        <v>103.8</v>
+        <v>105.3</v>
       </c>
       <c r="F19" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>6.2</v>
+        <v>16.3</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>000270</t>
+          <t>012330</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>기아</t>
+          <t>현대모비스</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>153500</v>
+        <v>447000</v>
       </c>
       <c r="D20" t="n">
-        <v>63.2</v>
+        <v>62.4</v>
       </c>
       <c r="E20" t="n">
-        <v>107.9</v>
+        <v>104.9</v>
       </c>
       <c r="F20" t="n">
-        <v>5.5</v>
+        <v>6.2</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>5.5</v>
+        <v>16.2</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>096770</t>
+          <t>034020</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SK이노베이션</t>
+          <t>두산에너빌리티</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>111500</v>
+        <v>92000</v>
       </c>
       <c r="D21" t="n">
-        <v>63.2</v>
+        <v>65</v>
       </c>
       <c r="E21" t="n">
-        <v>105.6</v>
+        <v>104.3</v>
       </c>
       <c r="F21" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>5.5</v>
+        <v>15.4</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>000660</t>
+          <t>035420</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>SK하이닉스</t>
+          <t>NAVER</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>800000</v>
+        <v>277500</v>
       </c>
       <c r="D22" t="n">
-        <v>63.6</v>
+        <v>63.5</v>
       </c>
       <c r="E22" t="n">
-        <v>109.1</v>
+        <v>109</v>
       </c>
       <c r="F22" t="n">
         <v>5.2</v>
@@ -1167,142 +1167,142 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>5.2</v>
+        <v>15.2</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>042660</t>
+          <t>015760</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>한화오션</t>
+          <t>한국전력</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>140500</v>
+        <v>59400</v>
       </c>
       <c r="D23" t="n">
-        <v>65.5</v>
+        <v>66.2</v>
       </c>
       <c r="E23" t="n">
-        <v>104.2</v>
+        <v>107.2</v>
       </c>
       <c r="F23" t="n">
-        <v>5.1</v>
+        <v>3</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>5.1</v>
+        <v>13</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>035420</t>
+          <t>010140</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>NAVER</t>
+          <t>삼성중공업</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>281500</v>
+        <v>30200</v>
       </c>
       <c r="D24" t="n">
-        <v>65.09999999999999</v>
+        <v>66.7</v>
       </c>
       <c r="E24" t="n">
-        <v>111.3</v>
+        <v>106.5</v>
       </c>
       <c r="F24" t="n">
-        <v>3.9</v>
+        <v>2.7</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>3.9</v>
+        <v>12.7</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>012330</t>
+          <t>051910</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>현대모비스</t>
+          <t>LG화학</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>460000</v>
+        <v>354000</v>
       </c>
       <c r="D25" t="n">
-        <v>65.7</v>
+        <v>66.7</v>
       </c>
       <c r="E25" t="n">
-        <v>109</v>
+        <v>105.9</v>
       </c>
       <c r="F25" t="n">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>3.4</v>
+        <v>12.7</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>010120</t>
+          <t>055550</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>LS ELECTRIC</t>
+          <t>신한지주</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>537000</v>
+        <v>83800</v>
       </c>
       <c r="D26" t="n">
-        <v>66.5</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="E26" t="n">
-        <v>106.6</v>
+        <v>104.5</v>
       </c>
       <c r="F26" t="n">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>2.8</v>
+        <v>12</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27">
@@ -1317,25 +1317,25 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>25020</v>
+        <v>24770</v>
       </c>
       <c r="D27" t="n">
-        <v>51.1</v>
+        <v>48.5</v>
       </c>
       <c r="E27" t="n">
-        <v>99.8</v>
+        <v>98.8</v>
       </c>
       <c r="F27" t="n">
-        <v>25.4</v>
+        <v>29.6</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>25.4</v>
+        <v>39.6</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28">
@@ -1350,25 +1350,25 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>165495</v>
+        <v>165035</v>
       </c>
       <c r="D28" t="n">
-        <v>53.2</v>
+        <v>52.5</v>
       </c>
       <c r="E28" t="n">
-        <v>100.3</v>
+        <v>100</v>
       </c>
       <c r="F28" t="n">
-        <v>22.8</v>
+        <v>24.1</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>22.8</v>
+        <v>34.1</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29">
@@ -1383,13 +1383,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>21025</v>
+        <v>22195</v>
       </c>
       <c r="D29" t="n">
-        <v>77.7</v>
+        <v>81.5</v>
       </c>
       <c r="E29" t="n">
-        <v>115.5</v>
+        <v>120.4</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -1398,10 +1398,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30">
@@ -1416,13 +1416,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>78105</v>
+        <v>82950</v>
       </c>
       <c r="D30" t="n">
-        <v>78.3</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="E30" t="n">
-        <v>111.7</v>
+        <v>116.8</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -1431,10 +1431,10 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31">
@@ -1449,25 +1449,25 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>12570</v>
+        <v>12290</v>
       </c>
       <c r="D31" t="n">
-        <v>39.1</v>
+        <v>36</v>
       </c>
       <c r="E31" t="n">
-        <v>97.3</v>
+        <v>95.2</v>
       </c>
       <c r="F31" t="n">
-        <v>40.1</v>
+        <v>46.9</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>40.1</v>
+        <v>56.9</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32">
@@ -1482,13 +1482,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>74775</v>
+        <v>76175</v>
       </c>
       <c r="D32" t="n">
-        <v>87</v>
+        <v>89.2</v>
       </c>
       <c r="E32" t="n">
-        <v>109.2</v>
+        <v>110</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -1497,10 +1497,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33">
@@ -1515,13 +1515,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>26785</v>
+        <v>27515</v>
       </c>
       <c r="D33" t="n">
-        <v>80.59999999999999</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="E33" t="n">
-        <v>110</v>
+        <v>111.5</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -1530,10 +1530,10 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34">
@@ -1548,13 +1548,13 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>29275</v>
+        <v>30240</v>
       </c>
       <c r="D34" t="n">
-        <v>86.3</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="E34" t="n">
-        <v>109.5</v>
+        <v>112.2</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -1563,10 +1563,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35">
@@ -1581,25 +1581,25 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>71730</v>
+        <v>72100</v>
       </c>
       <c r="D35" t="n">
-        <v>51.5</v>
+        <v>59.6</v>
       </c>
       <c r="E35" t="n">
-        <v>100.7</v>
+        <v>101.2</v>
       </c>
       <c r="F35" t="n">
-        <v>23.3</v>
+        <v>15.8</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>23.3</v>
+        <v>25.8</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36">
@@ -1614,13 +1614,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>13875</v>
+        <v>13665</v>
       </c>
       <c r="D36" t="n">
-        <v>81.3</v>
+        <v>83.5</v>
       </c>
       <c r="E36" t="n">
-        <v>107.7</v>
+        <v>105.7</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -1629,10 +1629,10 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/latest_analysis.xlsx
+++ b/latest_analysis.xlsx
@@ -492,25 +492,25 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1791000</v>
+        <v>1776000</v>
       </c>
       <c r="D2" t="n">
-        <v>37.2</v>
+        <v>36.4</v>
       </c>
       <c r="E2" t="n">
-        <v>97.8</v>
+        <v>96.8</v>
       </c>
       <c r="F2" t="n">
-        <v>40.7</v>
+        <v>43.4</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>50.7</v>
+        <v>43.4</v>
       </c>
       <c r="I2" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -525,25 +525,25 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>422500</v>
+        <v>421000</v>
       </c>
       <c r="D3" t="n">
-        <v>49.3</v>
+        <v>39.3</v>
       </c>
       <c r="E3" t="n">
-        <v>98.59999999999999</v>
+        <v>98</v>
       </c>
       <c r="F3" t="n">
-        <v>29.4</v>
+        <v>38.4</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>39.4</v>
+        <v>38.4</v>
       </c>
       <c r="I3" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -558,91 +558,91 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>586000</v>
+        <v>588000</v>
       </c>
       <c r="D4" t="n">
-        <v>50.8</v>
+        <v>45.2</v>
       </c>
       <c r="E4" t="n">
-        <v>98.7</v>
+        <v>98.3</v>
       </c>
       <c r="F4" t="n">
-        <v>28</v>
+        <v>33.2</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>38</v>
+        <v>33.2</v>
       </c>
       <c r="I4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>011200</t>
+          <t>068270</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>HMM</t>
+          <t>셀트리온</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>20000</v>
+        <v>214500</v>
       </c>
       <c r="D5" t="n">
-        <v>50.4</v>
+        <v>47.7</v>
       </c>
       <c r="E5" t="n">
-        <v>98.90000000000001</v>
+        <v>101.4</v>
       </c>
       <c r="F5" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="I5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>033780</t>
+          <t>011200</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>KT&amp;G</t>
+          <t>HMM</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>143500</v>
+        <v>20400</v>
       </c>
       <c r="D6" t="n">
-        <v>52.4</v>
+        <v>53.8</v>
       </c>
       <c r="E6" t="n">
-        <v>100.2</v>
+        <v>100.9</v>
       </c>
       <c r="F6" t="n">
-        <v>23.7</v>
+        <v>21.3</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>33.7</v>
+        <v>21.3</v>
       </c>
       <c r="I6" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -657,421 +657,421 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>280000</v>
+        <v>279500</v>
       </c>
       <c r="D7" t="n">
-        <v>55.3</v>
+        <v>59.7</v>
       </c>
       <c r="E7" t="n">
-        <v>101.1</v>
+        <v>100.4</v>
       </c>
       <c r="F7" t="n">
-        <v>19.6</v>
+        <v>17.3</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>29.6</v>
+        <v>17.3</v>
       </c>
       <c r="I7" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>042700</t>
+          <t>033780</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>한미반도체</t>
+          <t>KT&amp;G</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>182000</v>
+        <v>145600</v>
       </c>
       <c r="D8" t="n">
-        <v>46.6</v>
+        <v>57.5</v>
       </c>
       <c r="E8" t="n">
-        <v>105.9</v>
+        <v>101.5</v>
       </c>
       <c r="F8" t="n">
-        <v>18.7</v>
+        <v>17</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>28.7</v>
+        <v>17</v>
       </c>
       <c r="I8" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>000810</t>
+          <t>042660</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>삼성화재</t>
+          <t>한화오션</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>491000</v>
+        <v>141900</v>
       </c>
       <c r="D9" t="n">
-        <v>60.7</v>
+        <v>57</v>
       </c>
       <c r="E9" t="n">
-        <v>100.8</v>
+        <v>103.1</v>
       </c>
       <c r="F9" t="n">
-        <v>15.9</v>
+        <v>14.1</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>25.9</v>
+        <v>14.1</v>
       </c>
       <c r="I9" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>096770</t>
+          <t>010140</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SK이노베이션</t>
+          <t>삼성중공업</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>108200</v>
+        <v>29800</v>
       </c>
       <c r="D10" t="n">
-        <v>57.2</v>
+        <v>56</v>
       </c>
       <c r="E10" t="n">
-        <v>102.2</v>
+        <v>104</v>
       </c>
       <c r="F10" t="n">
-        <v>15.8</v>
+        <v>13.2</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>25.8</v>
+        <v>13.2</v>
       </c>
       <c r="I10" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>086280</t>
+          <t>267260</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>현대글로비스</t>
+          <t>HD현대일렉트릭</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>240500</v>
+        <v>897000</v>
       </c>
       <c r="D11" t="n">
-        <v>58.1</v>
+        <v>61.6</v>
       </c>
       <c r="E11" t="n">
-        <v>102.2</v>
+        <v>101.9</v>
       </c>
       <c r="F11" t="n">
-        <v>15.2</v>
+        <v>12.9</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>25.2</v>
+        <v>12.9</v>
       </c>
       <c r="I11" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>068270</t>
+          <t>064350</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>셀트리온</t>
+          <t>현대로템</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>218500</v>
+        <v>226500</v>
       </c>
       <c r="D12" t="n">
-        <v>55.1</v>
+        <v>55.3</v>
       </c>
       <c r="E12" t="n">
-        <v>104.2</v>
+        <v>105.9</v>
       </c>
       <c r="F12" t="n">
-        <v>13.6</v>
+        <v>11.7</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>23.6</v>
+        <v>11.7</v>
       </c>
       <c r="I12" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>138040</t>
+          <t>051910</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>메리츠금융지주</t>
+          <t>LG화학</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>110800</v>
+        <v>343000</v>
       </c>
       <c r="D13" t="n">
-        <v>56.6</v>
+        <v>62.2</v>
       </c>
       <c r="E13" t="n">
-        <v>103.7</v>
+        <v>102.4</v>
       </c>
       <c r="F13" t="n">
-        <v>13.4</v>
+        <v>11.5</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>23.4</v>
+        <v>11.5</v>
       </c>
       <c r="I13" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>066570</t>
+          <t>000810</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성화재</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>99900</v>
+        <v>499000</v>
       </c>
       <c r="D14" t="n">
-        <v>59.9</v>
+        <v>64.8</v>
       </c>
       <c r="E14" t="n">
-        <v>102.8</v>
+        <v>102.4</v>
       </c>
       <c r="F14" t="n">
-        <v>12.5</v>
+        <v>9.4</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>22.5</v>
+        <v>9.4</v>
       </c>
       <c r="I14" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>267260</t>
+          <t>035720</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>HD현대일렉트릭</t>
+          <t>카카오</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>902000</v>
+        <v>61800</v>
       </c>
       <c r="D15" t="n">
-        <v>59.1</v>
+        <v>63.6</v>
       </c>
       <c r="E15" t="n">
-        <v>103.2</v>
+        <v>103.3</v>
       </c>
       <c r="F15" t="n">
-        <v>12.3</v>
+        <v>8.4</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>22.3</v>
+        <v>8.4</v>
       </c>
       <c r="I15" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>064350</t>
+          <t>066570</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>현대로템</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>223000</v>
+        <v>100900</v>
       </c>
       <c r="D16" t="n">
-        <v>58</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="E16" t="n">
-        <v>105.3</v>
+        <v>103.3</v>
       </c>
       <c r="F16" t="n">
-        <v>9.6</v>
+        <v>6.5</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>19.6</v>
+        <v>6.5</v>
       </c>
       <c r="I16" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>035720</t>
+          <t>000270</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>카카오</t>
+          <t>기아</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>61800</v>
+        <v>154900</v>
       </c>
       <c r="D17" t="n">
-        <v>64.7</v>
+        <v>62.3</v>
       </c>
       <c r="E17" t="n">
-        <v>103.5</v>
+        <v>106.6</v>
       </c>
       <c r="F17" t="n">
-        <v>7.3</v>
+        <v>6.2</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>17.3</v>
+        <v>6.2</v>
       </c>
       <c r="I17" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>000270</t>
+          <t>086280</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>기아</t>
+          <t>현대글로비스</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>149700</v>
+        <v>255500</v>
       </c>
       <c r="D18" t="n">
-        <v>63.6</v>
+        <v>62.4</v>
       </c>
       <c r="E18" t="n">
-        <v>104.2</v>
+        <v>106.8</v>
       </c>
       <c r="F18" t="n">
-        <v>6.8</v>
+        <v>6.1</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>16.8</v>
+        <v>6.1</v>
       </c>
       <c r="I18" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>042660</t>
+          <t>012450</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>한화오션</t>
+          <t>한화에어로스페이스</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>143400</v>
+        <v>1300000</v>
       </c>
       <c r="D19" t="n">
-        <v>62.1</v>
+        <v>62.6</v>
       </c>
       <c r="E19" t="n">
-        <v>105.3</v>
+        <v>107.3</v>
       </c>
       <c r="F19" t="n">
-        <v>6.3</v>
+        <v>5.9</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>16.3</v>
+        <v>5.9</v>
       </c>
       <c r="I19" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1086,223 +1086,223 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>447000</v>
+        <v>457000</v>
       </c>
       <c r="D20" t="n">
-        <v>62.4</v>
+        <v>62.6</v>
       </c>
       <c r="E20" t="n">
-        <v>104.9</v>
+        <v>106.2</v>
       </c>
       <c r="F20" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>16.2</v>
+        <v>5.9</v>
       </c>
       <c r="I20" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>034020</t>
+          <t>267250</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>두산에너빌리티</t>
+          <t>HD현대</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>92000</v>
+        <v>236500</v>
       </c>
       <c r="D21" t="n">
-        <v>65</v>
+        <v>66.2</v>
       </c>
       <c r="E21" t="n">
-        <v>104.3</v>
+        <v>104.2</v>
       </c>
       <c r="F21" t="n">
-        <v>5.4</v>
+        <v>4.7</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>15.4</v>
+        <v>4.7</v>
       </c>
       <c r="I21" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>035420</t>
+          <t>047810</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>NAVER</t>
+          <t>한국항공우주</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>277500</v>
+        <v>168900</v>
       </c>
       <c r="D22" t="n">
-        <v>63.5</v>
+        <v>65.5</v>
       </c>
       <c r="E22" t="n">
-        <v>109</v>
+        <v>109.5</v>
       </c>
       <c r="F22" t="n">
-        <v>5.2</v>
+        <v>3.6</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>15.2</v>
+        <v>3.6</v>
       </c>
       <c r="I22" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>015760</t>
+          <t>035420</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>한국전력</t>
+          <t>NAVER</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>59400</v>
+        <v>287000</v>
       </c>
       <c r="D23" t="n">
-        <v>66.2</v>
+        <v>65.7</v>
       </c>
       <c r="E23" t="n">
-        <v>107.2</v>
+        <v>111.7</v>
       </c>
       <c r="F23" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>13</v>
+        <v>3.4</v>
       </c>
       <c r="I23" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>010140</t>
+          <t>034020</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>삼성중공업</t>
+          <t>두산에너빌리티</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>30200</v>
+        <v>94000</v>
       </c>
       <c r="D24" t="n">
-        <v>66.7</v>
+        <v>66.8</v>
       </c>
       <c r="E24" t="n">
-        <v>106.5</v>
+        <v>105.5</v>
       </c>
       <c r="F24" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>12.7</v>
+        <v>2.6</v>
       </c>
       <c r="I24" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>051910</t>
+          <t>096770</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>LG화학</t>
+          <t>SK이노베이션</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>354000</v>
+        <v>113500</v>
       </c>
       <c r="D25" t="n">
         <v>66.7</v>
       </c>
       <c r="E25" t="n">
-        <v>105.9</v>
+        <v>106.6</v>
       </c>
       <c r="F25" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>12.7</v>
+        <v>2.6</v>
       </c>
       <c r="I25" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>055550</t>
+          <t>005490</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>신한지주</t>
+          <t>POSCO홀딩스</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>83800</v>
+        <v>364000</v>
       </c>
       <c r="D26" t="n">
-        <v>68.90000000000001</v>
+        <v>67.3</v>
       </c>
       <c r="E26" t="n">
-        <v>104.5</v>
+        <v>107.7</v>
       </c>
       <c r="F26" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>12</v>
+        <v>2.1</v>
       </c>
       <c r="I26" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1317,25 +1317,25 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>24770</v>
+        <v>24710</v>
       </c>
       <c r="D27" t="n">
-        <v>48.5</v>
+        <v>44.3</v>
       </c>
       <c r="E27" t="n">
         <v>98.8</v>
       </c>
       <c r="F27" t="n">
-        <v>29.6</v>
+        <v>32.9</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>39.6</v>
+        <v>32.9</v>
       </c>
       <c r="I27" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1350,25 +1350,25 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>165035</v>
+        <v>164915</v>
       </c>
       <c r="D28" t="n">
-        <v>52.5</v>
+        <v>50.3</v>
       </c>
       <c r="E28" t="n">
         <v>100</v>
       </c>
       <c r="F28" t="n">
-        <v>24.1</v>
+        <v>25.8</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>34.1</v>
+        <v>25.8</v>
       </c>
       <c r="I28" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1383,13 +1383,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>22195</v>
+        <v>22150</v>
       </c>
       <c r="D29" t="n">
-        <v>81.5</v>
+        <v>83.2</v>
       </c>
       <c r="E29" t="n">
-        <v>120.4</v>
+        <v>118.5</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -1398,10 +1398,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1416,13 +1416,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>82950</v>
+        <v>84845</v>
       </c>
       <c r="D30" t="n">
-        <v>84.59999999999999</v>
+        <v>89.8</v>
       </c>
       <c r="E30" t="n">
-        <v>116.8</v>
+        <v>117.5</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -1431,10 +1431,10 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1449,25 +1449,25 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>12290</v>
+        <v>12155</v>
       </c>
       <c r="D31" t="n">
-        <v>36</v>
+        <v>28.1</v>
       </c>
       <c r="E31" t="n">
-        <v>95.2</v>
+        <v>94.3</v>
       </c>
       <c r="F31" t="n">
-        <v>46.9</v>
+        <v>54.9</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>56.9</v>
+        <v>54.9</v>
       </c>
       <c r="I31" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1482,13 +1482,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>76175</v>
+        <v>77035</v>
       </c>
       <c r="D32" t="n">
-        <v>89.2</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="E32" t="n">
-        <v>110</v>
+        <v>110.1</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -1497,10 +1497,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1515,13 +1515,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>27515</v>
+        <v>27865</v>
       </c>
       <c r="D33" t="n">
-        <v>82.90000000000001</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="E33" t="n">
-        <v>111.5</v>
+        <v>111.6</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -1530,10 +1530,10 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1548,13 +1548,13 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>30240</v>
+        <v>32125</v>
       </c>
       <c r="D34" t="n">
-        <v>90.90000000000001</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="E34" t="n">
-        <v>112.2</v>
+        <v>117.7</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -1563,10 +1563,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1581,25 +1581,25 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>72100</v>
+        <v>71935</v>
       </c>
       <c r="D35" t="n">
-        <v>59.6</v>
+        <v>56.2</v>
       </c>
       <c r="E35" t="n">
-        <v>101.2</v>
+        <v>100.9</v>
       </c>
       <c r="F35" t="n">
-        <v>15.8</v>
+        <v>19.1</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>25.8</v>
+        <v>19.1</v>
       </c>
       <c r="I35" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1614,13 +1614,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>13665</v>
+        <v>13740</v>
       </c>
       <c r="D36" t="n">
-        <v>83.5</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="E36" t="n">
-        <v>105.7</v>
+        <v>106.1</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -1629,10 +1629,10 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/latest_analysis.xlsx
+++ b/latest_analysis.xlsx
@@ -492,22 +492,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1776000</v>
+        <v>1745000</v>
       </c>
       <c r="D2" t="n">
-        <v>36.4</v>
+        <v>35.2</v>
       </c>
       <c r="E2" t="n">
-        <v>96.8</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>43.4</v>
+        <v>48</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>43.4</v>
+        <v>48</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -525,22 +525,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>421000</v>
+        <v>413500</v>
       </c>
       <c r="D3" t="n">
-        <v>39.3</v>
+        <v>35.3</v>
       </c>
       <c r="E3" t="n">
-        <v>98</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>38.4</v>
+        <v>45.6</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>38.4</v>
+        <v>45.6</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -549,31 +549,31 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>329180</t>
+          <t>051910</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>HD현대중공업</t>
+          <t>LG화학</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>588000</v>
+        <v>310500</v>
       </c>
       <c r="D4" t="n">
-        <v>45.2</v>
+        <v>46.3</v>
       </c>
       <c r="E4" t="n">
-        <v>98.3</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="F4" t="n">
-        <v>33.2</v>
+        <v>43.2</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>33.2</v>
+        <v>43.2</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -582,31 +582,31 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>068270</t>
+          <t>329180</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>셀트리온</t>
+          <t>HD현대중공업</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>214500</v>
+        <v>575000</v>
       </c>
       <c r="D5" t="n">
-        <v>47.7</v>
+        <v>43.6</v>
       </c>
       <c r="E5" t="n">
-        <v>101.4</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>25</v>
+        <v>39.9</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>25</v>
+        <v>39.9</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -615,31 +615,31 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>011200</t>
+          <t>042660</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>HMM</t>
+          <t>한화오션</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>20400</v>
+        <v>138500</v>
       </c>
       <c r="D6" t="n">
-        <v>53.8</v>
+        <v>42.1</v>
       </c>
       <c r="E6" t="n">
-        <v>100.9</v>
+        <v>99.8</v>
       </c>
       <c r="F6" t="n">
-        <v>21.3</v>
+        <v>32.8</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>21.3</v>
+        <v>32.8</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -648,31 +648,31 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>009150</t>
+          <t>068270</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>삼성전기</t>
+          <t>셀트리온</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>279500</v>
+        <v>210000</v>
       </c>
       <c r="D7" t="n">
-        <v>59.7</v>
+        <v>46.4</v>
       </c>
       <c r="E7" t="n">
-        <v>100.4</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>17.3</v>
+        <v>30.6</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>17.3</v>
+        <v>30.6</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -681,31 +681,31 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>033780</t>
+          <t>011200</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>KT&amp;G</t>
+          <t>HMM</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>145600</v>
+        <v>20000</v>
       </c>
       <c r="D8" t="n">
-        <v>57.5</v>
+        <v>47.7</v>
       </c>
       <c r="E8" t="n">
-        <v>101.5</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="F8" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -714,31 +714,31 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>042660</t>
+          <t>086280</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>한화오션</t>
+          <t>현대글로비스</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>141900</v>
+        <v>242000</v>
       </c>
       <c r="D9" t="n">
-        <v>57</v>
+        <v>49.3</v>
       </c>
       <c r="E9" t="n">
-        <v>103.1</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="F9" t="n">
-        <v>14.1</v>
+        <v>26.7</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>14.1</v>
+        <v>26.7</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -747,31 +747,31 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>010140</t>
+          <t>009150</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>삼성중공업</t>
+          <t>삼성전기</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>29800</v>
+        <v>279000</v>
       </c>
       <c r="D10" t="n">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E10" t="n">
-        <v>104</v>
+        <v>100.1</v>
       </c>
       <c r="F10" t="n">
-        <v>13.2</v>
+        <v>25.8</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>13.2</v>
+        <v>25.8</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -789,22 +789,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>897000</v>
+        <v>889000</v>
       </c>
       <c r="D11" t="n">
-        <v>61.6</v>
+        <v>53.4</v>
       </c>
       <c r="E11" t="n">
-        <v>101.9</v>
+        <v>100.6</v>
       </c>
       <c r="F11" t="n">
-        <v>12.9</v>
+        <v>22.1</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>12.9</v>
+        <v>22.1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -813,31 +813,31 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>064350</t>
+          <t>034020</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>현대로템</t>
+          <t>두산에너빌리티</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>226500</v>
+        <v>90600</v>
       </c>
       <c r="D12" t="n">
-        <v>55.3</v>
+        <v>54.4</v>
       </c>
       <c r="E12" t="n">
-        <v>105.9</v>
+        <v>100.8</v>
       </c>
       <c r="F12" t="n">
-        <v>11.7</v>
+        <v>20.9</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>11.7</v>
+        <v>20.9</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -846,31 +846,31 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>051910</t>
+          <t>267250</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>LG화학</t>
+          <t>HD현대</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>343000</v>
+        <v>234000</v>
       </c>
       <c r="D13" t="n">
-        <v>62.2</v>
+        <v>53.9</v>
       </c>
       <c r="E13" t="n">
-        <v>102.4</v>
+        <v>102</v>
       </c>
       <c r="F13" t="n">
-        <v>11.5</v>
+        <v>18.9</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>11.5</v>
+        <v>18.9</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -879,31 +879,31 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>000810</t>
+          <t>373220</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>삼성화재</t>
+          <t>LG에너지솔루션</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>499000</v>
+        <v>398000</v>
       </c>
       <c r="D14" t="n">
-        <v>64.8</v>
+        <v>56.9</v>
       </c>
       <c r="E14" t="n">
-        <v>102.4</v>
+        <v>100.9</v>
       </c>
       <c r="F14" t="n">
-        <v>9.4</v>
+        <v>18.7</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>9.4</v>
+        <v>18.7</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -912,31 +912,31 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>035720</t>
+          <t>010140</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>카카오</t>
+          <t>삼성중공업</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>61800</v>
+        <v>29450</v>
       </c>
       <c r="D15" t="n">
-        <v>63.6</v>
+        <v>56.8</v>
       </c>
       <c r="E15" t="n">
-        <v>103.3</v>
+        <v>101.8</v>
       </c>
       <c r="F15" t="n">
-        <v>8.4</v>
+        <v>16.8</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>8.4</v>
+        <v>16.8</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -945,31 +945,31 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>066570</t>
+          <t>005490</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>POSCO홀딩스</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>100900</v>
+        <v>347500</v>
       </c>
       <c r="D16" t="n">
-        <v>66.09999999999999</v>
+        <v>60.3</v>
       </c>
       <c r="E16" t="n">
-        <v>103.3</v>
+        <v>102.1</v>
       </c>
       <c r="F16" t="n">
-        <v>6.5</v>
+        <v>13.5</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>6.5</v>
+        <v>13.5</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -978,31 +978,31 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>000270</t>
+          <t>066570</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>기아</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>154900</v>
+        <v>99100</v>
       </c>
       <c r="D17" t="n">
-        <v>62.3</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="E17" t="n">
-        <v>106.6</v>
+        <v>101.1</v>
       </c>
       <c r="F17" t="n">
-        <v>6.2</v>
+        <v>12</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>6.2</v>
+        <v>12</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1011,31 +1011,31 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>086280</t>
+          <t>015760</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>현대글로비스</t>
+          <t>한국전력</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>255500</v>
+        <v>58300</v>
       </c>
       <c r="D18" t="n">
-        <v>62.4</v>
+        <v>60.7</v>
       </c>
       <c r="E18" t="n">
-        <v>106.8</v>
+        <v>102.8</v>
       </c>
       <c r="F18" t="n">
-        <v>6.1</v>
+        <v>11.7</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>6.1</v>
+        <v>11.7</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1044,31 +1044,31 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>012450</t>
+          <t>035720</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>한화에어로스페이스</t>
+          <t>카카오</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1300000</v>
+        <v>61400</v>
       </c>
       <c r="D19" t="n">
-        <v>62.6</v>
+        <v>61.8</v>
       </c>
       <c r="E19" t="n">
-        <v>107.3</v>
+        <v>102.7</v>
       </c>
       <c r="F19" t="n">
-        <v>5.9</v>
+        <v>11.1</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>5.9</v>
+        <v>11.1</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1077,31 +1077,31 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>012330</t>
+          <t>000810</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>현대모비스</t>
+          <t>삼성화재</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>457000</v>
+        <v>501000</v>
       </c>
       <c r="D20" t="n">
-        <v>62.6</v>
+        <v>62.9</v>
       </c>
       <c r="E20" t="n">
-        <v>106.2</v>
+        <v>102.8</v>
       </c>
       <c r="F20" t="n">
-        <v>5.9</v>
+        <v>10.1</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>5.9</v>
+        <v>10.1</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1110,31 +1110,31 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>267250</t>
+          <t>012330</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>HD현대</t>
+          <t>현대모비스</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>236500</v>
+        <v>449000</v>
       </c>
       <c r="D21" t="n">
-        <v>66.2</v>
+        <v>62</v>
       </c>
       <c r="E21" t="n">
-        <v>104.2</v>
+        <v>103.4</v>
       </c>
       <c r="F21" t="n">
-        <v>4.7</v>
+        <v>9.6</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>4.7</v>
+        <v>9.6</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1143,31 +1143,31 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>047810</t>
+          <t>035420</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>한국항공우주</t>
+          <t>NAVER</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>168900</v>
+        <v>275000</v>
       </c>
       <c r="D22" t="n">
-        <v>65.5</v>
+        <v>58.4</v>
       </c>
       <c r="E22" t="n">
-        <v>109.5</v>
+        <v>106.5</v>
       </c>
       <c r="F22" t="n">
-        <v>3.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>3.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -1176,31 +1176,31 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>035420</t>
+          <t>064350</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>NAVER</t>
+          <t>현대로템</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>287000</v>
+        <v>230500</v>
       </c>
       <c r="D23" t="n">
-        <v>65.7</v>
+        <v>58.5</v>
       </c>
       <c r="E23" t="n">
-        <v>111.7</v>
+        <v>106.9</v>
       </c>
       <c r="F23" t="n">
-        <v>3.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>3.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -1209,31 +1209,31 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>034020</t>
+          <t>105560</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>두산에너빌리티</t>
+          <t>KB금융</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>94000</v>
+        <v>135200</v>
       </c>
       <c r="D24" t="n">
-        <v>66.8</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>105.5</v>
+        <v>102.8</v>
       </c>
       <c r="F24" t="n">
-        <v>2.6</v>
+        <v>8.5</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>2.6</v>
+        <v>8.5</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -1242,31 +1242,31 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>096770</t>
+          <t>086790</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SK이노베이션</t>
+          <t>하나금융지주</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>113500</v>
+        <v>100100</v>
       </c>
       <c r="D25" t="n">
-        <v>66.7</v>
+        <v>66</v>
       </c>
       <c r="E25" t="n">
-        <v>106.6</v>
+        <v>102.4</v>
       </c>
       <c r="F25" t="n">
-        <v>2.6</v>
+        <v>8.4</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>2.6</v>
+        <v>8.4</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -1275,31 +1275,31 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>005490</t>
+          <t>000270</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>POSCO홀딩스</t>
+          <t>기아</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>364000</v>
+        <v>152600</v>
       </c>
       <c r="D26" t="n">
-        <v>67.3</v>
+        <v>63.4</v>
       </c>
       <c r="E26" t="n">
-        <v>107.7</v>
+        <v>103.8</v>
       </c>
       <c r="F26" t="n">
-        <v>2.1</v>
+        <v>7.6</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>2.1</v>
+        <v>7.6</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -1317,22 +1317,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>24710</v>
+        <v>24675</v>
       </c>
       <c r="D27" t="n">
-        <v>44.3</v>
+        <v>39.3</v>
       </c>
       <c r="E27" t="n">
-        <v>98.8</v>
+        <v>98.7</v>
       </c>
       <c r="F27" t="n">
-        <v>32.9</v>
+        <v>37.2</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>32.9</v>
+        <v>37.2</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -1350,22 +1350,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>164915</v>
+        <v>163585</v>
       </c>
       <c r="D28" t="n">
-        <v>50.3</v>
+        <v>43.1</v>
       </c>
       <c r="E28" t="n">
-        <v>100</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="F28" t="n">
-        <v>25.8</v>
+        <v>33.3</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>25.8</v>
+        <v>33.3</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -1383,13 +1383,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>22150</v>
+        <v>21180</v>
       </c>
       <c r="D29" t="n">
-        <v>83.2</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>118.5</v>
+        <v>112</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -1416,13 +1416,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>84845</v>
+        <v>88200</v>
       </c>
       <c r="D30" t="n">
-        <v>89.8</v>
+        <v>92</v>
       </c>
       <c r="E30" t="n">
-        <v>117.5</v>
+        <v>120.3</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -1449,22 +1449,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>12155</v>
+        <v>12095</v>
       </c>
       <c r="D31" t="n">
-        <v>28.1</v>
+        <v>23</v>
       </c>
       <c r="E31" t="n">
-        <v>94.3</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="F31" t="n">
-        <v>54.9</v>
+        <v>59.5</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>54.9</v>
+        <v>59.5</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -1482,13 +1482,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>77035</v>
+        <v>77305</v>
       </c>
       <c r="D32" t="n">
-        <v>89.59999999999999</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="E32" t="n">
-        <v>110.1</v>
+        <v>109.3</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -1515,13 +1515,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>27865</v>
+        <v>28225</v>
       </c>
       <c r="D33" t="n">
-        <v>83.59999999999999</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="E33" t="n">
-        <v>111.6</v>
+        <v>111.7</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -1548,22 +1548,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>32125</v>
+        <v>29680</v>
       </c>
       <c r="D34" t="n">
-        <v>92.90000000000001</v>
+        <v>67.8</v>
       </c>
       <c r="E34" t="n">
-        <v>117.7</v>
+        <v>107.9</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -1581,22 +1581,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>71935</v>
+        <v>71125</v>
       </c>
       <c r="D35" t="n">
-        <v>56.2</v>
+        <v>48.4</v>
       </c>
       <c r="E35" t="n">
-        <v>100.9</v>
+        <v>99.8</v>
       </c>
       <c r="F35" t="n">
-        <v>19.1</v>
+        <v>27.7</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>19.1</v>
+        <v>27.7</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -1614,22 +1614,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>13740</v>
+        <v>13485</v>
       </c>
       <c r="D36" t="n">
-        <v>83.59999999999999</v>
+        <v>73.2</v>
       </c>
       <c r="E36" t="n">
-        <v>106.1</v>
+        <v>103.8</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>

--- a/latest_analysis.xlsx
+++ b/latest_analysis.xlsx
@@ -507,10 +507,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="3">
@@ -540,10 +540,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>45.6</v>
+        <v>25.6</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="4">
@@ -573,10 +573,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>43.2</v>
+        <v>23.2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="5">
@@ -606,10 +606,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>39.9</v>
+        <v>19.9</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="6">
@@ -639,10 +639,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>32.8</v>
+        <v>12.8</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="7">
@@ -672,10 +672,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>30.6</v>
+        <v>10.6</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="8">
@@ -705,10 +705,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="9">
@@ -738,10 +738,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>26.7</v>
+        <v>6.699999999999999</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="10">
@@ -771,10 +771,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>25.8</v>
+        <v>5.800000000000001</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="11">
@@ -804,10 +804,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>22.1</v>
+        <v>2.100000000000001</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="12">
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>20.9</v>
+        <v>0.8999999999999986</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="13">
@@ -870,10 +870,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>18.9</v>
+        <v>-1.100000000000001</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="14">
@@ -903,10 +903,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>18.7</v>
+        <v>-1.300000000000001</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="15">
@@ -936,10 +936,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>16.8</v>
+        <v>-3.199999999999999</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="16">
@@ -969,10 +969,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>13.5</v>
+        <v>-6.5</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="17">
@@ -1002,10 +1002,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>12</v>
+        <v>-8</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="18">
@@ -1035,10 +1035,10 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>11.7</v>
+        <v>-8.300000000000001</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="19">
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>11.1</v>
+        <v>-8.9</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="20">
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>10.1</v>
+        <v>-9.9</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="21">
@@ -1134,10 +1134,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>9.6</v>
+        <v>-10.4</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="22">
@@ -1167,10 +1167,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>9.199999999999999</v>
+        <v>-10.8</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="23">
@@ -1200,10 +1200,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>9.199999999999999</v>
+        <v>-10.8</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="24">
@@ -1233,10 +1233,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>8.5</v>
+        <v>-11.5</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="25">
@@ -1266,10 +1266,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>8.4</v>
+        <v>-11.6</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="26">
@@ -1299,10 +1299,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>7.6</v>
+        <v>-12.4</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="27">
@@ -1332,10 +1332,10 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>37.2</v>
+        <v>17.2</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="28">
@@ -1365,10 +1365,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>33.3</v>
+        <v>13.3</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="29">
@@ -1398,10 +1398,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="30">
@@ -1431,10 +1431,10 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="31">
@@ -1464,10 +1464,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>59.5</v>
+        <v>39.5</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="32">
@@ -1497,10 +1497,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="33">
@@ -1530,10 +1530,10 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="34">
@@ -1563,10 +1563,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>1.8</v>
+        <v>-18.2</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="35">
@@ -1596,10 +1596,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>27.7</v>
+        <v>7.699999999999999</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="36">
@@ -1629,10 +1629,10 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>2.4</v>
+        <v>-17.6</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
     </row>
   </sheetData>

--- a/latest_analysis.xlsx
+++ b/latest_analysis.xlsx
@@ -483,31 +483,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>207940</t>
+          <t>329180</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>삼성바이오로직스</t>
+          <t>HD현대중공업</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1745000</v>
+        <v>549000</v>
       </c>
       <c r="D2" t="n">
-        <v>35.2</v>
+        <v>27.4</v>
       </c>
       <c r="E2" t="n">
-        <v>94.90000000000001</v>
+        <v>91</v>
       </c>
       <c r="F2" t="n">
-        <v>48</v>
+        <v>62.1</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>28</v>
+        <v>42.1</v>
       </c>
       <c r="I2" t="n">
         <v>-20</v>
@@ -516,31 +516,31 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>009540</t>
+          <t>207940</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>HD한국조선해양</t>
+          <t>삼성바이오로직스</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>413500</v>
+        <v>1711000</v>
       </c>
       <c r="D3" t="n">
-        <v>35.3</v>
+        <v>23.5</v>
       </c>
       <c r="E3" t="n">
-        <v>96.09999999999999</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>45.6</v>
+        <v>61.1</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>25.6</v>
+        <v>41.1</v>
       </c>
       <c r="I3" t="n">
         <v>-20</v>
@@ -558,22 +558,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>310500</v>
+        <v>296500</v>
       </c>
       <c r="D4" t="n">
-        <v>46.3</v>
+        <v>33.8</v>
       </c>
       <c r="E4" t="n">
-        <v>92.90000000000001</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>43.2</v>
+        <v>60.7</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>23.2</v>
+        <v>40.7</v>
       </c>
       <c r="I4" t="n">
         <v>-20</v>
@@ -582,31 +582,31 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>329180</t>
+          <t>009540</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>HD현대중공업</t>
+          <t>HD한국조선해양</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>575000</v>
+        <v>401500</v>
       </c>
       <c r="D5" t="n">
-        <v>43.6</v>
+        <v>25.8</v>
       </c>
       <c r="E5" t="n">
-        <v>95.59999999999999</v>
+        <v>93.3</v>
       </c>
       <c r="F5" t="n">
-        <v>39.9</v>
+        <v>58.8</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>19.9</v>
+        <v>38.8</v>
       </c>
       <c r="I5" t="n">
         <v>-20</v>
@@ -624,22 +624,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>138500</v>
+        <v>133600</v>
       </c>
       <c r="D6" t="n">
-        <v>42.1</v>
+        <v>32.3</v>
       </c>
       <c r="E6" t="n">
-        <v>99.8</v>
+        <v>95.7</v>
       </c>
       <c r="F6" t="n">
-        <v>32.8</v>
+        <v>48.7</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>12.8</v>
+        <v>28.7</v>
       </c>
       <c r="I6" t="n">
         <v>-20</v>
@@ -657,22 +657,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>210000</v>
+        <v>203000</v>
       </c>
       <c r="D7" t="n">
-        <v>46.4</v>
+        <v>33.6</v>
       </c>
       <c r="E7" t="n">
-        <v>99.09999999999999</v>
+        <v>96</v>
       </c>
       <c r="F7" t="n">
-        <v>30.6</v>
+        <v>47.1</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>10.6</v>
+        <v>27.1</v>
       </c>
       <c r="I7" t="n">
         <v>-20</v>
@@ -681,31 +681,31 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>011200</t>
+          <t>267260</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>HMM</t>
+          <t>HD현대일렉트릭</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>20000</v>
+        <v>836000</v>
       </c>
       <c r="D8" t="n">
-        <v>47.7</v>
+        <v>39.3</v>
       </c>
       <c r="E8" t="n">
-        <v>98.90000000000001</v>
+        <v>94.8</v>
       </c>
       <c r="F8" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="I8" t="n">
         <v>-20</v>
@@ -714,31 +714,31 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>086280</t>
+          <t>010140</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>현대글로비스</t>
+          <t>삼성중공업</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>242000</v>
+        <v>27400</v>
       </c>
       <c r="D9" t="n">
-        <v>49.3</v>
+        <v>42.8</v>
       </c>
       <c r="E9" t="n">
-        <v>99.90000000000001</v>
+        <v>94.3</v>
       </c>
       <c r="F9" t="n">
-        <v>26.7</v>
+        <v>43.2</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>6.699999999999999</v>
+        <v>23.2</v>
       </c>
       <c r="I9" t="n">
         <v>-20</v>
@@ -747,31 +747,31 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>009150</t>
+          <t>011200</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>삼성전기</t>
+          <t>HMM</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>279000</v>
+        <v>19530</v>
       </c>
       <c r="D10" t="n">
-        <v>50</v>
+        <v>37.1</v>
       </c>
       <c r="E10" t="n">
-        <v>100.1</v>
+        <v>96.7</v>
       </c>
       <c r="F10" t="n">
-        <v>25.8</v>
+        <v>43</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>5.800000000000001</v>
+        <v>23</v>
       </c>
       <c r="I10" t="n">
         <v>-20</v>
@@ -780,31 +780,31 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>267260</t>
+          <t>373220</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>HD현대일렉트릭</t>
+          <t>LG에너지솔루션</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>889000</v>
+        <v>380000</v>
       </c>
       <c r="D11" t="n">
-        <v>53.4</v>
+        <v>45</v>
       </c>
       <c r="E11" t="n">
-        <v>100.6</v>
+        <v>96.2</v>
       </c>
       <c r="F11" t="n">
-        <v>22.1</v>
+        <v>37.5</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>2.100000000000001</v>
+        <v>17.5</v>
       </c>
       <c r="I11" t="n">
         <v>-20</v>
@@ -813,31 +813,31 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>034020</t>
+          <t>064350</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>두산에너빌리티</t>
+          <t>현대로템</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>90600</v>
+        <v>214500</v>
       </c>
       <c r="D12" t="n">
-        <v>54.4</v>
+        <v>38.4</v>
       </c>
       <c r="E12" t="n">
-        <v>100.8</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="F12" t="n">
-        <v>20.9</v>
+        <v>37.1</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.8999999999999986</v>
+        <v>17.1</v>
       </c>
       <c r="I12" t="n">
         <v>-20</v>
@@ -855,22 +855,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>234000</v>
+        <v>223000</v>
       </c>
       <c r="D13" t="n">
-        <v>53.9</v>
+        <v>46.2</v>
       </c>
       <c r="E13" t="n">
-        <v>102</v>
+        <v>96.5</v>
       </c>
       <c r="F13" t="n">
-        <v>18.9</v>
+        <v>36</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>-1.100000000000001</v>
+        <v>16</v>
       </c>
       <c r="I13" t="n">
         <v>-20</v>
@@ -879,31 +879,31 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>373220</t>
+          <t>034020</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>LG에너지솔루션</t>
+          <t>두산에너빌리티</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>398000</v>
+        <v>86200</v>
       </c>
       <c r="D14" t="n">
-        <v>56.9</v>
+        <v>48.8</v>
       </c>
       <c r="E14" t="n">
-        <v>100.9</v>
+        <v>95.7</v>
       </c>
       <c r="F14" t="n">
-        <v>18.7</v>
+        <v>35.5</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-1.300000000000001</v>
+        <v>15.5</v>
       </c>
       <c r="I14" t="n">
         <v>-20</v>
@@ -912,31 +912,31 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>010140</t>
+          <t>035720</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>삼성중공업</t>
+          <t>카카오</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>29450</v>
+        <v>58400</v>
       </c>
       <c r="D15" t="n">
-        <v>56.8</v>
+        <v>47.1</v>
       </c>
       <c r="E15" t="n">
-        <v>101.8</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="F15" t="n">
-        <v>16.8</v>
+        <v>32.2</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>-3.199999999999999</v>
+        <v>12.2</v>
       </c>
       <c r="I15" t="n">
         <v>-20</v>
@@ -945,31 +945,31 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>005490</t>
+          <t>012450</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>POSCO홀딩스</t>
+          <t>한화에어로스페이스</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>347500</v>
+        <v>1239000</v>
       </c>
       <c r="D16" t="n">
-        <v>60.3</v>
+        <v>43.5</v>
       </c>
       <c r="E16" t="n">
-        <v>102.1</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="F16" t="n">
-        <v>13.5</v>
+        <v>31.4</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>-6.5</v>
+        <v>11.4</v>
       </c>
       <c r="I16" t="n">
         <v>-20</v>
@@ -978,31 +978,31 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>066570</t>
+          <t>086280</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>현대글로비스</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>99100</v>
+        <v>246000</v>
       </c>
       <c r="D17" t="n">
-        <v>64.90000000000001</v>
+        <v>44.7</v>
       </c>
       <c r="E17" t="n">
-        <v>101.1</v>
+        <v>100.2</v>
       </c>
       <c r="F17" t="n">
-        <v>12</v>
+        <v>29.9</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>-8</v>
+        <v>9.899999999999999</v>
       </c>
       <c r="I17" t="n">
         <v>-20</v>
@@ -1011,31 +1011,31 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>015760</t>
+          <t>012330</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>한국전력</t>
+          <t>현대모비스</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>58300</v>
+        <v>436000</v>
       </c>
       <c r="D18" t="n">
-        <v>60.7</v>
+        <v>46</v>
       </c>
       <c r="E18" t="n">
-        <v>102.8</v>
+        <v>99.7</v>
       </c>
       <c r="F18" t="n">
-        <v>11.7</v>
+        <v>29.8</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>-8.300000000000001</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I18" t="n">
         <v>-20</v>
@@ -1044,31 +1044,31 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>035720</t>
+          <t>005490</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>카카오</t>
+          <t>POSCO홀딩스</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>61400</v>
+        <v>341500</v>
       </c>
       <c r="D19" t="n">
-        <v>61.8</v>
+        <v>46.3</v>
       </c>
       <c r="E19" t="n">
-        <v>102.7</v>
+        <v>99.8</v>
       </c>
       <c r="F19" t="n">
-        <v>11.1</v>
+        <v>29.4</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>-8.9</v>
+        <v>9.399999999999999</v>
       </c>
       <c r="I19" t="n">
         <v>-20</v>
@@ -1077,31 +1077,31 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>000810</t>
+          <t>009150</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>삼성화재</t>
+          <t>삼성전기</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>501000</v>
+        <v>283000</v>
       </c>
       <c r="D20" t="n">
-        <v>62.9</v>
+        <v>44.1</v>
       </c>
       <c r="E20" t="n">
-        <v>102.8</v>
+        <v>101.3</v>
       </c>
       <c r="F20" t="n">
-        <v>10.1</v>
+        <v>28.1</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>-9.9</v>
+        <v>8.100000000000001</v>
       </c>
       <c r="I20" t="n">
         <v>-20</v>
@@ -1110,31 +1110,31 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>012330</t>
+          <t>000810</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>현대모비스</t>
+          <t>삼성화재</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>449000</v>
+        <v>481500</v>
       </c>
       <c r="D21" t="n">
-        <v>62</v>
+        <v>52.2</v>
       </c>
       <c r="E21" t="n">
-        <v>103.4</v>
+        <v>98.8</v>
       </c>
       <c r="F21" t="n">
-        <v>9.6</v>
+        <v>26.5</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>-10.4</v>
+        <v>6.5</v>
       </c>
       <c r="I21" t="n">
         <v>-20</v>
@@ -1143,31 +1143,31 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>035420</t>
+          <t>096770</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>NAVER</t>
+          <t>SK이노베이션</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>275000</v>
+        <v>106900</v>
       </c>
       <c r="D22" t="n">
-        <v>58.4</v>
+        <v>51.7</v>
       </c>
       <c r="E22" t="n">
-        <v>106.5</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="F22" t="n">
-        <v>9.199999999999999</v>
+        <v>25.4</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>-10.8</v>
+        <v>5.399999999999999</v>
       </c>
       <c r="I22" t="n">
         <v>-20</v>
@@ -1176,31 +1176,31 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>064350</t>
+          <t>015760</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>현대로템</t>
+          <t>한국전력</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>230500</v>
+        <v>57300</v>
       </c>
       <c r="D23" t="n">
-        <v>58.5</v>
+        <v>52.6</v>
       </c>
       <c r="E23" t="n">
-        <v>106.9</v>
+        <v>100.4</v>
       </c>
       <c r="F23" t="n">
-        <v>9.199999999999999</v>
+        <v>23</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>-10.8</v>
+        <v>3</v>
       </c>
       <c r="I23" t="n">
         <v>-20</v>
@@ -1209,31 +1209,31 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>105560</t>
+          <t>066570</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>KB금융</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>135200</v>
+        <v>96600</v>
       </c>
       <c r="D24" t="n">
-        <v>64.90000000000001</v>
+        <v>57.8</v>
       </c>
       <c r="E24" t="n">
-        <v>102.8</v>
+        <v>98.3</v>
       </c>
       <c r="F24" t="n">
-        <v>8.5</v>
+        <v>23</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>-11.5</v>
+        <v>3</v>
       </c>
       <c r="I24" t="n">
         <v>-20</v>
@@ -1242,31 +1242,31 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>086790</t>
+          <t>047810</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>하나금융지주</t>
+          <t>한국항공우주</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>100100</v>
+        <v>160000</v>
       </c>
       <c r="D25" t="n">
-        <v>66</v>
+        <v>52.1</v>
       </c>
       <c r="E25" t="n">
-        <v>102.4</v>
+        <v>100.9</v>
       </c>
       <c r="F25" t="n">
-        <v>8.4</v>
+        <v>22.5</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>-11.6</v>
+        <v>2.5</v>
       </c>
       <c r="I25" t="n">
         <v>-20</v>
@@ -1275,31 +1275,31 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>000270</t>
+          <t>010120</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>기아</t>
+          <t>LS ELECTRIC</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>152600</v>
+        <v>526000</v>
       </c>
       <c r="D26" t="n">
-        <v>63.4</v>
+        <v>55.9</v>
       </c>
       <c r="E26" t="n">
-        <v>103.8</v>
+        <v>101.5</v>
       </c>
       <c r="F26" t="n">
-        <v>7.6</v>
+        <v>18.3</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>-12.4</v>
+        <v>-1.699999999999999</v>
       </c>
       <c r="I26" t="n">
         <v>-20</v>
@@ -1317,22 +1317,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>24675</v>
+        <v>24850</v>
       </c>
       <c r="D27" t="n">
-        <v>39.3</v>
+        <v>37.4</v>
       </c>
       <c r="E27" t="n">
-        <v>98.7</v>
+        <v>99.3</v>
       </c>
       <c r="F27" t="n">
-        <v>37.2</v>
+        <v>37.4</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>17.2</v>
+        <v>17.4</v>
       </c>
       <c r="I27" t="n">
         <v>-20</v>
@@ -1350,22 +1350,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>163585</v>
+        <v>162955</v>
       </c>
       <c r="D28" t="n">
-        <v>43.1</v>
+        <v>34.9</v>
       </c>
       <c r="E28" t="n">
-        <v>99.09999999999999</v>
+        <v>98.7</v>
       </c>
       <c r="F28" t="n">
-        <v>33.3</v>
+        <v>40.6</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>13.3</v>
+        <v>20.6</v>
       </c>
       <c r="I28" t="n">
         <v>-20</v>
@@ -1383,22 +1383,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>21180</v>
+        <v>20245</v>
       </c>
       <c r="D29" t="n">
-        <v>72.40000000000001</v>
+        <v>60.9</v>
       </c>
       <c r="E29" t="n">
-        <v>112</v>
+        <v>106.1</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>7.3</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>-20</v>
+        <v>-12.7</v>
       </c>
       <c r="I29" t="n">
         <v>-20</v>
@@ -1416,13 +1416,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>88200</v>
+        <v>81250</v>
       </c>
       <c r="D30" t="n">
-        <v>92</v>
+        <v>70.2</v>
       </c>
       <c r="E30" t="n">
-        <v>120.3</v>
+        <v>109.9</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -1449,22 +1449,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>12095</v>
+        <v>12100</v>
       </c>
       <c r="D31" t="n">
-        <v>23</v>
+        <v>18.4</v>
       </c>
       <c r="E31" t="n">
-        <v>94.09999999999999</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="F31" t="n">
-        <v>59.5</v>
+        <v>62.5</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>39.5</v>
+        <v>42.5</v>
       </c>
       <c r="I31" t="n">
         <v>-20</v>
@@ -1482,22 +1482,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>77305</v>
+        <v>72700</v>
       </c>
       <c r="D32" t="n">
-        <v>89.40000000000001</v>
+        <v>63.3</v>
       </c>
       <c r="E32" t="n">
-        <v>109.3</v>
+        <v>102.3</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>10.8</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>-20</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="I32" t="n">
         <v>-20</v>
@@ -1515,22 +1515,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>28225</v>
+        <v>26520</v>
       </c>
       <c r="D33" t="n">
-        <v>85.09999999999999</v>
+        <v>65.2</v>
       </c>
       <c r="E33" t="n">
-        <v>111.7</v>
+        <v>104.2</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>-20</v>
+        <v>-14.6</v>
       </c>
       <c r="I33" t="n">
         <v>-20</v>
@@ -1548,22 +1548,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>29680</v>
+        <v>25845</v>
       </c>
       <c r="D34" t="n">
-        <v>67.8</v>
+        <v>47.5</v>
       </c>
       <c r="E34" t="n">
-        <v>107.9</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F34" t="n">
-        <v>1.8</v>
+        <v>40.3</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>-18.2</v>
+        <v>20.3</v>
       </c>
       <c r="I34" t="n">
         <v>-20</v>
@@ -1581,22 +1581,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>71125</v>
+        <v>70345</v>
       </c>
       <c r="D35" t="n">
-        <v>48.4</v>
+        <v>38.9</v>
       </c>
       <c r="E35" t="n">
-        <v>99.8</v>
+        <v>98.7</v>
       </c>
       <c r="F35" t="n">
-        <v>27.7</v>
+        <v>37.4</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>7.699999999999999</v>
+        <v>17.4</v>
       </c>
       <c r="I35" t="n">
         <v>-20</v>
@@ -1614,22 +1614,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>13485</v>
+        <v>13410</v>
       </c>
       <c r="D36" t="n">
-        <v>73.2</v>
+        <v>69.2</v>
       </c>
       <c r="E36" t="n">
-        <v>103.8</v>
+        <v>103</v>
       </c>
       <c r="F36" t="n">
-        <v>2.4</v>
+        <v>4.7</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>-17.6</v>
+        <v>-15.3</v>
       </c>
       <c r="I36" t="n">
         <v>-20</v>

--- a/latest_analysis.xlsx
+++ b/latest_analysis.xlsx
@@ -483,100 +483,100 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>329180</t>
+          <t>207940</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>HD현대중공업</t>
+          <t>삼성바이오로직스</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>549000</v>
+        <v>1749000</v>
       </c>
       <c r="D2" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="E2" t="n">
-        <v>91</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>62.1</v>
+        <v>54.1</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>42.1</v>
+        <v>54.1</v>
       </c>
       <c r="I2" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>207940</t>
+          <t>051910</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>삼성바이오로직스</t>
+          <t>LG화학</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1711000</v>
+        <v>306500</v>
       </c>
       <c r="D3" t="n">
-        <v>23.5</v>
+        <v>41.4</v>
       </c>
       <c r="E3" t="n">
-        <v>93.09999999999999</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>61.1</v>
+        <v>48</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>41.1</v>
+        <v>48</v>
       </c>
       <c r="I3" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>051910</t>
+          <t>329180</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LG화학</t>
+          <t>HD현대중공업</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>296500</v>
+        <v>582000</v>
       </c>
       <c r="D4" t="n">
-        <v>33.8</v>
+        <v>42.3</v>
       </c>
       <c r="E4" t="n">
-        <v>89.09999999999999</v>
+        <v>96.2</v>
       </c>
       <c r="F4" t="n">
-        <v>60.7</v>
+        <v>39.7</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>40.7</v>
+        <v>39.7</v>
       </c>
       <c r="I4" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -591,91 +591,91 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>401500</v>
+        <v>417500</v>
       </c>
       <c r="D5" t="n">
-        <v>25.8</v>
+        <v>45.3</v>
       </c>
       <c r="E5" t="n">
-        <v>93.3</v>
+        <v>97</v>
       </c>
       <c r="F5" t="n">
-        <v>58.8</v>
+        <v>35.8</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>38.8</v>
+        <v>35.8</v>
       </c>
       <c r="I5" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>042660</t>
+          <t>068270</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>한화오션</t>
+          <t>셀트리온</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>133600</v>
+        <v>207500</v>
       </c>
       <c r="D6" t="n">
-        <v>32.3</v>
+        <v>46</v>
       </c>
       <c r="E6" t="n">
-        <v>95.7</v>
+        <v>98.2</v>
       </c>
       <c r="F6" t="n">
-        <v>48.7</v>
+        <v>32.7</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>28.7</v>
+        <v>32.7</v>
       </c>
       <c r="I6" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>068270</t>
+          <t>011200</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>셀트리온</t>
+          <t>HMM</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>203000</v>
+        <v>20100</v>
       </c>
       <c r="D7" t="n">
-        <v>33.6</v>
+        <v>44.3</v>
       </c>
       <c r="E7" t="n">
-        <v>96</v>
+        <v>99.5</v>
       </c>
       <c r="F7" t="n">
-        <v>47.1</v>
+        <v>31.6</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>27.1</v>
+        <v>31.6</v>
       </c>
       <c r="I7" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -690,25 +690,25 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>836000</v>
+        <v>889000</v>
       </c>
       <c r="D8" t="n">
-        <v>39.3</v>
+        <v>43.4</v>
       </c>
       <c r="E8" t="n">
-        <v>94.8</v>
+        <v>100.5</v>
       </c>
       <c r="F8" t="n">
-        <v>45</v>
+        <v>30.3</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>25</v>
+        <v>30.3</v>
       </c>
       <c r="I8" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -723,190 +723,190 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>27400</v>
+        <v>28650</v>
       </c>
       <c r="D9" t="n">
-        <v>42.8</v>
+        <v>51.3</v>
       </c>
       <c r="E9" t="n">
-        <v>94.3</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="F9" t="n">
-        <v>43.2</v>
+        <v>29.1</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>23.2</v>
+        <v>29.1</v>
       </c>
       <c r="I9" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>011200</t>
+          <t>373220</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>HMM</t>
+          <t>LG에너지솔루션</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>19530</v>
+        <v>391000</v>
       </c>
       <c r="D10" t="n">
-        <v>37.1</v>
+        <v>50.5</v>
       </c>
       <c r="E10" t="n">
-        <v>96.7</v>
+        <v>98.8</v>
       </c>
       <c r="F10" t="n">
-        <v>43</v>
+        <v>27.9</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>23</v>
+        <v>27.9</v>
       </c>
       <c r="I10" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>373220</t>
+          <t>086280</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>LG에너지솔루션</t>
+          <t>현대글로비스</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>380000</v>
+        <v>250000</v>
       </c>
       <c r="D11" t="n">
-        <v>45</v>
+        <v>46.5</v>
       </c>
       <c r="E11" t="n">
-        <v>96.2</v>
+        <v>100.5</v>
       </c>
       <c r="F11" t="n">
-        <v>37.5</v>
+        <v>27.8</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>17.5</v>
+        <v>27.8</v>
       </c>
       <c r="I11" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>064350</t>
+          <t>267250</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>현대로템</t>
+          <t>HD현대</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>214500</v>
+        <v>233500</v>
       </c>
       <c r="D12" t="n">
-        <v>38.4</v>
+        <v>47.2</v>
       </c>
       <c r="E12" t="n">
-        <v>99.09999999999999</v>
+        <v>100.2</v>
       </c>
       <c r="F12" t="n">
-        <v>37.1</v>
+        <v>27.8</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>17.1</v>
+        <v>27.8</v>
       </c>
       <c r="I12" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>267250</t>
+          <t>012330</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>HD현대</t>
+          <t>현대모비스</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>223000</v>
+        <v>444500</v>
       </c>
       <c r="D13" t="n">
-        <v>46.2</v>
+        <v>48.6</v>
       </c>
       <c r="E13" t="n">
-        <v>96.5</v>
+        <v>100.7</v>
       </c>
       <c r="F13" t="n">
-        <v>36</v>
+        <v>25.7</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>16</v>
+        <v>25.7</v>
       </c>
       <c r="I13" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>034020</t>
+          <t>042660</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>두산에너빌리티</t>
+          <t>한화오션</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>86200</v>
+        <v>141400</v>
       </c>
       <c r="D14" t="n">
-        <v>48.8</v>
+        <v>49.3</v>
       </c>
       <c r="E14" t="n">
-        <v>95.7</v>
+        <v>100.5</v>
       </c>
       <c r="F14" t="n">
-        <v>35.5</v>
+        <v>25.5</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>15.5</v>
+        <v>25.5</v>
       </c>
       <c r="I14" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -921,388 +921,388 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>58400</v>
+        <v>59200</v>
       </c>
       <c r="D15" t="n">
-        <v>47.1</v>
+        <v>51.3</v>
       </c>
       <c r="E15" t="n">
-        <v>98.09999999999999</v>
+        <v>99.8</v>
       </c>
       <c r="F15" t="n">
-        <v>32.2</v>
+        <v>25.4</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>12.2</v>
+        <v>25.4</v>
       </c>
       <c r="I15" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>012450</t>
+          <t>034020</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>한화에어로스페이스</t>
+          <t>두산에너빌리티</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1239000</v>
+        <v>91200</v>
       </c>
       <c r="D16" t="n">
-        <v>43.5</v>
+        <v>52.3</v>
       </c>
       <c r="E16" t="n">
-        <v>99.90000000000001</v>
+        <v>101</v>
       </c>
       <c r="F16" t="n">
-        <v>31.4</v>
+        <v>22.2</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>11.4</v>
+        <v>22.2</v>
       </c>
       <c r="I16" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>086280</t>
+          <t>064350</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>현대글로비스</t>
+          <t>현대로템</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>246000</v>
+        <v>222000</v>
       </c>
       <c r="D17" t="n">
-        <v>44.7</v>
+        <v>49.3</v>
       </c>
       <c r="E17" t="n">
-        <v>100.2</v>
+        <v>102.2</v>
       </c>
       <c r="F17" t="n">
-        <v>29.9</v>
+        <v>22.1</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>9.899999999999999</v>
+        <v>22.1</v>
       </c>
       <c r="I17" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>012330</t>
+          <t>000810</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>현대모비스</t>
+          <t>삼성화재</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>436000</v>
+        <v>491500</v>
       </c>
       <c r="D18" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E18" t="n">
-        <v>99.7</v>
+        <v>100.9</v>
       </c>
       <c r="F18" t="n">
-        <v>29.8</v>
+        <v>20.1</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>9.800000000000001</v>
+        <v>20.1</v>
       </c>
       <c r="I18" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>005490</t>
+          <t>096770</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>POSCO홀딩스</t>
+          <t>SK이노베이션</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>341500</v>
+        <v>109500</v>
       </c>
       <c r="D19" t="n">
-        <v>46.3</v>
+        <v>56.5</v>
       </c>
       <c r="E19" t="n">
-        <v>99.8</v>
+        <v>101.9</v>
       </c>
       <c r="F19" t="n">
-        <v>29.4</v>
+        <v>17</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>9.399999999999999</v>
+        <v>17</v>
       </c>
       <c r="I19" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>009150</t>
+          <t>005490</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>삼성전기</t>
+          <t>POSCO홀딩스</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>283000</v>
+        <v>357000</v>
       </c>
       <c r="D20" t="n">
-        <v>44.1</v>
+        <v>53.9</v>
       </c>
       <c r="E20" t="n">
-        <v>101.3</v>
+        <v>103.5</v>
       </c>
       <c r="F20" t="n">
-        <v>28.1</v>
+        <v>15.9</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>8.100000000000001</v>
+        <v>15.9</v>
       </c>
       <c r="I20" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>000810</t>
+          <t>012450</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>삼성화재</t>
+          <t>한화에어로스페이스</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>481500</v>
+        <v>1299000</v>
       </c>
       <c r="D21" t="n">
-        <v>52.2</v>
+        <v>54</v>
       </c>
       <c r="E21" t="n">
-        <v>98.8</v>
+        <v>103.6</v>
       </c>
       <c r="F21" t="n">
-        <v>26.5</v>
+        <v>15.7</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>6.5</v>
+        <v>15.7</v>
       </c>
       <c r="I21" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>096770</t>
+          <t>047810</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>SK이노베이션</t>
+          <t>한국항공우주</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>106900</v>
+        <v>163700</v>
       </c>
       <c r="D22" t="n">
-        <v>51.7</v>
+        <v>57.3</v>
       </c>
       <c r="E22" t="n">
-        <v>99.59999999999999</v>
+        <v>102.3</v>
       </c>
       <c r="F22" t="n">
-        <v>25.4</v>
+        <v>15.5</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>5.399999999999999</v>
+        <v>15.5</v>
       </c>
       <c r="I22" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>015760</t>
+          <t>035420</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>한국전력</t>
+          <t>NAVER</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>57300</v>
+        <v>269000</v>
       </c>
       <c r="D23" t="n">
-        <v>52.6</v>
+        <v>54.3</v>
       </c>
       <c r="E23" t="n">
-        <v>100.4</v>
+        <v>103.6</v>
       </c>
       <c r="F23" t="n">
-        <v>23</v>
+        <v>15.3</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>15.3</v>
       </c>
       <c r="I23" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>066570</t>
+          <t>000270</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>기아</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>96600</v>
+        <v>154000</v>
       </c>
       <c r="D24" t="n">
-        <v>57.8</v>
+        <v>56.9</v>
       </c>
       <c r="E24" t="n">
-        <v>98.3</v>
+        <v>102.7</v>
       </c>
       <c r="F24" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="I24" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>047810</t>
+          <t>066570</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>한국항공우주</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>160000</v>
+        <v>100300</v>
       </c>
       <c r="D25" t="n">
-        <v>52.1</v>
+        <v>60</v>
       </c>
       <c r="E25" t="n">
-        <v>100.9</v>
+        <v>101.8</v>
       </c>
       <c r="F25" t="n">
-        <v>22.5</v>
+        <v>14.4</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>2.5</v>
+        <v>14.4</v>
       </c>
       <c r="I25" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>010120</t>
+          <t>015760</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>LS ELECTRIC</t>
+          <t>한국전력</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>526000</v>
+        <v>59500</v>
       </c>
       <c r="D26" t="n">
-        <v>55.9</v>
+        <v>59.7</v>
       </c>
       <c r="E26" t="n">
-        <v>101.5</v>
+        <v>103.5</v>
       </c>
       <c r="F26" t="n">
-        <v>18.3</v>
+        <v>11.3</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>-1.699999999999999</v>
+        <v>11.3</v>
       </c>
       <c r="I26" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1317,25 +1317,25 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>24850</v>
+        <v>25080</v>
       </c>
       <c r="D27" t="n">
-        <v>37.4</v>
+        <v>43.3</v>
       </c>
       <c r="E27" t="n">
-        <v>99.3</v>
+        <v>100.2</v>
       </c>
       <c r="F27" t="n">
-        <v>37.4</v>
+        <v>31</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>17.4</v>
+        <v>31</v>
       </c>
       <c r="I27" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1350,25 +1350,25 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>162955</v>
+        <v>165665</v>
       </c>
       <c r="D28" t="n">
-        <v>34.9</v>
+        <v>43.8</v>
       </c>
       <c r="E28" t="n">
-        <v>98.7</v>
+        <v>100.3</v>
       </c>
       <c r="F28" t="n">
-        <v>40.6</v>
+        <v>30.4</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>20.6</v>
+        <v>30.4</v>
       </c>
       <c r="I28" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1383,25 +1383,25 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>20245</v>
+        <v>20925</v>
       </c>
       <c r="D29" t="n">
-        <v>60.9</v>
+        <v>67.8</v>
       </c>
       <c r="E29" t="n">
-        <v>106.1</v>
+        <v>108.6</v>
       </c>
       <c r="F29" t="n">
-        <v>7.3</v>
+        <v>1.8</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>-12.7</v>
+        <v>1.8</v>
       </c>
       <c r="I29" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1416,13 +1416,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>81250</v>
+        <v>88780</v>
       </c>
       <c r="D30" t="n">
-        <v>70.2</v>
+        <v>75.5</v>
       </c>
       <c r="E30" t="n">
-        <v>109.9</v>
+        <v>118.6</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -1431,10 +1431,10 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1452,22 +1452,22 @@
         <v>12100</v>
       </c>
       <c r="D31" t="n">
-        <v>18.4</v>
+        <v>20.5</v>
       </c>
       <c r="E31" t="n">
-        <v>94.40000000000001</v>
+        <v>94.7</v>
       </c>
       <c r="F31" t="n">
-        <v>62.5</v>
+        <v>60.1</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>42.5</v>
+        <v>60.1</v>
       </c>
       <c r="I31" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1482,25 +1482,25 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>72700</v>
+        <v>78290</v>
       </c>
       <c r="D32" t="n">
-        <v>63.3</v>
+        <v>72.3</v>
       </c>
       <c r="E32" t="n">
-        <v>102.3</v>
+        <v>109.2</v>
       </c>
       <c r="F32" t="n">
-        <v>10.8</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>-9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1515,25 +1515,25 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>26520</v>
+        <v>28590</v>
       </c>
       <c r="D33" t="n">
-        <v>65.2</v>
+        <v>72.2</v>
       </c>
       <c r="E33" t="n">
-        <v>104.2</v>
+        <v>111.2</v>
       </c>
       <c r="F33" t="n">
-        <v>5.4</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>-14.6</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1548,25 +1548,25 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>25845</v>
+        <v>27880</v>
       </c>
       <c r="D34" t="n">
-        <v>47.5</v>
+        <v>53.9</v>
       </c>
       <c r="E34" t="n">
-        <v>93.90000000000001</v>
+        <v>100.9</v>
       </c>
       <c r="F34" t="n">
-        <v>40.3</v>
+        <v>21.2</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>20.3</v>
+        <v>21.2</v>
       </c>
       <c r="I34" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1581,25 +1581,25 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>70345</v>
+        <v>71805</v>
       </c>
       <c r="D35" t="n">
-        <v>38.9</v>
+        <v>51.6</v>
       </c>
       <c r="E35" t="n">
-        <v>98.7</v>
+        <v>100.7</v>
       </c>
       <c r="F35" t="n">
-        <v>37.4</v>
+        <v>23.2</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>17.4</v>
+        <v>23.2</v>
       </c>
       <c r="I35" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1614,25 +1614,25 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>13410</v>
+        <v>14150</v>
       </c>
       <c r="D36" t="n">
-        <v>69.2</v>
+        <v>76.3</v>
       </c>
       <c r="E36" t="n">
-        <v>103</v>
+        <v>108.1</v>
       </c>
       <c r="F36" t="n">
-        <v>4.7</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>-15.3</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/latest_analysis.xlsx
+++ b/latest_analysis.xlsx
@@ -492,91 +492,91 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1749000</v>
+        <v>1759000</v>
       </c>
       <c r="D2" t="n">
-        <v>27.2</v>
+        <v>21.5</v>
       </c>
       <c r="E2" t="n">
-        <v>95.09999999999999</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>54.1</v>
+        <v>57.5</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>54.1</v>
+        <v>47.5</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>051910</t>
+          <t>329180</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>LG화학</t>
+          <t>HD현대중공업</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>306500</v>
+        <v>583000</v>
       </c>
       <c r="D3" t="n">
-        <v>41.4</v>
+        <v>38</v>
       </c>
       <c r="E3" t="n">
-        <v>92.40000000000001</v>
+        <v>96.2</v>
       </c>
       <c r="F3" t="n">
-        <v>48</v>
+        <v>43.3</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>48</v>
+        <v>33.3</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>329180</t>
+          <t>051910</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>HD현대중공업</t>
+          <t>LG화학</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>582000</v>
+        <v>318000</v>
       </c>
       <c r="D4" t="n">
-        <v>42.3</v>
+        <v>43.8</v>
       </c>
       <c r="E4" t="n">
-        <v>96.2</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="F4" t="n">
-        <v>39.7</v>
+        <v>39.1</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>39.7</v>
+        <v>29.1</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="5">
@@ -591,223 +591,223 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>417500</v>
+        <v>424500</v>
       </c>
       <c r="D5" t="n">
-        <v>45.3</v>
+        <v>42.4</v>
       </c>
       <c r="E5" t="n">
-        <v>97</v>
+        <v>98.5</v>
       </c>
       <c r="F5" t="n">
-        <v>35.8</v>
+        <v>35.1</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>35.8</v>
+        <v>25.1</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>068270</t>
+          <t>086280</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>셀트리온</t>
+          <t>현대글로비스</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>207500</v>
+        <v>251000</v>
       </c>
       <c r="D6" t="n">
-        <v>46</v>
+        <v>42.5</v>
       </c>
       <c r="E6" t="n">
-        <v>98.2</v>
+        <v>100.2</v>
       </c>
       <c r="F6" t="n">
-        <v>32.7</v>
+        <v>31.5</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>32.7</v>
+        <v>21.5</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>011200</t>
+          <t>010140</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>HMM</t>
+          <t>삼성중공업</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>20100</v>
+        <v>29250</v>
       </c>
       <c r="D7" t="n">
-        <v>44.3</v>
+        <v>45.6</v>
       </c>
       <c r="E7" t="n">
-        <v>99.5</v>
+        <v>99.3</v>
       </c>
       <c r="F7" t="n">
-        <v>31.6</v>
+        <v>30.9</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>31.6</v>
+        <v>20.9</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>267260</t>
+          <t>035720</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>HD현대일렉트릭</t>
+          <t>카카오</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>889000</v>
+        <v>58500</v>
       </c>
       <c r="D8" t="n">
-        <v>43.4</v>
+        <v>50</v>
       </c>
       <c r="E8" t="n">
-        <v>100.5</v>
+        <v>98.7</v>
       </c>
       <c r="F8" t="n">
-        <v>30.3</v>
+        <v>28.6</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>30.3</v>
+        <v>18.6</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>010140</t>
+          <t>042660</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>삼성중공업</t>
+          <t>한화오션</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>28650</v>
+        <v>144000</v>
       </c>
       <c r="D9" t="n">
-        <v>51.3</v>
+        <v>44.1</v>
       </c>
       <c r="E9" t="n">
-        <v>97.90000000000001</v>
+        <v>101.5</v>
       </c>
       <c r="F9" t="n">
-        <v>29.1</v>
+        <v>27.6</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>29.1</v>
+        <v>17.6</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>373220</t>
+          <t>012330</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>LG에너지솔루션</t>
+          <t>현대모비스</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>391000</v>
+        <v>448500</v>
       </c>
       <c r="D10" t="n">
-        <v>50.5</v>
+        <v>49.5</v>
       </c>
       <c r="E10" t="n">
-        <v>98.8</v>
+        <v>101</v>
       </c>
       <c r="F10" t="n">
-        <v>27.9</v>
+        <v>24.4</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>27.9</v>
+        <v>14.4</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>086280</t>
+          <t>011200</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>현대글로비스</t>
+          <t>HMM</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>250000</v>
+        <v>20500</v>
       </c>
       <c r="D11" t="n">
-        <v>46.5</v>
+        <v>52.2</v>
       </c>
       <c r="E11" t="n">
-        <v>100.5</v>
+        <v>101.3</v>
       </c>
       <c r="F11" t="n">
-        <v>27.8</v>
+        <v>21.6</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>27.8</v>
+        <v>11.6</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="12">
@@ -822,487 +822,487 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>233500</v>
+        <v>238500</v>
       </c>
       <c r="D12" t="n">
-        <v>47.2</v>
+        <v>52</v>
       </c>
       <c r="E12" t="n">
-        <v>100.2</v>
+        <v>101.4</v>
       </c>
       <c r="F12" t="n">
-        <v>27.8</v>
+        <v>21.6</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>27.8</v>
+        <v>11.6</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>012330</t>
+          <t>373220</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>현대모비스</t>
+          <t>LG에너지솔루션</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>444500</v>
+        <v>402500</v>
       </c>
       <c r="D13" t="n">
-        <v>48.6</v>
+        <v>53.4</v>
       </c>
       <c r="E13" t="n">
-        <v>100.7</v>
+        <v>101.3</v>
       </c>
       <c r="F13" t="n">
-        <v>25.7</v>
+        <v>20.6</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>25.7</v>
+        <v>10.6</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>042660</t>
+          <t>068270</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>한화오션</t>
+          <t>셀트리온</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>141400</v>
+        <v>214500</v>
       </c>
       <c r="D14" t="n">
-        <v>49.3</v>
+        <v>53.6</v>
       </c>
       <c r="E14" t="n">
-        <v>100.5</v>
+        <v>101.5</v>
       </c>
       <c r="F14" t="n">
-        <v>25.5</v>
+        <v>20.2</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>25.5</v>
+        <v>10.2</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>035720</t>
+          <t>000270</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>카카오</t>
+          <t>기아</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>59200</v>
+        <v>156800</v>
       </c>
       <c r="D15" t="n">
-        <v>51.3</v>
+        <v>53</v>
       </c>
       <c r="E15" t="n">
-        <v>99.8</v>
+        <v>103.6</v>
       </c>
       <c r="F15" t="n">
-        <v>25.4</v>
+        <v>16.4</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>25.4</v>
+        <v>6.399999999999999</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>034020</t>
+          <t>035420</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>두산에너빌리티</t>
+          <t>NAVER</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>91200</v>
+        <v>264500</v>
       </c>
       <c r="D16" t="n">
-        <v>52.3</v>
+        <v>58.3</v>
       </c>
       <c r="E16" t="n">
-        <v>101</v>
+        <v>101.6</v>
       </c>
       <c r="F16" t="n">
-        <v>22.2</v>
+        <v>16</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>22.2</v>
+        <v>6</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>064350</t>
+          <t>012450</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>현대로템</t>
+          <t>한화에어로스페이스</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>222000</v>
+        <v>1324000</v>
       </c>
       <c r="D17" t="n">
-        <v>49.3</v>
+        <v>54</v>
       </c>
       <c r="E17" t="n">
-        <v>102.2</v>
+        <v>104.3</v>
       </c>
       <c r="F17" t="n">
-        <v>22.1</v>
+        <v>14.3</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>22.1</v>
+        <v>4.300000000000001</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>000810</t>
+          <t>005490</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>삼성화재</t>
+          <t>POSCO홀딩스</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>491500</v>
+        <v>363500</v>
       </c>
       <c r="D18" t="n">
-        <v>55</v>
+        <v>53.9</v>
       </c>
       <c r="E18" t="n">
-        <v>100.9</v>
+        <v>104.5</v>
       </c>
       <c r="F18" t="n">
-        <v>20.1</v>
+        <v>13.8</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>20.1</v>
+        <v>3.800000000000001</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>096770</t>
+          <t>267260</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>SK이노베이션</t>
+          <t>HD현대일렉트릭</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>109500</v>
+        <v>924000</v>
       </c>
       <c r="D19" t="n">
-        <v>56.5</v>
+        <v>56.2</v>
       </c>
       <c r="E19" t="n">
-        <v>101.9</v>
+        <v>103.8</v>
       </c>
       <c r="F19" t="n">
-        <v>17</v>
+        <v>13.4</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>17</v>
+        <v>3.4</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>005490</t>
+          <t>047810</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>POSCO홀딩스</t>
+          <t>한국항공우주</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>357000</v>
+        <v>171200</v>
       </c>
       <c r="D20" t="n">
         <v>53.9</v>
       </c>
       <c r="E20" t="n">
-        <v>103.5</v>
+        <v>105.8</v>
       </c>
       <c r="F20" t="n">
-        <v>15.9</v>
+        <v>12.9</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>15.9</v>
+        <v>2.9</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>012450</t>
+          <t>096770</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>한화에어로스페이스</t>
+          <t>SK이노베이션</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1299000</v>
+        <v>112700</v>
       </c>
       <c r="D21" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E21" t="n">
-        <v>103.6</v>
+        <v>104.3</v>
       </c>
       <c r="F21" t="n">
-        <v>15.7</v>
+        <v>12.5</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>15.7</v>
+        <v>2.5</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>047810</t>
+          <t>064350</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>한국항공우주</t>
+          <t>현대로템</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>163700</v>
+        <v>228500</v>
       </c>
       <c r="D22" t="n">
-        <v>57.3</v>
+        <v>55.8</v>
       </c>
       <c r="E22" t="n">
-        <v>102.3</v>
+        <v>104.6</v>
       </c>
       <c r="F22" t="n">
-        <v>15.5</v>
+        <v>12.2</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>15.5</v>
+        <v>2.199999999999999</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>035420</t>
+          <t>298040</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>NAVER</t>
+          <t>효성중공업</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>269000</v>
+        <v>2384000</v>
       </c>
       <c r="D23" t="n">
-        <v>54.3</v>
+        <v>58</v>
       </c>
       <c r="E23" t="n">
-        <v>103.6</v>
+        <v>104.5</v>
       </c>
       <c r="F23" t="n">
-        <v>15.3</v>
+        <v>10.5</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>15.3</v>
+        <v>0.5</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>000270</t>
+          <t>066570</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>기아</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>154000</v>
+        <v>102800</v>
       </c>
       <c r="D24" t="n">
-        <v>56.9</v>
+        <v>61</v>
       </c>
       <c r="E24" t="n">
-        <v>102.7</v>
+        <v>103.8</v>
       </c>
       <c r="F24" t="n">
-        <v>15</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>15</v>
+        <v>-0.3000000000000007</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>066570</t>
+          <t>034020</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>두산에너빌리티</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>100300</v>
+        <v>96500</v>
       </c>
       <c r="D25" t="n">
-        <v>60</v>
+        <v>58.8</v>
       </c>
       <c r="E25" t="n">
-        <v>101.8</v>
+        <v>106.1</v>
       </c>
       <c r="F25" t="n">
-        <v>14.4</v>
+        <v>8.9</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>14.4</v>
+        <v>-1.1</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>015760</t>
+          <t>034730</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>한국전력</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>59500</v>
+        <v>331000</v>
       </c>
       <c r="D26" t="n">
-        <v>59.7</v>
+        <v>61.1</v>
       </c>
       <c r="E26" t="n">
-        <v>103.5</v>
+        <v>110.4</v>
       </c>
       <c r="F26" t="n">
-        <v>11.3</v>
+        <v>7.1</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>11.3</v>
+        <v>-2.9</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="27">
@@ -1317,25 +1317,25 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>25080</v>
+        <v>24905</v>
       </c>
       <c r="D27" t="n">
-        <v>43.3</v>
+        <v>42.8</v>
       </c>
       <c r="E27" t="n">
-        <v>100.2</v>
+        <v>99.5</v>
       </c>
       <c r="F27" t="n">
-        <v>31</v>
+        <v>32.8</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>31</v>
+        <v>22.8</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="28">
@@ -1350,25 +1350,25 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>165665</v>
+        <v>162890</v>
       </c>
       <c r="D28" t="n">
-        <v>43.8</v>
+        <v>41.7</v>
       </c>
       <c r="E28" t="n">
-        <v>100.3</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="F28" t="n">
-        <v>30.4</v>
+        <v>35.4</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>30.4</v>
+        <v>25.4</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="29">
@@ -1383,25 +1383,25 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>20925</v>
+        <v>21530</v>
       </c>
       <c r="D29" t="n">
-        <v>67.8</v>
+        <v>69</v>
       </c>
       <c r="E29" t="n">
-        <v>108.6</v>
+        <v>110.5</v>
       </c>
       <c r="F29" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>1.8</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="30">
@@ -1416,13 +1416,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>88780</v>
+        <v>88800</v>
       </c>
       <c r="D30" t="n">
-        <v>75.5</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="E30" t="n">
-        <v>118.6</v>
+        <v>117.2</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -1431,10 +1431,10 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="31">
@@ -1449,25 +1449,25 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>12100</v>
+        <v>12350</v>
       </c>
       <c r="D31" t="n">
-        <v>20.5</v>
+        <v>31.8</v>
       </c>
       <c r="E31" t="n">
-        <v>94.7</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="F31" t="n">
-        <v>60.1</v>
+        <v>46.7</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>60.1</v>
+        <v>36.7</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="32">
@@ -1482,13 +1482,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>78290</v>
+        <v>79385</v>
       </c>
       <c r="D32" t="n">
-        <v>72.3</v>
+        <v>72.2</v>
       </c>
       <c r="E32" t="n">
-        <v>109.2</v>
+        <v>109.8</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -1497,10 +1497,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="33">
@@ -1515,13 +1515,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>28590</v>
+        <v>28755</v>
       </c>
       <c r="D33" t="n">
-        <v>72.2</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="E33" t="n">
-        <v>111.2</v>
+        <v>110.8</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -1530,10 +1530,10 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="34">
@@ -1548,25 +1548,25 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>27880</v>
+        <v>28965</v>
       </c>
       <c r="D34" t="n">
-        <v>53.9</v>
+        <v>57.6</v>
       </c>
       <c r="E34" t="n">
-        <v>100.9</v>
+        <v>104.2</v>
       </c>
       <c r="F34" t="n">
-        <v>21.2</v>
+        <v>11.5</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>21.2</v>
+        <v>1.5</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="35">
@@ -1581,25 +1581,25 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>71805</v>
+        <v>71210</v>
       </c>
       <c r="D35" t="n">
-        <v>51.6</v>
+        <v>48.6</v>
       </c>
       <c r="E35" t="n">
-        <v>100.7</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="F35" t="n">
-        <v>23.2</v>
+        <v>27.3</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>23.2</v>
+        <v>17.3</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="36">
@@ -1614,13 +1614,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>14150</v>
+        <v>14520</v>
       </c>
       <c r="D36" t="n">
-        <v>76.3</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="E36" t="n">
-        <v>108.1</v>
+        <v>110.1</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -1629,10 +1629,10 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
     </row>
   </sheetData>

--- a/latest_analysis.xlsx
+++ b/latest_analysis.xlsx
@@ -492,25 +492,25 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1759000</v>
+        <v>1700000</v>
       </c>
       <c r="D2" t="n">
-        <v>21.5</v>
+        <v>19.4</v>
       </c>
       <c r="E2" t="n">
-        <v>95.59999999999999</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>57.5</v>
+        <v>64.8</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>47.5</v>
+        <v>44.8</v>
       </c>
       <c r="I2" t="n">
-        <v>-10</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="3">
@@ -525,124 +525,124 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>583000</v>
+        <v>550000</v>
       </c>
       <c r="D3" t="n">
-        <v>38</v>
+        <v>33.9</v>
       </c>
       <c r="E3" t="n">
-        <v>96.2</v>
+        <v>91</v>
       </c>
       <c r="F3" t="n">
-        <v>43.3</v>
+        <v>56.9</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>33.3</v>
+        <v>36.9</v>
       </c>
       <c r="I3" t="n">
-        <v>-10</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>051910</t>
+          <t>009540</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LG화학</t>
+          <t>HD한국조선해양</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>318000</v>
+        <v>409000</v>
       </c>
       <c r="D4" t="n">
-        <v>43.8</v>
+        <v>37.2</v>
       </c>
       <c r="E4" t="n">
-        <v>95.90000000000001</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>39.1</v>
+        <v>46</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>29.1</v>
+        <v>26</v>
       </c>
       <c r="I4" t="n">
-        <v>-10</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>009540</t>
+          <t>042660</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>HD한국조선해양</t>
+          <t>한화오션</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>424500</v>
+        <v>135600</v>
       </c>
       <c r="D5" t="n">
-        <v>42.4</v>
+        <v>38.2</v>
       </c>
       <c r="E5" t="n">
-        <v>98.5</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="F5" t="n">
-        <v>35.1</v>
+        <v>44.6</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>25.1</v>
+        <v>24.6</v>
       </c>
       <c r="I5" t="n">
-        <v>-10</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>086280</t>
+          <t>051910</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>현대글로비스</t>
+          <t>LG화학</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>251000</v>
+        <v>312000</v>
       </c>
       <c r="D6" t="n">
-        <v>42.5</v>
+        <v>42.8</v>
       </c>
       <c r="E6" t="n">
-        <v>100.2</v>
+        <v>94.2</v>
       </c>
       <c r="F6" t="n">
-        <v>31.5</v>
+        <v>43.4</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>21.5</v>
+        <v>23.4</v>
       </c>
       <c r="I6" t="n">
-        <v>-10</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="7">
@@ -657,289 +657,289 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>29250</v>
+        <v>28100</v>
       </c>
       <c r="D7" t="n">
-        <v>45.6</v>
+        <v>42.5</v>
       </c>
       <c r="E7" t="n">
-        <v>99.3</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>30.9</v>
+        <v>41.8</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>20.9</v>
+        <v>21.8</v>
       </c>
       <c r="I7" t="n">
-        <v>-10</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>035720</t>
+          <t>086280</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>카카오</t>
+          <t>현대글로비스</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>58500</v>
+        <v>241000</v>
       </c>
       <c r="D8" t="n">
-        <v>50</v>
+        <v>42.1</v>
       </c>
       <c r="E8" t="n">
-        <v>98.7</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="F8" t="n">
-        <v>28.6</v>
+        <v>40.5</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>18.6</v>
+        <v>20.5</v>
       </c>
       <c r="I8" t="n">
-        <v>-10</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>042660</t>
+          <t>012450</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>한화오션</t>
+          <t>한화에어로스페이스</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>144000</v>
+        <v>1227000</v>
       </c>
       <c r="D9" t="n">
-        <v>44.1</v>
+        <v>42.3</v>
       </c>
       <c r="E9" t="n">
-        <v>101.5</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="F9" t="n">
-        <v>27.6</v>
+        <v>39.9</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>17.6</v>
+        <v>19.9</v>
       </c>
       <c r="I9" t="n">
-        <v>-10</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>012330</t>
+          <t>064350</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>현대모비스</t>
+          <t>현대로템</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>448500</v>
+        <v>207000</v>
       </c>
       <c r="D10" t="n">
-        <v>49.5</v>
+        <v>45.7</v>
       </c>
       <c r="E10" t="n">
-        <v>101</v>
+        <v>94.8</v>
       </c>
       <c r="F10" t="n">
-        <v>24.4</v>
+        <v>39.8</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>14.4</v>
+        <v>19.8</v>
       </c>
       <c r="I10" t="n">
-        <v>-10</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>011200</t>
+          <t>267260</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>HMM</t>
+          <t>HD현대일렉트릭</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>20500</v>
+        <v>873000</v>
       </c>
       <c r="D11" t="n">
-        <v>52.2</v>
+        <v>44.4</v>
       </c>
       <c r="E11" t="n">
-        <v>101.3</v>
+        <v>98</v>
       </c>
       <c r="F11" t="n">
-        <v>21.6</v>
+        <v>34.5</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>11.6</v>
+        <v>14.5</v>
       </c>
       <c r="I11" t="n">
-        <v>-10</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>267250</t>
+          <t>034020</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>HD현대</t>
+          <t>두산에너빌리티</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>238500</v>
+        <v>90600</v>
       </c>
       <c r="D12" t="n">
-        <v>52</v>
+        <v>44.1</v>
       </c>
       <c r="E12" t="n">
-        <v>101.4</v>
+        <v>99.3</v>
       </c>
       <c r="F12" t="n">
-        <v>21.6</v>
+        <v>32.2</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>11.6</v>
+        <v>12.2</v>
       </c>
       <c r="I12" t="n">
-        <v>-10</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>373220</t>
+          <t>012330</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>LG에너지솔루션</t>
+          <t>현대모비스</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>402500</v>
+        <v>433500</v>
       </c>
       <c r="D13" t="n">
-        <v>53.4</v>
+        <v>50.6</v>
       </c>
       <c r="E13" t="n">
-        <v>101.3</v>
+        <v>97.2</v>
       </c>
       <c r="F13" t="n">
-        <v>20.6</v>
+        <v>31.2</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>10.6</v>
+        <v>11.2</v>
       </c>
       <c r="I13" t="n">
-        <v>-10</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>068270</t>
+          <t>035720</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>셀트리온</t>
+          <t>카카오</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>214500</v>
+        <v>58200</v>
       </c>
       <c r="D14" t="n">
-        <v>53.6</v>
+        <v>52.9</v>
       </c>
       <c r="E14" t="n">
-        <v>101.5</v>
+        <v>98.2</v>
       </c>
       <c r="F14" t="n">
-        <v>20.2</v>
+        <v>27.3</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>10.2</v>
+        <v>7.300000000000001</v>
       </c>
       <c r="I14" t="n">
-        <v>-10</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>000270</t>
+          <t>373220</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>기아</t>
+          <t>LG에너지솔루션</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>156800</v>
+        <v>395000</v>
       </c>
       <c r="D15" t="n">
-        <v>53</v>
+        <v>51.2</v>
       </c>
       <c r="E15" t="n">
-        <v>103.6</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="F15" t="n">
-        <v>16.4</v>
+        <v>26.8</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>6.399999999999999</v>
+        <v>6.800000000000001</v>
       </c>
       <c r="I15" t="n">
-        <v>-10</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="16">
@@ -954,355 +954,355 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>264500</v>
+        <v>257000</v>
       </c>
       <c r="D16" t="n">
-        <v>58.3</v>
+        <v>55.3</v>
       </c>
       <c r="E16" t="n">
-        <v>101.6</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="F16" t="n">
-        <v>16</v>
+        <v>24.4</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>6</v>
+        <v>4.399999999999999</v>
       </c>
       <c r="I16" t="n">
-        <v>-10</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>012450</t>
+          <t>298040</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>한화에어로스페이스</t>
+          <t>효성중공업</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1324000</v>
+        <v>2334000</v>
       </c>
       <c r="D17" t="n">
-        <v>54</v>
+        <v>50.1</v>
       </c>
       <c r="E17" t="n">
-        <v>104.3</v>
+        <v>101.2</v>
       </c>
       <c r="F17" t="n">
-        <v>14.3</v>
+        <v>23.5</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>4.300000000000001</v>
+        <v>3.5</v>
       </c>
       <c r="I17" t="n">
-        <v>-10</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>005490</t>
+          <t>011200</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>POSCO홀딩스</t>
+          <t>HMM</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>363500</v>
+        <v>20300</v>
       </c>
       <c r="D18" t="n">
-        <v>53.9</v>
+        <v>52.7</v>
       </c>
       <c r="E18" t="n">
-        <v>104.5</v>
+        <v>100.2</v>
       </c>
       <c r="F18" t="n">
-        <v>13.8</v>
+        <v>23.4</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>3.800000000000001</v>
+        <v>3.399999999999999</v>
       </c>
       <c r="I18" t="n">
-        <v>-10</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>267260</t>
+          <t>047810</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>HD현대일렉트릭</t>
+          <t>한국항공우주</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>924000</v>
+        <v>162000</v>
       </c>
       <c r="D19" t="n">
-        <v>56.2</v>
+        <v>55.3</v>
       </c>
       <c r="E19" t="n">
-        <v>103.8</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="F19" t="n">
-        <v>13.4</v>
+        <v>22.6</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>3.4</v>
+        <v>2.600000000000001</v>
       </c>
       <c r="I19" t="n">
-        <v>-10</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>047810</t>
+          <t>066570</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>한국항공우주</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>171200</v>
+        <v>100300</v>
       </c>
       <c r="D20" t="n">
-        <v>53.9</v>
+        <v>52.5</v>
       </c>
       <c r="E20" t="n">
-        <v>105.8</v>
+        <v>100.8</v>
       </c>
       <c r="F20" t="n">
-        <v>12.9</v>
+        <v>22.3</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>2.9</v>
+        <v>2.300000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>-10</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>096770</t>
+          <t>009150</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SK이노베이션</t>
+          <t>삼성전기</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>112700</v>
+        <v>290000</v>
       </c>
       <c r="D21" t="n">
-        <v>56</v>
+        <v>50.3</v>
       </c>
       <c r="E21" t="n">
-        <v>104.3</v>
+        <v>102.1</v>
       </c>
       <c r="F21" t="n">
-        <v>12.5</v>
+        <v>21.6</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>2.5</v>
+        <v>1.600000000000001</v>
       </c>
       <c r="I21" t="n">
-        <v>-10</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>064350</t>
+          <t>267250</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>현대로템</t>
+          <t>HD현대</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>228500</v>
+        <v>241500</v>
       </c>
       <c r="D22" t="n">
-        <v>55.8</v>
+        <v>53</v>
       </c>
       <c r="E22" t="n">
-        <v>104.6</v>
+        <v>101.7</v>
       </c>
       <c r="F22" t="n">
-        <v>12.2</v>
+        <v>20.2</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>2.199999999999999</v>
+        <v>0.1999999999999993</v>
       </c>
       <c r="I22" t="n">
-        <v>-10</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>298040</t>
+          <t>005935</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>효성중공업</t>
+          <t>삼성전자우</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2384000</v>
+        <v>113500</v>
       </c>
       <c r="D23" t="n">
-        <v>58</v>
+        <v>52.6</v>
       </c>
       <c r="E23" t="n">
-        <v>104.5</v>
+        <v>102.1</v>
       </c>
       <c r="F23" t="n">
-        <v>10.5</v>
+        <v>19.7</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.5</v>
+        <v>-0.3000000000000007</v>
       </c>
       <c r="I23" t="n">
-        <v>-10</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>066570</t>
+          <t>096770</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>SK이노베이션</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>102800</v>
+        <v>109800</v>
       </c>
       <c r="D24" t="n">
-        <v>61</v>
+        <v>55.1</v>
       </c>
       <c r="E24" t="n">
-        <v>103.8</v>
+        <v>101.3</v>
       </c>
       <c r="F24" t="n">
-        <v>9.699999999999999</v>
+        <v>19.3</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.3000000000000007</v>
+        <v>-0.6999999999999993</v>
       </c>
       <c r="I24" t="n">
-        <v>-10</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>034020</t>
+          <t>000270</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>두산에너빌리티</t>
+          <t>기아</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>96500</v>
+        <v>156200</v>
       </c>
       <c r="D25" t="n">
-        <v>58.8</v>
+        <v>53.5</v>
       </c>
       <c r="E25" t="n">
-        <v>106.1</v>
+        <v>102.2</v>
       </c>
       <c r="F25" t="n">
-        <v>8.9</v>
+        <v>18.8</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>-1.1</v>
+        <v>-1.199999999999999</v>
       </c>
       <c r="I25" t="n">
-        <v>-10</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>034730</t>
+          <t>000810</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>삼성화재</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>331000</v>
+        <v>503000</v>
       </c>
       <c r="D26" t="n">
-        <v>61.1</v>
+        <v>55.8</v>
       </c>
       <c r="E26" t="n">
-        <v>110.4</v>
+        <v>102.6</v>
       </c>
       <c r="F26" t="n">
-        <v>7.1</v>
+        <v>16.1</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>-2.9</v>
+        <v>-3.899999999999999</v>
       </c>
       <c r="I26" t="n">
-        <v>-10</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="27">
@@ -1317,25 +1317,25 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>24905</v>
+        <v>25050</v>
       </c>
       <c r="D27" t="n">
-        <v>42.8</v>
+        <v>42.7</v>
       </c>
       <c r="E27" t="n">
-        <v>99.5</v>
+        <v>100</v>
       </c>
       <c r="F27" t="n">
-        <v>32.8</v>
+        <v>31.8</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>22.8</v>
+        <v>11.8</v>
       </c>
       <c r="I27" t="n">
-        <v>-10</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="28">
@@ -1350,25 +1350,25 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>162890</v>
+        <v>162125</v>
       </c>
       <c r="D28" t="n">
-        <v>41.7</v>
+        <v>36.8</v>
       </c>
       <c r="E28" t="n">
-        <v>98.59999999999999</v>
+        <v>98.2</v>
       </c>
       <c r="F28" t="n">
-        <v>35.4</v>
+        <v>40.1</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>25.4</v>
+        <v>20.1</v>
       </c>
       <c r="I28" t="n">
-        <v>-10</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="29">
@@ -1383,25 +1383,25 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>21530</v>
+        <v>21100</v>
       </c>
       <c r="D29" t="n">
-        <v>69</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>110.5</v>
+        <v>107.1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>-9.199999999999999</v>
+        <v>-19.1</v>
       </c>
       <c r="I29" t="n">
-        <v>-10</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="30">
@@ -1416,25 +1416,25 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>88800</v>
+        <v>84000</v>
       </c>
       <c r="D30" t="n">
-        <v>75.09999999999999</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="E30" t="n">
-        <v>117.2</v>
+        <v>109.9</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>-10</v>
+        <v>-16.5</v>
       </c>
       <c r="I30" t="n">
-        <v>-10</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="31">
@@ -1449,25 +1449,25 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>12350</v>
+        <v>12360</v>
       </c>
       <c r="D31" t="n">
-        <v>31.8</v>
+        <v>28</v>
       </c>
       <c r="E31" t="n">
-        <v>96.90000000000001</v>
+        <v>97.2</v>
       </c>
       <c r="F31" t="n">
-        <v>46.7</v>
+        <v>49.2</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>36.7</v>
+        <v>29.2</v>
       </c>
       <c r="I31" t="n">
-        <v>-10</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="32">
@@ -1482,25 +1482,25 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>79385</v>
+        <v>76010</v>
       </c>
       <c r="D32" t="n">
-        <v>72.2</v>
+        <v>61.1</v>
       </c>
       <c r="E32" t="n">
-        <v>109.8</v>
+        <v>104.4</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>-10</v>
+        <v>-11.7</v>
       </c>
       <c r="I32" t="n">
-        <v>-10</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="33">
@@ -1515,25 +1515,25 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>28755</v>
+        <v>27400</v>
       </c>
       <c r="D33" t="n">
-        <v>71.59999999999999</v>
+        <v>61</v>
       </c>
       <c r="E33" t="n">
-        <v>110.8</v>
+        <v>104.9</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>-10</v>
+        <v>-12.6</v>
       </c>
       <c r="I33" t="n">
-        <v>-10</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="34">
@@ -1548,25 +1548,25 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>28965</v>
+        <v>28180</v>
       </c>
       <c r="D34" t="n">
-        <v>57.6</v>
+        <v>54.9</v>
       </c>
       <c r="E34" t="n">
-        <v>104.2</v>
+        <v>100.9</v>
       </c>
       <c r="F34" t="n">
-        <v>11.5</v>
+        <v>20.3</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>1.5</v>
+        <v>0.3000000000000007</v>
       </c>
       <c r="I34" t="n">
-        <v>-10</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="35">
@@ -1581,25 +1581,25 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>71210</v>
+        <v>70755</v>
       </c>
       <c r="D35" t="n">
-        <v>48.6</v>
+        <v>44</v>
       </c>
       <c r="E35" t="n">
-        <v>99.90000000000001</v>
+        <v>99.3</v>
       </c>
       <c r="F35" t="n">
-        <v>27.3</v>
+        <v>32.2</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>17.3</v>
+        <v>12.2</v>
       </c>
       <c r="I35" t="n">
-        <v>-10</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="36">
@@ -1614,13 +1614,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>14520</v>
+        <v>14580</v>
       </c>
       <c r="D36" t="n">
-        <v>79.90000000000001</v>
+        <v>80.2</v>
       </c>
       <c r="E36" t="n">
-        <v>110.1</v>
+        <v>109.7</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -1629,10 +1629,10 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>-10</v>
+        <v>-20</v>
       </c>
       <c r="I36" t="n">
-        <v>-10</v>
+        <v>-20</v>
       </c>
     </row>
   </sheetData>

--- a/latest_analysis.xlsx
+++ b/latest_analysis.xlsx
@@ -483,199 +483,199 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>207940</t>
+          <t>329180</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>삼성바이오로직스</t>
+          <t>HD현대중공업</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1700000</v>
+        <v>539000</v>
       </c>
       <c r="D2" t="n">
-        <v>19.4</v>
+        <v>23.9</v>
       </c>
       <c r="E2" t="n">
-        <v>92.90000000000001</v>
+        <v>89.7</v>
       </c>
       <c r="F2" t="n">
-        <v>64.8</v>
+        <v>67.5</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>44.8</v>
+        <v>57.5</v>
       </c>
       <c r="I2" t="n">
-        <v>-20</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>329180</t>
+          <t>207940</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>HD현대중공업</t>
+          <t>삼성바이오로직스</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>550000</v>
+        <v>1668000</v>
       </c>
       <c r="D3" t="n">
-        <v>33.9</v>
+        <v>19.1</v>
       </c>
       <c r="E3" t="n">
-        <v>91</v>
+        <v>91.7</v>
       </c>
       <c r="F3" t="n">
-        <v>56.9</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>36.9</v>
+        <v>57.40000000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>-20</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>009540</t>
+          <t>010140</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>HD한국조선해양</t>
+          <t>삼성중공업</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>409000</v>
+        <v>27500</v>
       </c>
       <c r="D4" t="n">
-        <v>37.2</v>
+        <v>27</v>
       </c>
       <c r="E4" t="n">
-        <v>95.09999999999999</v>
+        <v>93.3</v>
       </c>
       <c r="F4" t="n">
-        <v>46</v>
+        <v>57.9</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>26</v>
+        <v>47.9</v>
       </c>
       <c r="I4" t="n">
-        <v>-20</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>042660</t>
+          <t>009540</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>한화오션</t>
+          <t>HD한국조선해양</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>135600</v>
+        <v>395500</v>
       </c>
       <c r="D5" t="n">
-        <v>38.2</v>
+        <v>30.1</v>
       </c>
       <c r="E5" t="n">
-        <v>95.40000000000001</v>
+        <v>92.5</v>
       </c>
       <c r="F5" t="n">
-        <v>44.6</v>
+        <v>56.9</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>24.6</v>
+        <v>46.9</v>
       </c>
       <c r="I5" t="n">
-        <v>-20</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>051910</t>
+          <t>042660</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>LG화학</t>
+          <t>한화오션</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>312000</v>
+        <v>130600</v>
       </c>
       <c r="D6" t="n">
-        <v>42.8</v>
+        <v>32.3</v>
       </c>
       <c r="E6" t="n">
-        <v>94.2</v>
+        <v>92</v>
       </c>
       <c r="F6" t="n">
-        <v>43.4</v>
+        <v>56.1</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>23.4</v>
+        <v>46.1</v>
       </c>
       <c r="I6" t="n">
-        <v>-20</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>010140</t>
+          <t>012450</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>삼성중공업</t>
+          <t>한화에어로스페이스</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>28100</v>
+        <v>1181000</v>
       </c>
       <c r="D7" t="n">
-        <v>42.5</v>
+        <v>34.6</v>
       </c>
       <c r="E7" t="n">
-        <v>95.09999999999999</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>41.8</v>
+        <v>53.1</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>21.8</v>
+        <v>43.1</v>
       </c>
       <c r="I7" t="n">
-        <v>-20</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="8">
@@ -690,619 +690,619 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>241000</v>
+        <v>238500</v>
       </c>
       <c r="D8" t="n">
-        <v>42.1</v>
+        <v>30.3</v>
       </c>
       <c r="E8" t="n">
-        <v>95.90000000000001</v>
+        <v>94.7</v>
       </c>
       <c r="F8" t="n">
-        <v>40.5</v>
+        <v>52.4</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>20.5</v>
+        <v>42.4</v>
       </c>
       <c r="I8" t="n">
-        <v>-20</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>012450</t>
+          <t>051910</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>한화에어로스페이스</t>
+          <t>LG화학</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1227000</v>
+        <v>304000</v>
       </c>
       <c r="D9" t="n">
-        <v>42.3</v>
+        <v>39.1</v>
       </c>
       <c r="E9" t="n">
-        <v>96.09999999999999</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="F9" t="n">
-        <v>39.9</v>
+        <v>51</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>19.9</v>
+        <v>41</v>
       </c>
       <c r="I9" t="n">
-        <v>-20</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>064350</t>
+          <t>267260</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>현대로템</t>
+          <t>HD현대일렉트릭</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>207000</v>
+        <v>840000</v>
       </c>
       <c r="D10" t="n">
-        <v>45.7</v>
+        <v>37.6</v>
       </c>
       <c r="E10" t="n">
-        <v>94.8</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="F10" t="n">
-        <v>39.8</v>
+        <v>47.2</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>19.8</v>
+        <v>37.2</v>
       </c>
       <c r="I10" t="n">
-        <v>-20</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>267260</t>
+          <t>064350</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>HD현대일렉트릭</t>
+          <t>현대로템</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>873000</v>
+        <v>202500</v>
       </c>
       <c r="D11" t="n">
-        <v>44.4</v>
+        <v>43.7</v>
       </c>
       <c r="E11" t="n">
-        <v>98</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="F11" t="n">
-        <v>34.5</v>
+        <v>44.8</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>14.5</v>
+        <v>34.8</v>
       </c>
       <c r="I11" t="n">
-        <v>-20</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>034020</t>
+          <t>012330</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>두산에너빌리티</t>
+          <t>현대모비스</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>90600</v>
+        <v>426000</v>
       </c>
       <c r="D12" t="n">
-        <v>44.1</v>
+        <v>40.9</v>
       </c>
       <c r="E12" t="n">
-        <v>99.3</v>
+        <v>95.2</v>
       </c>
       <c r="F12" t="n">
-        <v>32.2</v>
+        <v>42.9</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>12.2</v>
+        <v>32.9</v>
       </c>
       <c r="I12" t="n">
-        <v>-20</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>012330</t>
+          <t>298040</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>현대모비스</t>
+          <t>효성중공업</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>433500</v>
+        <v>2211000</v>
       </c>
       <c r="D13" t="n">
-        <v>50.6</v>
+        <v>42</v>
       </c>
       <c r="E13" t="n">
-        <v>97.2</v>
+        <v>95.2</v>
       </c>
       <c r="F13" t="n">
-        <v>31.2</v>
+        <v>41.9</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>11.2</v>
+        <v>31.9</v>
       </c>
       <c r="I13" t="n">
-        <v>-20</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>035720</t>
+          <t>000270</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>카카오</t>
+          <t>기아</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>58200</v>
+        <v>151900</v>
       </c>
       <c r="D14" t="n">
-        <v>52.9</v>
+        <v>34.8</v>
       </c>
       <c r="E14" t="n">
-        <v>98.2</v>
+        <v>98.8</v>
       </c>
       <c r="F14" t="n">
-        <v>27.3</v>
+        <v>40.6</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>7.300000000000001</v>
+        <v>30.6</v>
       </c>
       <c r="I14" t="n">
-        <v>-20</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>373220</t>
+          <t>034020</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>LG에너지솔루션</t>
+          <t>두산에너빌리티</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>395000</v>
+        <v>89000</v>
       </c>
       <c r="D15" t="n">
-        <v>51.2</v>
+        <v>42.2</v>
       </c>
       <c r="E15" t="n">
-        <v>99.09999999999999</v>
+        <v>97.3</v>
       </c>
       <c r="F15" t="n">
-        <v>26.8</v>
+        <v>37.7</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>6.800000000000001</v>
+        <v>27.7</v>
       </c>
       <c r="I15" t="n">
-        <v>-20</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>035420</t>
+          <t>066570</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>NAVER</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>257000</v>
+        <v>99200</v>
       </c>
       <c r="D16" t="n">
-        <v>55.3</v>
+        <v>37.5</v>
       </c>
       <c r="E16" t="n">
-        <v>98.59999999999999</v>
+        <v>99.2</v>
       </c>
       <c r="F16" t="n">
-        <v>24.4</v>
+        <v>37.6</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>4.399999999999999</v>
+        <v>27.6</v>
       </c>
       <c r="I16" t="n">
-        <v>-20</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>298040</t>
+          <t>047810</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>효성중공업</t>
+          <t>한국항공우주</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2334000</v>
+        <v>158300</v>
       </c>
       <c r="D17" t="n">
-        <v>50.1</v>
+        <v>43.1</v>
       </c>
       <c r="E17" t="n">
-        <v>101.2</v>
+        <v>97</v>
       </c>
       <c r="F17" t="n">
-        <v>23.5</v>
+        <v>37.5</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>3.5</v>
+        <v>27.5</v>
       </c>
       <c r="I17" t="n">
-        <v>-20</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>011200</t>
+          <t>035720</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>HMM</t>
+          <t>카카오</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>20300</v>
+        <v>56200</v>
       </c>
       <c r="D18" t="n">
-        <v>52.7</v>
+        <v>48.8</v>
       </c>
       <c r="E18" t="n">
-        <v>100.2</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="F18" t="n">
-        <v>23.4</v>
+        <v>37.1</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>3.399999999999999</v>
+        <v>27.1</v>
       </c>
       <c r="I18" t="n">
-        <v>-20</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>047810</t>
+          <t>373220</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>한국항공우주</t>
+          <t>LG에너지솔루션</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>162000</v>
+        <v>385000</v>
       </c>
       <c r="D19" t="n">
-        <v>55.3</v>
+        <v>45.9</v>
       </c>
       <c r="E19" t="n">
-        <v>99.59999999999999</v>
+        <v>96.3</v>
       </c>
       <c r="F19" t="n">
-        <v>22.6</v>
+        <v>36.6</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>2.600000000000001</v>
+        <v>26.6</v>
       </c>
       <c r="I19" t="n">
-        <v>-20</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>066570</t>
+          <t>352820</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>하이브</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>100300</v>
+        <v>355500</v>
       </c>
       <c r="D20" t="n">
-        <v>52.5</v>
+        <v>43.6</v>
       </c>
       <c r="E20" t="n">
-        <v>100.8</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="F20" t="n">
-        <v>22.3</v>
+        <v>34.2</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>2.300000000000001</v>
+        <v>24.2</v>
       </c>
       <c r="I20" t="n">
-        <v>-20</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>009150</t>
+          <t>005380</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>삼성전기</t>
+          <t>현대차</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>290000</v>
+        <v>467500</v>
       </c>
       <c r="D21" t="n">
-        <v>50.3</v>
+        <v>47.8</v>
       </c>
       <c r="E21" t="n">
-        <v>102.1</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="F21" t="n">
-        <v>21.6</v>
+        <v>30.9</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>1.600000000000001</v>
+        <v>20.9</v>
       </c>
       <c r="I21" t="n">
-        <v>-20</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>267250</t>
+          <t>035420</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>HD현대</t>
+          <t>NAVER</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>241500</v>
+        <v>249000</v>
       </c>
       <c r="D22" t="n">
-        <v>53</v>
+        <v>55.1</v>
       </c>
       <c r="E22" t="n">
-        <v>101.7</v>
+        <v>95.7</v>
       </c>
       <c r="F22" t="n">
-        <v>20.2</v>
+        <v>30.6</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1999999999999993</v>
+        <v>20.6</v>
       </c>
       <c r="I22" t="n">
-        <v>-20</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>005935</t>
+          <t>096770</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>삼성전자우</t>
+          <t>SK이노베이션</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>113500</v>
+        <v>106200</v>
       </c>
       <c r="D23" t="n">
-        <v>52.6</v>
+        <v>50</v>
       </c>
       <c r="E23" t="n">
-        <v>102.1</v>
+        <v>97.7</v>
       </c>
       <c r="F23" t="n">
-        <v>19.7</v>
+        <v>30.6</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.3000000000000007</v>
+        <v>20.6</v>
       </c>
       <c r="I23" t="n">
-        <v>-20</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>096770</t>
+          <t>009150</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>SK이노베이션</t>
+          <t>삼성전기</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>109800</v>
+        <v>284000</v>
       </c>
       <c r="D24" t="n">
-        <v>55.1</v>
+        <v>45.4</v>
       </c>
       <c r="E24" t="n">
-        <v>101.3</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="F24" t="n">
-        <v>19.3</v>
+        <v>30.4</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.6999999999999993</v>
+        <v>20.4</v>
       </c>
       <c r="I24" t="n">
-        <v>-20</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>000270</t>
+          <t>028260</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>기아</t>
+          <t>삼성물산</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>156200</v>
+        <v>289500</v>
       </c>
       <c r="D25" t="n">
-        <v>53.5</v>
+        <v>50.3</v>
       </c>
       <c r="E25" t="n">
-        <v>102.2</v>
+        <v>98</v>
       </c>
       <c r="F25" t="n">
-        <v>18.8</v>
+        <v>29.8</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>-1.199999999999999</v>
+        <v>19.8</v>
       </c>
       <c r="I25" t="n">
-        <v>-20</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>000810</t>
+          <t>267250</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>삼성화재</t>
+          <t>HD현대</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>503000</v>
+        <v>238500</v>
       </c>
       <c r="D26" t="n">
-        <v>55.8</v>
+        <v>45.9</v>
       </c>
       <c r="E26" t="n">
-        <v>102.6</v>
+        <v>99.7</v>
       </c>
       <c r="F26" t="n">
-        <v>16.1</v>
+        <v>29.8</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>-3.899999999999999</v>
+        <v>19.8</v>
       </c>
       <c r="I26" t="n">
-        <v>-20</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="27">
@@ -1317,25 +1317,25 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>25050</v>
+        <v>24750</v>
       </c>
       <c r="D27" t="n">
-        <v>42.7</v>
+        <v>41.2</v>
       </c>
       <c r="E27" t="n">
-        <v>100</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="F27" t="n">
-        <v>31.8</v>
+        <v>35.3</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>11.8</v>
+        <v>25.3</v>
       </c>
       <c r="I27" t="n">
-        <v>-20</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="28">
@@ -1350,25 +1350,25 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>162125</v>
+        <v>159425</v>
       </c>
       <c r="D28" t="n">
-        <v>36.8</v>
+        <v>36.1</v>
       </c>
       <c r="E28" t="n">
-        <v>98.2</v>
+        <v>96.7</v>
       </c>
       <c r="F28" t="n">
-        <v>40.1</v>
+        <v>43.6</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>20.1</v>
+        <v>33.6</v>
       </c>
       <c r="I28" t="n">
-        <v>-20</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="29">
@@ -1383,25 +1383,25 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>21100</v>
+        <v>20300</v>
       </c>
       <c r="D29" t="n">
-        <v>68.90000000000001</v>
+        <v>60.4</v>
       </c>
       <c r="E29" t="n">
-        <v>107.1</v>
+        <v>102.1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9</v>
+        <v>13.4</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>-19.1</v>
+        <v>3.4</v>
       </c>
       <c r="I29" t="n">
-        <v>-20</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="30">
@@ -1416,25 +1416,25 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>84000</v>
+        <v>84420</v>
       </c>
       <c r="D30" t="n">
-        <v>65.59999999999999</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="E30" t="n">
-        <v>109.9</v>
+        <v>109.3</v>
       </c>
       <c r="F30" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>-16.5</v>
+        <v>-6.3</v>
       </c>
       <c r="I30" t="n">
-        <v>-20</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="31">
@@ -1449,25 +1449,25 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>12360</v>
+        <v>12580</v>
       </c>
       <c r="D31" t="n">
-        <v>28</v>
+        <v>36.8</v>
       </c>
       <c r="E31" t="n">
-        <v>97.2</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="F31" t="n">
-        <v>49.2</v>
+        <v>38.3</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>29.2</v>
+        <v>28.3</v>
       </c>
       <c r="I31" t="n">
-        <v>-20</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="32">
@@ -1482,25 +1482,25 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>76010</v>
+        <v>75195</v>
       </c>
       <c r="D32" t="n">
-        <v>61.1</v>
+        <v>57.4</v>
       </c>
       <c r="E32" t="n">
-        <v>104.4</v>
+        <v>102.7</v>
       </c>
       <c r="F32" t="n">
-        <v>8.300000000000001</v>
+        <v>14.7</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>-11.7</v>
+        <v>4.699999999999999</v>
       </c>
       <c r="I32" t="n">
-        <v>-20</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="33">
@@ -1515,25 +1515,25 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>27400</v>
+        <v>27250</v>
       </c>
       <c r="D33" t="n">
-        <v>61</v>
+        <v>58.3</v>
       </c>
       <c r="E33" t="n">
-        <v>104.9</v>
+        <v>103.7</v>
       </c>
       <c r="F33" t="n">
-        <v>7.4</v>
+        <v>12</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>-12.6</v>
+        <v>2</v>
       </c>
       <c r="I33" t="n">
-        <v>-20</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="34">
@@ -1548,25 +1548,25 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>28180</v>
+        <v>27760</v>
       </c>
       <c r="D34" t="n">
-        <v>54.9</v>
+        <v>52.5</v>
       </c>
       <c r="E34" t="n">
-        <v>100.9</v>
+        <v>99</v>
       </c>
       <c r="F34" t="n">
-        <v>20.3</v>
+        <v>26</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3000000000000007</v>
+        <v>16</v>
       </c>
       <c r="I34" t="n">
-        <v>-20</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="35">
@@ -1581,25 +1581,25 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>70755</v>
+        <v>69795</v>
       </c>
       <c r="D35" t="n">
-        <v>44</v>
+        <v>43.3</v>
       </c>
       <c r="E35" t="n">
-        <v>99.3</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="F35" t="n">
-        <v>32.2</v>
+        <v>35.2</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>12.2</v>
+        <v>25.2</v>
       </c>
       <c r="I35" t="n">
-        <v>-20</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="36">
@@ -1614,13 +1614,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>14580</v>
+        <v>14935</v>
       </c>
       <c r="D36" t="n">
-        <v>80.2</v>
+        <v>83.3</v>
       </c>
       <c r="E36" t="n">
-        <v>109.7</v>
+        <v>111.3</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -1629,10 +1629,10 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>-20</v>
+        <v>-10</v>
       </c>
       <c r="I36" t="n">
-        <v>-20</v>
+        <v>-10</v>
       </c>
     </row>
   </sheetData>

--- a/latest_analysis.xlsx
+++ b/latest_analysis.xlsx
@@ -507,10 +507,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>57.5</v>
+        <v>77.5</v>
       </c>
       <c r="I2" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -540,10 +540,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>57.40000000000001</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -573,10 +573,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>47.9</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -606,10 +606,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>46.9</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -639,10 +639,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>46.1</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="I6" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -672,10 +672,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>43.1</v>
+        <v>63.1</v>
       </c>
       <c r="I7" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -705,10 +705,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>42.4</v>
+        <v>62.4</v>
       </c>
       <c r="I8" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -738,10 +738,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="I9" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -771,10 +771,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>37.2</v>
+        <v>57.2</v>
       </c>
       <c r="I10" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -804,10 +804,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>34.8</v>
+        <v>54.8</v>
       </c>
       <c r="I11" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>32.9</v>
+        <v>52.9</v>
       </c>
       <c r="I12" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -870,10 +870,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>31.9</v>
+        <v>51.9</v>
       </c>
       <c r="I13" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -903,10 +903,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>30.6</v>
+        <v>50.6</v>
       </c>
       <c r="I14" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -936,10 +936,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>27.7</v>
+        <v>47.7</v>
       </c>
       <c r="I15" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -969,10 +969,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>27.6</v>
+        <v>47.6</v>
       </c>
       <c r="I16" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -1002,10 +1002,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>27.5</v>
+        <v>47.5</v>
       </c>
       <c r="I17" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -1035,10 +1035,10 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>27.1</v>
+        <v>47.1</v>
       </c>
       <c r="I18" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>26.6</v>
+        <v>46.6</v>
       </c>
       <c r="I19" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>24.2</v>
+        <v>44.2</v>
       </c>
       <c r="I20" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -1134,10 +1134,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>20.9</v>
+        <v>40.9</v>
       </c>
       <c r="I21" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22">
@@ -1167,10 +1167,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>20.6</v>
+        <v>40.6</v>
       </c>
       <c r="I22" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23">
@@ -1200,10 +1200,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>20.6</v>
+        <v>40.6</v>
       </c>
       <c r="I23" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -1233,10 +1233,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>20.4</v>
+        <v>40.4</v>
       </c>
       <c r="I24" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -1266,10 +1266,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>19.8</v>
+        <v>39.8</v>
       </c>
       <c r="I25" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -1299,10 +1299,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>19.8</v>
+        <v>39.8</v>
       </c>
       <c r="I26" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27">
@@ -1332,10 +1332,10 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>25.3</v>
+        <v>45.3</v>
       </c>
       <c r="I27" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28">
@@ -1365,10 +1365,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>33.6</v>
+        <v>53.6</v>
       </c>
       <c r="I28" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29">
@@ -1398,10 +1398,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>3.4</v>
+        <v>23.4</v>
       </c>
       <c r="I29" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30">
@@ -1431,10 +1431,10 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>-6.3</v>
+        <v>13.7</v>
       </c>
       <c r="I30" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31">
@@ -1464,10 +1464,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>28.3</v>
+        <v>48.3</v>
       </c>
       <c r="I31" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32">
@@ -1497,10 +1497,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>4.699999999999999</v>
+        <v>24.7</v>
       </c>
       <c r="I32" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33">
@@ -1530,10 +1530,10 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="I33" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34">
@@ -1563,10 +1563,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I34" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35">
@@ -1596,10 +1596,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>25.2</v>
+        <v>45.2</v>
       </c>
       <c r="I35" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36">
@@ -1629,10 +1629,10 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="I36" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
